--- a/PROYECTO BUZON/PPS - [Buzón] - [RNF - Cuantitativa - Base Datos].xlsx
+++ b/PROYECTO BUZON/PPS - [Buzón] - [RNF - Cuantitativa - Base Datos].xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO BUZON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO BUZON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97789A9-2D4C-437D-A8AD-35943D064F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6AF81A-04F0-46C6-A437-6A599C38DD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato 1.0 " sheetId="5" r:id="rId1"/>
@@ -1839,12 +1839,6 @@
     <t>En el contexto de la migración de mensajes, usuarios y archivos adjuntos desde Buzón 1.0 de ORACLE a Buzón 2.0 MongoDB y FILENET, los requerimientos no funcionales han sido heredados de los requerimientos no funcionales de Buzón 2.0, garantizando que el proceso de transferencia, almacenamiento y actualización de los correos electrónicos y sus metadatos sea eficaz y cumpla con los requisitos de integridad, disponibilidad y accesibilidad de los datos</t>
   </si>
   <si>
-    <t>Accesos Disponible Acceso para:'
--Base de datos Oracle (VUCE1)
--Base de datos Mongo (VUCE2)
--Repositorio a los registros log</t>
-  </si>
-  <si>
     <t>Se requiere tener la siguiente información:
 -Rol/Usuario
 -Scripts de Consulta
@@ -1858,22 +1852,21 @@
     <t>x</t>
   </si>
   <si>
-    <t>P1. Ingresar los paramentros de tiempo, tipo de aviso, tipo propietario en documento de configuración
-P2. Ejecutar el Script en BD oracle la sentencia con los parametros ingresados en la herramienta gestor de datos relacional
-P3. Ingresar a la consola del S.O. y ejecutar el archivo .SH para el inicio de transformación de la data  
-P4. Ejecutar el Script en BD mongo la sentencia con los parametros ingresados en la herramienta gestor de datos no relacional
-P5. Validar el log de la ejecución
-P6. Verificar la estructura de los mensajes y la validez (consistencia) de los mismos
-P7. Alternativo: Ingresar al Filenet a la ruta donde se aloja la documentación adjunta</t>
-  </si>
-  <si>
-    <t>R1. Los atributos son registrados en el sub sistema de migración
-R2. Se valida exitosamente la cantidad de los registros obtenidos con respecto a los parametros solicitados en estructura relacional.
-R3. El sistema ejecuta el proceso via consola,registrando y generando toda la información pertinente. mostrando la trazabilidad del proceso 
-R4. Se valida exitosamente la cantidad de los registros obtenidos con respecto a los parametros solicitados en estructura no relacional.
-R5. Se obtiene los resultados del proceso en tiempo máximo de ejecución de la transacción, numero de transacciones realizadas
-R6. Se valida exitosamente la relación de los campos relaciones vs atributos no relacionales con el formato de consistencia de data
-P7. Alternativo: Se revisa la documentación adjunta recepcionada</t>
+    <t>P1. Ejecutar el Script en BD oracle la sentencia con los parametros ingresados en la herramienta gestor de datos relacional
+P2. Ejecutar el Script en BD mongo la sentencia con los parametros ingresados en la herramienta gestor de datos no relacional
+P3. Verificar la estructura de los mensajes y la validez (consistencia) de los mismos</t>
+  </si>
+  <si>
+    <t>R1. Se valida exitosamente la cantidad de los registros obtenidos con respecto a los parametros solicitados en estructura relacional.
+R2. Se valida exitosamente la cantidad de los registros obtenidos con respecto a los parametros solicitados en estructura no relacional.
+R3. Se valida exitosamente la relación de los campos relaciones vs atributos no relacionales con el formato de consistencia de data</t>
+  </si>
+  <si>
+    <t>Accesos Disponible Acceso para:'
+-Base de datos Oracle (VUCE1)
+-Base de datos Mongo (VUCE2)
+-Repositorio a los registros log
+-El ambiente ya debe contener la información ya migrada para iniciar la prueba Cuantitativa</t>
   </si>
 </sst>
 </file>
@@ -2918,30 +2911,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2981,8 +2950,32 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3242,12 +3235,6 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3256,6 +3243,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -18605,8 +18598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE48EE09-E661-402D-BA1B-A100D489DD1B}">
   <dimension ref="A3:AX203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z38" sqref="Z38"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA45" sqref="AA45:AQ45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18827,7 +18820,7 @@
       </c>
       <c r="L9" s="126"/>
       <c r="M9" s="127" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N9" s="128"/>
       <c r="O9" s="128"/>
@@ -19718,7 +19711,7 @@
         <v>26</v>
       </c>
       <c r="AD30" s="81" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF30" s="155" t="s">
         <v>27</v>
@@ -19973,28 +19966,28 @@
     </row>
     <row r="36" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
-      <c r="B36" s="93" t="s">
+      <c r="B36" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="96">
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="88">
         <f>COUNTIF($AX:$AX,"NO CONFORME")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="97"/>
-      <c r="L36" s="98"/>
-      <c r="M36" s="99">
+      <c r="K36" s="89"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="91">
         <f>ROUND((J36/$J$40)*100,0)</f>
         <v>0</v>
       </c>
-      <c r="N36" s="100"/>
-      <c r="O36" s="101"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="93"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
@@ -20026,28 +20019,28 @@
     </row>
     <row r="37" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
-      <c r="B37" s="93" t="s">
+      <c r="B37" s="85" t="s">
         <v>278</v>
       </c>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="96">
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="88">
         <f>COUNTIF($AX:$AX,"NO APLICA")</f>
         <v>0</v>
       </c>
-      <c r="K37" s="97"/>
-      <c r="L37" s="98"/>
-      <c r="M37" s="99">
+      <c r="K37" s="89"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="91">
         <f>ROUND((J37/$J$40)*100,0)</f>
         <v>0</v>
       </c>
-      <c r="N37" s="100"/>
-      <c r="O37" s="101"/>
+      <c r="N37" s="92"/>
+      <c r="O37" s="93"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
@@ -20082,28 +20075,28 @@
     </row>
     <row r="38" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
-      <c r="B38" s="93" t="s">
+      <c r="B38" s="85" t="s">
         <v>279</v>
       </c>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="96">
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="88">
         <f>COUNTIF($AX:$AX,"Bloqueante")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="97"/>
-      <c r="L38" s="98"/>
-      <c r="M38" s="99">
+      <c r="K38" s="89"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="91">
         <f t="shared" ref="M38" si="0">ROUND((J38/$J$40)*100,0)</f>
         <v>0</v>
       </c>
-      <c r="N38" s="100"/>
-      <c r="O38" s="101"/>
+      <c r="N38" s="92"/>
+      <c r="O38" s="93"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
@@ -20188,16 +20181,16 @@
     </row>
     <row r="40" spans="1:50" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
-      <c r="B40" s="192" t="s">
+      <c r="B40" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="193"/>
-      <c r="D40" s="193"/>
-      <c r="E40" s="193"/>
-      <c r="F40" s="193"/>
-      <c r="G40" s="193"/>
-      <c r="H40" s="193"/>
-      <c r="I40" s="194"/>
+      <c r="C40" s="191"/>
+      <c r="D40" s="191"/>
+      <c r="E40" s="191"/>
+      <c r="F40" s="191"/>
+      <c r="G40" s="191"/>
+      <c r="H40" s="191"/>
+      <c r="I40" s="192"/>
       <c r="J40" s="185">
         <f>SUM(J35:J39)</f>
         <v>56</v>
@@ -20460,68 +20453,68 @@
       </c>
     </row>
     <row r="45" spans="1:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="102" t="s">
+      <c r="B45" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="C45" s="83"/>
-      <c r="D45" s="103" t="s">
+      <c r="C45" s="95"/>
+      <c r="D45" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E45" s="83"/>
-      <c r="F45" s="82" t="s">
+      <c r="E45" s="95"/>
+      <c r="F45" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G45" s="83"/>
-      <c r="H45" s="84" t="s">
+      <c r="G45" s="95"/>
+      <c r="H45" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I45" s="85"/>
-      <c r="J45" s="86" t="s">
+      <c r="I45" s="99"/>
+      <c r="J45" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="83">
+      <c r="K45" s="100"/>
+      <c r="L45" s="100"/>
+      <c r="M45" s="95">
         <v>2</v>
       </c>
-      <c r="N45" s="83"/>
-      <c r="O45" s="83"/>
-      <c r="P45" s="83">
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="95">
         <v>1</v>
       </c>
-      <c r="Q45" s="83"/>
-      <c r="R45" s="83"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="95"/>
       <c r="S45" s="104">
         <v>3</v>
       </c>
       <c r="T45" s="105"/>
-      <c r="U45" s="87" t="s">
+      <c r="U45" s="101" t="s">
         <v>222</v>
       </c>
-      <c r="V45" s="88"/>
-      <c r="W45" s="88"/>
-      <c r="X45" s="88"/>
-      <c r="Y45" s="88"/>
-      <c r="Z45" s="89"/>
-      <c r="AA45" s="90" t="s">
+      <c r="V45" s="102"/>
+      <c r="W45" s="102"/>
+      <c r="X45" s="102"/>
+      <c r="Y45" s="102"/>
+      <c r="Z45" s="103"/>
+      <c r="AA45" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB45" s="91"/>
-      <c r="AC45" s="91"/>
-      <c r="AD45" s="91"/>
-      <c r="AE45" s="91"/>
-      <c r="AF45" s="91"/>
-      <c r="AG45" s="91"/>
-      <c r="AH45" s="91"/>
-      <c r="AI45" s="91"/>
-      <c r="AJ45" s="91"/>
-      <c r="AK45" s="91"/>
-      <c r="AL45" s="91"/>
-      <c r="AM45" s="91"/>
-      <c r="AN45" s="91"/>
-      <c r="AO45" s="91"/>
-      <c r="AP45" s="91"/>
-      <c r="AQ45" s="92"/>
+      <c r="AB45" s="83"/>
+      <c r="AC45" s="83"/>
+      <c r="AD45" s="83"/>
+      <c r="AE45" s="83"/>
+      <c r="AF45" s="83"/>
+      <c r="AG45" s="83"/>
+      <c r="AH45" s="83"/>
+      <c r="AI45" s="83"/>
+      <c r="AJ45" s="83"/>
+      <c r="AK45" s="83"/>
+      <c r="AL45" s="83"/>
+      <c r="AM45" s="83"/>
+      <c r="AN45" s="83"/>
+      <c r="AO45" s="83"/>
+      <c r="AP45" s="83"/>
+      <c r="AQ45" s="84"/>
       <c r="AR45" s="74" t="s">
         <v>155</v>
       </c>
@@ -20529,84 +20522,84 @@
         <v>151</v>
       </c>
       <c r="AT45" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU45" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU45" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV45" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW45" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW45" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX45" s="75" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="102" t="s">
+      <c r="B46" s="94" t="s">
         <v>160</v>
       </c>
-      <c r="C46" s="83"/>
-      <c r="D46" s="103" t="s">
+      <c r="C46" s="95"/>
+      <c r="D46" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E46" s="83"/>
-      <c r="F46" s="82" t="s">
+      <c r="E46" s="95"/>
+      <c r="F46" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G46" s="83"/>
-      <c r="H46" s="84" t="s">
+      <c r="G46" s="95"/>
+      <c r="H46" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I46" s="85"/>
-      <c r="J46" s="86" t="s">
+      <c r="I46" s="99"/>
+      <c r="J46" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K46" s="86"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="83">
+      <c r="K46" s="100"/>
+      <c r="L46" s="100"/>
+      <c r="M46" s="95">
         <v>2</v>
       </c>
-      <c r="N46" s="83"/>
-      <c r="O46" s="83"/>
-      <c r="P46" s="83">
+      <c r="N46" s="95"/>
+      <c r="O46" s="95"/>
+      <c r="P46" s="95">
         <v>1</v>
       </c>
-      <c r="Q46" s="83"/>
-      <c r="R46" s="83"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="95"/>
       <c r="S46" s="104">
         <v>3</v>
       </c>
       <c r="T46" s="105"/>
-      <c r="U46" s="87" t="s">
+      <c r="U46" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="V46" s="88"/>
-      <c r="W46" s="88"/>
-      <c r="X46" s="88"/>
-      <c r="Y46" s="88"/>
-      <c r="Z46" s="89"/>
-      <c r="AA46" s="90" t="s">
+      <c r="V46" s="102"/>
+      <c r="W46" s="102"/>
+      <c r="X46" s="102"/>
+      <c r="Y46" s="102"/>
+      <c r="Z46" s="103"/>
+      <c r="AA46" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB46" s="91"/>
-      <c r="AC46" s="91"/>
-      <c r="AD46" s="91"/>
-      <c r="AE46" s="91"/>
-      <c r="AF46" s="91"/>
-      <c r="AG46" s="91"/>
-      <c r="AH46" s="91"/>
-      <c r="AI46" s="91"/>
-      <c r="AJ46" s="91"/>
-      <c r="AK46" s="91"/>
-      <c r="AL46" s="91"/>
-      <c r="AM46" s="91"/>
-      <c r="AN46" s="91"/>
-      <c r="AO46" s="91"/>
-      <c r="AP46" s="91"/>
-      <c r="AQ46" s="92"/>
+      <c r="AB46" s="83"/>
+      <c r="AC46" s="83"/>
+      <c r="AD46" s="83"/>
+      <c r="AE46" s="83"/>
+      <c r="AF46" s="83"/>
+      <c r="AG46" s="83"/>
+      <c r="AH46" s="83"/>
+      <c r="AI46" s="83"/>
+      <c r="AJ46" s="83"/>
+      <c r="AK46" s="83"/>
+      <c r="AL46" s="83"/>
+      <c r="AM46" s="83"/>
+      <c r="AN46" s="83"/>
+      <c r="AO46" s="83"/>
+      <c r="AP46" s="83"/>
+      <c r="AQ46" s="84"/>
       <c r="AR46" s="74" t="s">
         <v>155</v>
       </c>
@@ -20614,84 +20607,84 @@
         <v>151</v>
       </c>
       <c r="AT46" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU46" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU46" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV46" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW46" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW46" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX46" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="102" t="s">
+      <c r="B47" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="C47" s="83"/>
-      <c r="D47" s="103" t="s">
+      <c r="C47" s="95"/>
+      <c r="D47" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E47" s="83"/>
-      <c r="F47" s="82" t="s">
+      <c r="E47" s="95"/>
+      <c r="F47" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G47" s="83"/>
-      <c r="H47" s="84" t="s">
+      <c r="G47" s="95"/>
+      <c r="H47" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I47" s="85"/>
-      <c r="J47" s="86" t="s">
+      <c r="I47" s="99"/>
+      <c r="J47" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K47" s="86"/>
-      <c r="L47" s="86"/>
-      <c r="M47" s="83">
+      <c r="K47" s="100"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="95">
         <v>2</v>
       </c>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83"/>
-      <c r="P47" s="83">
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="95">
         <v>1</v>
       </c>
-      <c r="Q47" s="83"/>
-      <c r="R47" s="83"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="95"/>
       <c r="S47" s="104">
         <v>3</v>
       </c>
       <c r="T47" s="105"/>
-      <c r="U47" s="87" t="s">
+      <c r="U47" s="101" t="s">
         <v>224</v>
       </c>
-      <c r="V47" s="88"/>
-      <c r="W47" s="88"/>
-      <c r="X47" s="88"/>
-      <c r="Y47" s="88"/>
-      <c r="Z47" s="89"/>
-      <c r="AA47" s="90" t="s">
+      <c r="V47" s="102"/>
+      <c r="W47" s="102"/>
+      <c r="X47" s="102"/>
+      <c r="Y47" s="102"/>
+      <c r="Z47" s="103"/>
+      <c r="AA47" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB47" s="91"/>
-      <c r="AC47" s="91"/>
-      <c r="AD47" s="91"/>
-      <c r="AE47" s="91"/>
-      <c r="AF47" s="91"/>
-      <c r="AG47" s="91"/>
-      <c r="AH47" s="91"/>
-      <c r="AI47" s="91"/>
-      <c r="AJ47" s="91"/>
-      <c r="AK47" s="91"/>
-      <c r="AL47" s="91"/>
-      <c r="AM47" s="91"/>
-      <c r="AN47" s="91"/>
-      <c r="AO47" s="91"/>
-      <c r="AP47" s="91"/>
-      <c r="AQ47" s="92"/>
+      <c r="AB47" s="83"/>
+      <c r="AC47" s="83"/>
+      <c r="AD47" s="83"/>
+      <c r="AE47" s="83"/>
+      <c r="AF47" s="83"/>
+      <c r="AG47" s="83"/>
+      <c r="AH47" s="83"/>
+      <c r="AI47" s="83"/>
+      <c r="AJ47" s="83"/>
+      <c r="AK47" s="83"/>
+      <c r="AL47" s="83"/>
+      <c r="AM47" s="83"/>
+      <c r="AN47" s="83"/>
+      <c r="AO47" s="83"/>
+      <c r="AP47" s="83"/>
+      <c r="AQ47" s="84"/>
       <c r="AR47" s="74" t="s">
         <v>155</v>
       </c>
@@ -20699,84 +20692,84 @@
         <v>151</v>
       </c>
       <c r="AT47" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU47" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU47" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV47" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW47" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW47" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX47" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="83"/>
-      <c r="D48" s="103" t="s">
+      <c r="C48" s="95"/>
+      <c r="D48" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E48" s="83"/>
-      <c r="F48" s="82" t="s">
+      <c r="E48" s="95"/>
+      <c r="F48" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G48" s="83"/>
-      <c r="H48" s="84" t="s">
+      <c r="G48" s="95"/>
+      <c r="H48" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I48" s="85"/>
-      <c r="J48" s="86" t="s">
+      <c r="I48" s="99"/>
+      <c r="J48" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K48" s="86"/>
-      <c r="L48" s="86"/>
-      <c r="M48" s="83">
+      <c r="K48" s="100"/>
+      <c r="L48" s="100"/>
+      <c r="M48" s="95">
         <v>2</v>
       </c>
-      <c r="N48" s="83"/>
-      <c r="O48" s="83"/>
-      <c r="P48" s="83">
+      <c r="N48" s="95"/>
+      <c r="O48" s="95"/>
+      <c r="P48" s="95">
         <v>1</v>
       </c>
-      <c r="Q48" s="83"/>
-      <c r="R48" s="83"/>
+      <c r="Q48" s="95"/>
+      <c r="R48" s="95"/>
       <c r="S48" s="104">
         <v>3</v>
       </c>
       <c r="T48" s="105"/>
-      <c r="U48" s="87" t="s">
+      <c r="U48" s="101" t="s">
         <v>225</v>
       </c>
-      <c r="V48" s="88"/>
-      <c r="W48" s="88"/>
-      <c r="X48" s="88"/>
-      <c r="Y48" s="88"/>
-      <c r="Z48" s="89"/>
-      <c r="AA48" s="90" t="s">
+      <c r="V48" s="102"/>
+      <c r="W48" s="102"/>
+      <c r="X48" s="102"/>
+      <c r="Y48" s="102"/>
+      <c r="Z48" s="103"/>
+      <c r="AA48" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB48" s="91"/>
-      <c r="AC48" s="91"/>
-      <c r="AD48" s="91"/>
-      <c r="AE48" s="91"/>
-      <c r="AF48" s="91"/>
-      <c r="AG48" s="91"/>
-      <c r="AH48" s="91"/>
-      <c r="AI48" s="91"/>
-      <c r="AJ48" s="91"/>
-      <c r="AK48" s="91"/>
-      <c r="AL48" s="91"/>
-      <c r="AM48" s="91"/>
-      <c r="AN48" s="91"/>
-      <c r="AO48" s="91"/>
-      <c r="AP48" s="91"/>
-      <c r="AQ48" s="92"/>
+      <c r="AB48" s="83"/>
+      <c r="AC48" s="83"/>
+      <c r="AD48" s="83"/>
+      <c r="AE48" s="83"/>
+      <c r="AF48" s="83"/>
+      <c r="AG48" s="83"/>
+      <c r="AH48" s="83"/>
+      <c r="AI48" s="83"/>
+      <c r="AJ48" s="83"/>
+      <c r="AK48" s="83"/>
+      <c r="AL48" s="83"/>
+      <c r="AM48" s="83"/>
+      <c r="AN48" s="83"/>
+      <c r="AO48" s="83"/>
+      <c r="AP48" s="83"/>
+      <c r="AQ48" s="84"/>
       <c r="AR48" s="74" t="s">
         <v>155</v>
       </c>
@@ -20784,84 +20777,84 @@
         <v>151</v>
       </c>
       <c r="AT48" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU48" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU48" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV48" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW48" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW48" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX48" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="49" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="94" t="s">
         <v>163</v>
       </c>
-      <c r="C49" s="83"/>
-      <c r="D49" s="103" t="s">
+      <c r="C49" s="95"/>
+      <c r="D49" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E49" s="83"/>
-      <c r="F49" s="82" t="s">
+      <c r="E49" s="95"/>
+      <c r="F49" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G49" s="83"/>
-      <c r="H49" s="84" t="s">
+      <c r="G49" s="95"/>
+      <c r="H49" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I49" s="85"/>
-      <c r="J49" s="86" t="s">
+      <c r="I49" s="99"/>
+      <c r="J49" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K49" s="86"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="83">
+      <c r="K49" s="100"/>
+      <c r="L49" s="100"/>
+      <c r="M49" s="95">
         <v>2</v>
       </c>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
-      <c r="P49" s="83">
+      <c r="N49" s="95"/>
+      <c r="O49" s="95"/>
+      <c r="P49" s="95">
         <v>1</v>
       </c>
-      <c r="Q49" s="83"/>
-      <c r="R49" s="83"/>
+      <c r="Q49" s="95"/>
+      <c r="R49" s="95"/>
       <c r="S49" s="104">
         <v>3</v>
       </c>
       <c r="T49" s="105"/>
-      <c r="U49" s="87" t="s">
+      <c r="U49" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="V49" s="88"/>
-      <c r="W49" s="88"/>
-      <c r="X49" s="88"/>
-      <c r="Y49" s="88"/>
-      <c r="Z49" s="89"/>
-      <c r="AA49" s="90" t="s">
+      <c r="V49" s="102"/>
+      <c r="W49" s="102"/>
+      <c r="X49" s="102"/>
+      <c r="Y49" s="102"/>
+      <c r="Z49" s="103"/>
+      <c r="AA49" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB49" s="91"/>
-      <c r="AC49" s="91"/>
-      <c r="AD49" s="91"/>
-      <c r="AE49" s="91"/>
-      <c r="AF49" s="91"/>
-      <c r="AG49" s="91"/>
-      <c r="AH49" s="91"/>
-      <c r="AI49" s="91"/>
-      <c r="AJ49" s="91"/>
-      <c r="AK49" s="91"/>
-      <c r="AL49" s="91"/>
-      <c r="AM49" s="91"/>
-      <c r="AN49" s="91"/>
-      <c r="AO49" s="91"/>
-      <c r="AP49" s="91"/>
-      <c r="AQ49" s="92"/>
+      <c r="AB49" s="83"/>
+      <c r="AC49" s="83"/>
+      <c r="AD49" s="83"/>
+      <c r="AE49" s="83"/>
+      <c r="AF49" s="83"/>
+      <c r="AG49" s="83"/>
+      <c r="AH49" s="83"/>
+      <c r="AI49" s="83"/>
+      <c r="AJ49" s="83"/>
+      <c r="AK49" s="83"/>
+      <c r="AL49" s="83"/>
+      <c r="AM49" s="83"/>
+      <c r="AN49" s="83"/>
+      <c r="AO49" s="83"/>
+      <c r="AP49" s="83"/>
+      <c r="AQ49" s="84"/>
       <c r="AR49" s="74" t="s">
         <v>155</v>
       </c>
@@ -20869,84 +20862,84 @@
         <v>151</v>
       </c>
       <c r="AT49" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU49" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU49" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV49" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW49" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW49" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX49" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="102" t="s">
+      <c r="B50" s="94" t="s">
         <v>164</v>
       </c>
-      <c r="C50" s="83"/>
-      <c r="D50" s="103" t="s">
+      <c r="C50" s="95"/>
+      <c r="D50" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E50" s="83"/>
-      <c r="F50" s="82" t="s">
+      <c r="E50" s="95"/>
+      <c r="F50" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G50" s="83"/>
-      <c r="H50" s="84" t="s">
+      <c r="G50" s="95"/>
+      <c r="H50" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I50" s="85"/>
-      <c r="J50" s="86" t="s">
+      <c r="I50" s="99"/>
+      <c r="J50" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K50" s="86"/>
-      <c r="L50" s="86"/>
-      <c r="M50" s="83">
+      <c r="K50" s="100"/>
+      <c r="L50" s="100"/>
+      <c r="M50" s="95">
         <v>2</v>
       </c>
-      <c r="N50" s="83"/>
-      <c r="O50" s="83"/>
-      <c r="P50" s="83">
+      <c r="N50" s="95"/>
+      <c r="O50" s="95"/>
+      <c r="P50" s="95">
         <v>1</v>
       </c>
-      <c r="Q50" s="83"/>
-      <c r="R50" s="83"/>
-      <c r="S50" s="83">
+      <c r="Q50" s="95"/>
+      <c r="R50" s="95"/>
+      <c r="S50" s="95">
         <v>3</v>
       </c>
-      <c r="T50" s="83"/>
-      <c r="U50" s="87" t="s">
+      <c r="T50" s="95"/>
+      <c r="U50" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="V50" s="88"/>
-      <c r="W50" s="88"/>
-      <c r="X50" s="88"/>
-      <c r="Y50" s="88"/>
-      <c r="Z50" s="89"/>
-      <c r="AA50" s="90" t="s">
+      <c r="V50" s="102"/>
+      <c r="W50" s="102"/>
+      <c r="X50" s="102"/>
+      <c r="Y50" s="102"/>
+      <c r="Z50" s="103"/>
+      <c r="AA50" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB50" s="91"/>
-      <c r="AC50" s="91"/>
-      <c r="AD50" s="91"/>
-      <c r="AE50" s="91"/>
-      <c r="AF50" s="91"/>
-      <c r="AG50" s="91"/>
-      <c r="AH50" s="91"/>
-      <c r="AI50" s="91"/>
-      <c r="AJ50" s="91"/>
-      <c r="AK50" s="91"/>
-      <c r="AL50" s="91"/>
-      <c r="AM50" s="91"/>
-      <c r="AN50" s="91"/>
-      <c r="AO50" s="91"/>
-      <c r="AP50" s="91"/>
-      <c r="AQ50" s="92"/>
+      <c r="AB50" s="83"/>
+      <c r="AC50" s="83"/>
+      <c r="AD50" s="83"/>
+      <c r="AE50" s="83"/>
+      <c r="AF50" s="83"/>
+      <c r="AG50" s="83"/>
+      <c r="AH50" s="83"/>
+      <c r="AI50" s="83"/>
+      <c r="AJ50" s="83"/>
+      <c r="AK50" s="83"/>
+      <c r="AL50" s="83"/>
+      <c r="AM50" s="83"/>
+      <c r="AN50" s="83"/>
+      <c r="AO50" s="83"/>
+      <c r="AP50" s="83"/>
+      <c r="AQ50" s="84"/>
       <c r="AR50" s="74" t="s">
         <v>155</v>
       </c>
@@ -20954,84 +20947,84 @@
         <v>151</v>
       </c>
       <c r="AT50" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU50" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU50" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV50" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW50" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW50" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX50" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="51" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="102" t="s">
+      <c r="B51" s="94" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="83"/>
-      <c r="D51" s="103" t="s">
+      <c r="C51" s="95"/>
+      <c r="D51" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E51" s="83"/>
-      <c r="F51" s="82" t="s">
+      <c r="E51" s="95"/>
+      <c r="F51" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G51" s="83"/>
-      <c r="H51" s="84" t="s">
+      <c r="G51" s="95"/>
+      <c r="H51" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I51" s="85"/>
-      <c r="J51" s="86" t="s">
+      <c r="I51" s="99"/>
+      <c r="J51" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K51" s="86"/>
-      <c r="L51" s="86"/>
-      <c r="M51" s="83">
+      <c r="K51" s="100"/>
+      <c r="L51" s="100"/>
+      <c r="M51" s="95">
         <v>2</v>
       </c>
-      <c r="N51" s="83"/>
-      <c r="O51" s="83"/>
-      <c r="P51" s="83">
+      <c r="N51" s="95"/>
+      <c r="O51" s="95"/>
+      <c r="P51" s="95">
         <v>1</v>
       </c>
-      <c r="Q51" s="83"/>
-      <c r="R51" s="83"/>
-      <c r="S51" s="83">
+      <c r="Q51" s="95"/>
+      <c r="R51" s="95"/>
+      <c r="S51" s="95">
         <v>3</v>
       </c>
-      <c r="T51" s="83"/>
-      <c r="U51" s="87" t="s">
+      <c r="T51" s="95"/>
+      <c r="U51" s="101" t="s">
         <v>263</v>
       </c>
-      <c r="V51" s="88"/>
-      <c r="W51" s="88"/>
-      <c r="X51" s="88"/>
-      <c r="Y51" s="88"/>
-      <c r="Z51" s="89"/>
-      <c r="AA51" s="90" t="s">
+      <c r="V51" s="102"/>
+      <c r="W51" s="102"/>
+      <c r="X51" s="102"/>
+      <c r="Y51" s="102"/>
+      <c r="Z51" s="103"/>
+      <c r="AA51" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB51" s="91"/>
-      <c r="AC51" s="91"/>
-      <c r="AD51" s="91"/>
-      <c r="AE51" s="91"/>
-      <c r="AF51" s="91"/>
-      <c r="AG51" s="91"/>
-      <c r="AH51" s="91"/>
-      <c r="AI51" s="91"/>
-      <c r="AJ51" s="91"/>
-      <c r="AK51" s="91"/>
-      <c r="AL51" s="91"/>
-      <c r="AM51" s="91"/>
-      <c r="AN51" s="91"/>
-      <c r="AO51" s="91"/>
-      <c r="AP51" s="91"/>
-      <c r="AQ51" s="92"/>
+      <c r="AB51" s="83"/>
+      <c r="AC51" s="83"/>
+      <c r="AD51" s="83"/>
+      <c r="AE51" s="83"/>
+      <c r="AF51" s="83"/>
+      <c r="AG51" s="83"/>
+      <c r="AH51" s="83"/>
+      <c r="AI51" s="83"/>
+      <c r="AJ51" s="83"/>
+      <c r="AK51" s="83"/>
+      <c r="AL51" s="83"/>
+      <c r="AM51" s="83"/>
+      <c r="AN51" s="83"/>
+      <c r="AO51" s="83"/>
+      <c r="AP51" s="83"/>
+      <c r="AQ51" s="84"/>
       <c r="AR51" s="74" t="s">
         <v>155</v>
       </c>
@@ -21039,84 +21032,84 @@
         <v>151</v>
       </c>
       <c r="AT51" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU51" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU51" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV51" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW51" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW51" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX51" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="52" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="102" t="s">
+      <c r="B52" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="C52" s="83"/>
-      <c r="D52" s="103" t="s">
+      <c r="C52" s="95"/>
+      <c r="D52" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E52" s="83"/>
-      <c r="F52" s="82" t="s">
+      <c r="E52" s="95"/>
+      <c r="F52" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G52" s="83"/>
-      <c r="H52" s="84" t="s">
+      <c r="G52" s="95"/>
+      <c r="H52" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I52" s="85"/>
-      <c r="J52" s="86" t="s">
+      <c r="I52" s="99"/>
+      <c r="J52" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K52" s="86"/>
-      <c r="L52" s="86"/>
-      <c r="M52" s="83">
+      <c r="K52" s="100"/>
+      <c r="L52" s="100"/>
+      <c r="M52" s="95">
         <v>2</v>
       </c>
-      <c r="N52" s="83"/>
-      <c r="O52" s="83"/>
-      <c r="P52" s="83">
+      <c r="N52" s="95"/>
+      <c r="O52" s="95"/>
+      <c r="P52" s="95">
         <v>1</v>
       </c>
-      <c r="Q52" s="83"/>
-      <c r="R52" s="83"/>
-      <c r="S52" s="83">
+      <c r="Q52" s="95"/>
+      <c r="R52" s="95"/>
+      <c r="S52" s="95">
         <v>3</v>
       </c>
-      <c r="T52" s="83"/>
-      <c r="U52" s="87" t="s">
+      <c r="T52" s="95"/>
+      <c r="U52" s="101" t="s">
         <v>232</v>
       </c>
-      <c r="V52" s="88"/>
-      <c r="W52" s="88"/>
-      <c r="X52" s="88"/>
-      <c r="Y52" s="88"/>
-      <c r="Z52" s="89"/>
-      <c r="AA52" s="90" t="s">
+      <c r="V52" s="102"/>
+      <c r="W52" s="102"/>
+      <c r="X52" s="102"/>
+      <c r="Y52" s="102"/>
+      <c r="Z52" s="103"/>
+      <c r="AA52" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB52" s="91"/>
-      <c r="AC52" s="91"/>
-      <c r="AD52" s="91"/>
-      <c r="AE52" s="91"/>
-      <c r="AF52" s="91"/>
-      <c r="AG52" s="91"/>
-      <c r="AH52" s="91"/>
-      <c r="AI52" s="91"/>
-      <c r="AJ52" s="91"/>
-      <c r="AK52" s="91"/>
-      <c r="AL52" s="91"/>
-      <c r="AM52" s="91"/>
-      <c r="AN52" s="91"/>
-      <c r="AO52" s="91"/>
-      <c r="AP52" s="91"/>
-      <c r="AQ52" s="92"/>
+      <c r="AB52" s="83"/>
+      <c r="AC52" s="83"/>
+      <c r="AD52" s="83"/>
+      <c r="AE52" s="83"/>
+      <c r="AF52" s="83"/>
+      <c r="AG52" s="83"/>
+      <c r="AH52" s="83"/>
+      <c r="AI52" s="83"/>
+      <c r="AJ52" s="83"/>
+      <c r="AK52" s="83"/>
+      <c r="AL52" s="83"/>
+      <c r="AM52" s="83"/>
+      <c r="AN52" s="83"/>
+      <c r="AO52" s="83"/>
+      <c r="AP52" s="83"/>
+      <c r="AQ52" s="84"/>
       <c r="AR52" s="74" t="s">
         <v>155</v>
       </c>
@@ -21124,84 +21117,84 @@
         <v>151</v>
       </c>
       <c r="AT52" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU52" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU52" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV52" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW52" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW52" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX52" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="53" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="102" t="s">
+      <c r="B53" s="94" t="s">
         <v>167</v>
       </c>
-      <c r="C53" s="83"/>
-      <c r="D53" s="103" t="s">
+      <c r="C53" s="95"/>
+      <c r="D53" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E53" s="83"/>
-      <c r="F53" s="82" t="s">
+      <c r="E53" s="95"/>
+      <c r="F53" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G53" s="83"/>
-      <c r="H53" s="84" t="s">
+      <c r="G53" s="95"/>
+      <c r="H53" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I53" s="85"/>
-      <c r="J53" s="86" t="s">
+      <c r="I53" s="99"/>
+      <c r="J53" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K53" s="86"/>
-      <c r="L53" s="86"/>
-      <c r="M53" s="83">
+      <c r="K53" s="100"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="95">
         <v>2</v>
       </c>
-      <c r="N53" s="83"/>
-      <c r="O53" s="83"/>
-      <c r="P53" s="83">
+      <c r="N53" s="95"/>
+      <c r="O53" s="95"/>
+      <c r="P53" s="95">
         <v>1</v>
       </c>
-      <c r="Q53" s="83"/>
-      <c r="R53" s="83"/>
-      <c r="S53" s="83">
+      <c r="Q53" s="95"/>
+      <c r="R53" s="95"/>
+      <c r="S53" s="95">
         <v>3</v>
       </c>
-      <c r="T53" s="83"/>
-      <c r="U53" s="87" t="s">
+      <c r="T53" s="95"/>
+      <c r="U53" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="V53" s="88"/>
-      <c r="W53" s="88"/>
-      <c r="X53" s="88"/>
-      <c r="Y53" s="88"/>
-      <c r="Z53" s="89"/>
-      <c r="AA53" s="90" t="s">
+      <c r="V53" s="102"/>
+      <c r="W53" s="102"/>
+      <c r="X53" s="102"/>
+      <c r="Y53" s="102"/>
+      <c r="Z53" s="103"/>
+      <c r="AA53" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB53" s="91"/>
-      <c r="AC53" s="91"/>
-      <c r="AD53" s="91"/>
-      <c r="AE53" s="91"/>
-      <c r="AF53" s="91"/>
-      <c r="AG53" s="91"/>
-      <c r="AH53" s="91"/>
-      <c r="AI53" s="91"/>
-      <c r="AJ53" s="91"/>
-      <c r="AK53" s="91"/>
-      <c r="AL53" s="91"/>
-      <c r="AM53" s="91"/>
-      <c r="AN53" s="91"/>
-      <c r="AO53" s="91"/>
-      <c r="AP53" s="91"/>
-      <c r="AQ53" s="92"/>
+      <c r="AB53" s="83"/>
+      <c r="AC53" s="83"/>
+      <c r="AD53" s="83"/>
+      <c r="AE53" s="83"/>
+      <c r="AF53" s="83"/>
+      <c r="AG53" s="83"/>
+      <c r="AH53" s="83"/>
+      <c r="AI53" s="83"/>
+      <c r="AJ53" s="83"/>
+      <c r="AK53" s="83"/>
+      <c r="AL53" s="83"/>
+      <c r="AM53" s="83"/>
+      <c r="AN53" s="83"/>
+      <c r="AO53" s="83"/>
+      <c r="AP53" s="83"/>
+      <c r="AQ53" s="84"/>
       <c r="AR53" s="74" t="s">
         <v>155</v>
       </c>
@@ -21209,84 +21202,84 @@
         <v>151</v>
       </c>
       <c r="AT53" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU53" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU53" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV53" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW53" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW53" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX53" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="54" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="102" t="s">
+      <c r="B54" s="94" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="83"/>
-      <c r="D54" s="103" t="s">
+      <c r="C54" s="95"/>
+      <c r="D54" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E54" s="83"/>
-      <c r="F54" s="82" t="s">
+      <c r="E54" s="95"/>
+      <c r="F54" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G54" s="83"/>
-      <c r="H54" s="84" t="s">
+      <c r="G54" s="95"/>
+      <c r="H54" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I54" s="85"/>
-      <c r="J54" s="86" t="s">
+      <c r="I54" s="99"/>
+      <c r="J54" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K54" s="86"/>
-      <c r="L54" s="86"/>
-      <c r="M54" s="83">
+      <c r="K54" s="100"/>
+      <c r="L54" s="100"/>
+      <c r="M54" s="95">
         <v>2</v>
       </c>
-      <c r="N54" s="83"/>
-      <c r="O54" s="83"/>
-      <c r="P54" s="83">
+      <c r="N54" s="95"/>
+      <c r="O54" s="95"/>
+      <c r="P54" s="95">
         <v>1</v>
       </c>
-      <c r="Q54" s="83"/>
-      <c r="R54" s="83"/>
-      <c r="S54" s="83">
+      <c r="Q54" s="95"/>
+      <c r="R54" s="95"/>
+      <c r="S54" s="95">
         <v>3</v>
       </c>
-      <c r="T54" s="83"/>
-      <c r="U54" s="87" t="s">
+      <c r="T54" s="95"/>
+      <c r="U54" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="V54" s="88"/>
-      <c r="W54" s="88"/>
-      <c r="X54" s="88"/>
-      <c r="Y54" s="88"/>
-      <c r="Z54" s="89"/>
-      <c r="AA54" s="90" t="s">
+      <c r="V54" s="102"/>
+      <c r="W54" s="102"/>
+      <c r="X54" s="102"/>
+      <c r="Y54" s="102"/>
+      <c r="Z54" s="103"/>
+      <c r="AA54" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB54" s="91"/>
-      <c r="AC54" s="91"/>
-      <c r="AD54" s="91"/>
-      <c r="AE54" s="91"/>
-      <c r="AF54" s="91"/>
-      <c r="AG54" s="91"/>
-      <c r="AH54" s="91"/>
-      <c r="AI54" s="91"/>
-      <c r="AJ54" s="91"/>
-      <c r="AK54" s="91"/>
-      <c r="AL54" s="91"/>
-      <c r="AM54" s="91"/>
-      <c r="AN54" s="91"/>
-      <c r="AO54" s="91"/>
-      <c r="AP54" s="91"/>
-      <c r="AQ54" s="92"/>
+      <c r="AB54" s="83"/>
+      <c r="AC54" s="83"/>
+      <c r="AD54" s="83"/>
+      <c r="AE54" s="83"/>
+      <c r="AF54" s="83"/>
+      <c r="AG54" s="83"/>
+      <c r="AH54" s="83"/>
+      <c r="AI54" s="83"/>
+      <c r="AJ54" s="83"/>
+      <c r="AK54" s="83"/>
+      <c r="AL54" s="83"/>
+      <c r="AM54" s="83"/>
+      <c r="AN54" s="83"/>
+      <c r="AO54" s="83"/>
+      <c r="AP54" s="83"/>
+      <c r="AQ54" s="84"/>
       <c r="AR54" s="74" t="s">
         <v>155</v>
       </c>
@@ -21294,84 +21287,84 @@
         <v>151</v>
       </c>
       <c r="AT54" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU54" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU54" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV54" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW54" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW54" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX54" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="55" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="83"/>
-      <c r="D55" s="103" t="s">
+      <c r="C55" s="95"/>
+      <c r="D55" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E55" s="83"/>
-      <c r="F55" s="82" t="s">
+      <c r="E55" s="95"/>
+      <c r="F55" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G55" s="83"/>
-      <c r="H55" s="84" t="s">
+      <c r="G55" s="95"/>
+      <c r="H55" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I55" s="85"/>
-      <c r="J55" s="86" t="s">
+      <c r="I55" s="99"/>
+      <c r="J55" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K55" s="86"/>
-      <c r="L55" s="86"/>
-      <c r="M55" s="83">
+      <c r="K55" s="100"/>
+      <c r="L55" s="100"/>
+      <c r="M55" s="95">
         <v>2</v>
       </c>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="83">
+      <c r="N55" s="95"/>
+      <c r="O55" s="95"/>
+      <c r="P55" s="95">
         <v>1</v>
       </c>
-      <c r="Q55" s="83"/>
-      <c r="R55" s="83"/>
-      <c r="S55" s="83">
+      <c r="Q55" s="95"/>
+      <c r="R55" s="95"/>
+      <c r="S55" s="95">
         <v>3</v>
       </c>
-      <c r="T55" s="83"/>
-      <c r="U55" s="87" t="s">
+      <c r="T55" s="95"/>
+      <c r="U55" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="V55" s="88"/>
-      <c r="W55" s="88"/>
-      <c r="X55" s="88"/>
-      <c r="Y55" s="88"/>
-      <c r="Z55" s="89"/>
-      <c r="AA55" s="90" t="s">
+      <c r="V55" s="102"/>
+      <c r="W55" s="102"/>
+      <c r="X55" s="102"/>
+      <c r="Y55" s="102"/>
+      <c r="Z55" s="103"/>
+      <c r="AA55" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB55" s="91"/>
-      <c r="AC55" s="91"/>
-      <c r="AD55" s="91"/>
-      <c r="AE55" s="91"/>
-      <c r="AF55" s="91"/>
-      <c r="AG55" s="91"/>
-      <c r="AH55" s="91"/>
-      <c r="AI55" s="91"/>
-      <c r="AJ55" s="91"/>
-      <c r="AK55" s="91"/>
-      <c r="AL55" s="91"/>
-      <c r="AM55" s="91"/>
-      <c r="AN55" s="91"/>
-      <c r="AO55" s="91"/>
-      <c r="AP55" s="91"/>
-      <c r="AQ55" s="92"/>
+      <c r="AB55" s="83"/>
+      <c r="AC55" s="83"/>
+      <c r="AD55" s="83"/>
+      <c r="AE55" s="83"/>
+      <c r="AF55" s="83"/>
+      <c r="AG55" s="83"/>
+      <c r="AH55" s="83"/>
+      <c r="AI55" s="83"/>
+      <c r="AJ55" s="83"/>
+      <c r="AK55" s="83"/>
+      <c r="AL55" s="83"/>
+      <c r="AM55" s="83"/>
+      <c r="AN55" s="83"/>
+      <c r="AO55" s="83"/>
+      <c r="AP55" s="83"/>
+      <c r="AQ55" s="84"/>
       <c r="AR55" s="74" t="s">
         <v>155</v>
       </c>
@@ -21379,84 +21372,84 @@
         <v>151</v>
       </c>
       <c r="AT55" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU55" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU55" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV55" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW55" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW55" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX55" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="56" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="102" t="s">
+      <c r="B56" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="C56" s="83"/>
-      <c r="D56" s="103" t="s">
+      <c r="C56" s="95"/>
+      <c r="D56" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E56" s="83"/>
-      <c r="F56" s="82" t="s">
+      <c r="E56" s="95"/>
+      <c r="F56" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G56" s="83"/>
-      <c r="H56" s="84" t="s">
+      <c r="G56" s="95"/>
+      <c r="H56" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I56" s="85"/>
-      <c r="J56" s="86" t="s">
+      <c r="I56" s="99"/>
+      <c r="J56" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K56" s="86"/>
-      <c r="L56" s="86"/>
-      <c r="M56" s="83">
+      <c r="K56" s="100"/>
+      <c r="L56" s="100"/>
+      <c r="M56" s="95">
         <v>2</v>
       </c>
-      <c r="N56" s="83"/>
-      <c r="O56" s="83"/>
-      <c r="P56" s="83">
+      <c r="N56" s="95"/>
+      <c r="O56" s="95"/>
+      <c r="P56" s="95">
         <v>1</v>
       </c>
-      <c r="Q56" s="83"/>
-      <c r="R56" s="83"/>
-      <c r="S56" s="83">
+      <c r="Q56" s="95"/>
+      <c r="R56" s="95"/>
+      <c r="S56" s="95">
         <v>3</v>
       </c>
-      <c r="T56" s="83"/>
-      <c r="U56" s="87" t="s">
+      <c r="T56" s="95"/>
+      <c r="U56" s="101" t="s">
         <v>236</v>
       </c>
-      <c r="V56" s="88"/>
-      <c r="W56" s="88"/>
-      <c r="X56" s="88"/>
-      <c r="Y56" s="88"/>
-      <c r="Z56" s="89"/>
-      <c r="AA56" s="90" t="s">
+      <c r="V56" s="102"/>
+      <c r="W56" s="102"/>
+      <c r="X56" s="102"/>
+      <c r="Y56" s="102"/>
+      <c r="Z56" s="103"/>
+      <c r="AA56" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB56" s="91"/>
-      <c r="AC56" s="91"/>
-      <c r="AD56" s="91"/>
-      <c r="AE56" s="91"/>
-      <c r="AF56" s="91"/>
-      <c r="AG56" s="91"/>
-      <c r="AH56" s="91"/>
-      <c r="AI56" s="91"/>
-      <c r="AJ56" s="91"/>
-      <c r="AK56" s="91"/>
-      <c r="AL56" s="91"/>
-      <c r="AM56" s="91"/>
-      <c r="AN56" s="91"/>
-      <c r="AO56" s="91"/>
-      <c r="AP56" s="91"/>
-      <c r="AQ56" s="92"/>
+      <c r="AB56" s="83"/>
+      <c r="AC56" s="83"/>
+      <c r="AD56" s="83"/>
+      <c r="AE56" s="83"/>
+      <c r="AF56" s="83"/>
+      <c r="AG56" s="83"/>
+      <c r="AH56" s="83"/>
+      <c r="AI56" s="83"/>
+      <c r="AJ56" s="83"/>
+      <c r="AK56" s="83"/>
+      <c r="AL56" s="83"/>
+      <c r="AM56" s="83"/>
+      <c r="AN56" s="83"/>
+      <c r="AO56" s="83"/>
+      <c r="AP56" s="83"/>
+      <c r="AQ56" s="84"/>
       <c r="AR56" s="74" t="s">
         <v>155</v>
       </c>
@@ -21464,84 +21457,84 @@
         <v>151</v>
       </c>
       <c r="AT56" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU56" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU56" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV56" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW56" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW56" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX56" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="57" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="102" t="s">
+      <c r="B57" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="C57" s="83"/>
-      <c r="D57" s="103" t="s">
+      <c r="C57" s="95"/>
+      <c r="D57" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E57" s="83"/>
-      <c r="F57" s="82" t="s">
+      <c r="E57" s="95"/>
+      <c r="F57" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G57" s="83"/>
-      <c r="H57" s="84" t="s">
+      <c r="G57" s="95"/>
+      <c r="H57" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I57" s="85"/>
-      <c r="J57" s="86" t="s">
+      <c r="I57" s="99"/>
+      <c r="J57" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K57" s="86"/>
-      <c r="L57" s="86"/>
-      <c r="M57" s="83">
+      <c r="K57" s="100"/>
+      <c r="L57" s="100"/>
+      <c r="M57" s="95">
         <v>2</v>
       </c>
-      <c r="N57" s="83"/>
-      <c r="O57" s="83"/>
-      <c r="P57" s="83">
+      <c r="N57" s="95"/>
+      <c r="O57" s="95"/>
+      <c r="P57" s="95">
         <v>1</v>
       </c>
-      <c r="Q57" s="83"/>
-      <c r="R57" s="83"/>
-      <c r="S57" s="83">
+      <c r="Q57" s="95"/>
+      <c r="R57" s="95"/>
+      <c r="S57" s="95">
         <v>3</v>
       </c>
-      <c r="T57" s="83"/>
-      <c r="U57" s="87" t="s">
+      <c r="T57" s="95"/>
+      <c r="U57" s="101" t="s">
         <v>264</v>
       </c>
-      <c r="V57" s="88"/>
-      <c r="W57" s="88"/>
-      <c r="X57" s="88"/>
-      <c r="Y57" s="88"/>
-      <c r="Z57" s="89"/>
-      <c r="AA57" s="90" t="s">
+      <c r="V57" s="102"/>
+      <c r="W57" s="102"/>
+      <c r="X57" s="102"/>
+      <c r="Y57" s="102"/>
+      <c r="Z57" s="103"/>
+      <c r="AA57" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB57" s="91"/>
-      <c r="AC57" s="91"/>
-      <c r="AD57" s="91"/>
-      <c r="AE57" s="91"/>
-      <c r="AF57" s="91"/>
-      <c r="AG57" s="91"/>
-      <c r="AH57" s="91"/>
-      <c r="AI57" s="91"/>
-      <c r="AJ57" s="91"/>
-      <c r="AK57" s="91"/>
-      <c r="AL57" s="91"/>
-      <c r="AM57" s="91"/>
-      <c r="AN57" s="91"/>
-      <c r="AO57" s="91"/>
-      <c r="AP57" s="91"/>
-      <c r="AQ57" s="92"/>
+      <c r="AB57" s="83"/>
+      <c r="AC57" s="83"/>
+      <c r="AD57" s="83"/>
+      <c r="AE57" s="83"/>
+      <c r="AF57" s="83"/>
+      <c r="AG57" s="83"/>
+      <c r="AH57" s="83"/>
+      <c r="AI57" s="83"/>
+      <c r="AJ57" s="83"/>
+      <c r="AK57" s="83"/>
+      <c r="AL57" s="83"/>
+      <c r="AM57" s="83"/>
+      <c r="AN57" s="83"/>
+      <c r="AO57" s="83"/>
+      <c r="AP57" s="83"/>
+      <c r="AQ57" s="84"/>
       <c r="AR57" s="74" t="s">
         <v>155</v>
       </c>
@@ -21549,84 +21542,84 @@
         <v>151</v>
       </c>
       <c r="AT57" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU57" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU57" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV57" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW57" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW57" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX57" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="58" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="102" t="s">
+      <c r="B58" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="83"/>
-      <c r="D58" s="103" t="s">
+      <c r="C58" s="95"/>
+      <c r="D58" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E58" s="83"/>
-      <c r="F58" s="82" t="s">
+      <c r="E58" s="95"/>
+      <c r="F58" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G58" s="83"/>
-      <c r="H58" s="84" t="s">
+      <c r="G58" s="95"/>
+      <c r="H58" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I58" s="85"/>
-      <c r="J58" s="86" t="s">
+      <c r="I58" s="99"/>
+      <c r="J58" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K58" s="86"/>
-      <c r="L58" s="86"/>
-      <c r="M58" s="83">
+      <c r="K58" s="100"/>
+      <c r="L58" s="100"/>
+      <c r="M58" s="95">
         <v>2</v>
       </c>
-      <c r="N58" s="83"/>
-      <c r="O58" s="83"/>
-      <c r="P58" s="83">
+      <c r="N58" s="95"/>
+      <c r="O58" s="95"/>
+      <c r="P58" s="95">
         <v>1</v>
       </c>
-      <c r="Q58" s="83"/>
-      <c r="R58" s="83"/>
-      <c r="S58" s="83">
+      <c r="Q58" s="95"/>
+      <c r="R58" s="95"/>
+      <c r="S58" s="95">
         <v>3</v>
       </c>
-      <c r="T58" s="83"/>
-      <c r="U58" s="87" t="s">
+      <c r="T58" s="95"/>
+      <c r="U58" s="101" t="s">
         <v>265</v>
       </c>
-      <c r="V58" s="88"/>
-      <c r="W58" s="88"/>
-      <c r="X58" s="88"/>
-      <c r="Y58" s="88"/>
-      <c r="Z58" s="89"/>
-      <c r="AA58" s="90" t="s">
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
+      <c r="X58" s="102"/>
+      <c r="Y58" s="102"/>
+      <c r="Z58" s="103"/>
+      <c r="AA58" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB58" s="91"/>
-      <c r="AC58" s="91"/>
-      <c r="AD58" s="91"/>
-      <c r="AE58" s="91"/>
-      <c r="AF58" s="91"/>
-      <c r="AG58" s="91"/>
-      <c r="AH58" s="91"/>
-      <c r="AI58" s="91"/>
-      <c r="AJ58" s="91"/>
-      <c r="AK58" s="91"/>
-      <c r="AL58" s="91"/>
-      <c r="AM58" s="91"/>
-      <c r="AN58" s="91"/>
-      <c r="AO58" s="91"/>
-      <c r="AP58" s="91"/>
-      <c r="AQ58" s="92"/>
+      <c r="AB58" s="83"/>
+      <c r="AC58" s="83"/>
+      <c r="AD58" s="83"/>
+      <c r="AE58" s="83"/>
+      <c r="AF58" s="83"/>
+      <c r="AG58" s="83"/>
+      <c r="AH58" s="83"/>
+      <c r="AI58" s="83"/>
+      <c r="AJ58" s="83"/>
+      <c r="AK58" s="83"/>
+      <c r="AL58" s="83"/>
+      <c r="AM58" s="83"/>
+      <c r="AN58" s="83"/>
+      <c r="AO58" s="83"/>
+      <c r="AP58" s="83"/>
+      <c r="AQ58" s="84"/>
       <c r="AR58" s="74" t="s">
         <v>155</v>
       </c>
@@ -21634,84 +21627,84 @@
         <v>151</v>
       </c>
       <c r="AT58" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU58" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU58" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV58" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW58" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW58" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX58" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="59" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="102" t="s">
+      <c r="B59" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="83"/>
-      <c r="D59" s="103" t="s">
+      <c r="C59" s="95"/>
+      <c r="D59" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E59" s="83"/>
-      <c r="F59" s="82" t="s">
+      <c r="E59" s="95"/>
+      <c r="F59" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G59" s="83"/>
-      <c r="H59" s="84" t="s">
+      <c r="G59" s="95"/>
+      <c r="H59" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I59" s="85"/>
-      <c r="J59" s="86" t="s">
+      <c r="I59" s="99"/>
+      <c r="J59" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K59" s="86"/>
-      <c r="L59" s="86"/>
-      <c r="M59" s="83">
+      <c r="K59" s="100"/>
+      <c r="L59" s="100"/>
+      <c r="M59" s="95">
         <v>2</v>
       </c>
-      <c r="N59" s="83"/>
-      <c r="O59" s="83"/>
-      <c r="P59" s="83">
+      <c r="N59" s="95"/>
+      <c r="O59" s="95"/>
+      <c r="P59" s="95">
         <v>1</v>
       </c>
-      <c r="Q59" s="83"/>
-      <c r="R59" s="83"/>
-      <c r="S59" s="83">
+      <c r="Q59" s="95"/>
+      <c r="R59" s="95"/>
+      <c r="S59" s="95">
         <v>3</v>
       </c>
-      <c r="T59" s="83"/>
-      <c r="U59" s="87" t="s">
+      <c r="T59" s="95"/>
+      <c r="U59" s="101" t="s">
         <v>227</v>
       </c>
-      <c r="V59" s="88"/>
-      <c r="W59" s="88"/>
-      <c r="X59" s="88"/>
-      <c r="Y59" s="88"/>
-      <c r="Z59" s="89"/>
-      <c r="AA59" s="90" t="s">
+      <c r="V59" s="102"/>
+      <c r="W59" s="102"/>
+      <c r="X59" s="102"/>
+      <c r="Y59" s="102"/>
+      <c r="Z59" s="103"/>
+      <c r="AA59" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB59" s="91"/>
-      <c r="AC59" s="91"/>
-      <c r="AD59" s="91"/>
-      <c r="AE59" s="91"/>
-      <c r="AF59" s="91"/>
-      <c r="AG59" s="91"/>
-      <c r="AH59" s="91"/>
-      <c r="AI59" s="91"/>
-      <c r="AJ59" s="91"/>
-      <c r="AK59" s="91"/>
-      <c r="AL59" s="91"/>
-      <c r="AM59" s="91"/>
-      <c r="AN59" s="91"/>
-      <c r="AO59" s="91"/>
-      <c r="AP59" s="91"/>
-      <c r="AQ59" s="92"/>
+      <c r="AB59" s="83"/>
+      <c r="AC59" s="83"/>
+      <c r="AD59" s="83"/>
+      <c r="AE59" s="83"/>
+      <c r="AF59" s="83"/>
+      <c r="AG59" s="83"/>
+      <c r="AH59" s="83"/>
+      <c r="AI59" s="83"/>
+      <c r="AJ59" s="83"/>
+      <c r="AK59" s="83"/>
+      <c r="AL59" s="83"/>
+      <c r="AM59" s="83"/>
+      <c r="AN59" s="83"/>
+      <c r="AO59" s="83"/>
+      <c r="AP59" s="83"/>
+      <c r="AQ59" s="84"/>
       <c r="AR59" s="74" t="s">
         <v>155</v>
       </c>
@@ -21719,84 +21712,84 @@
         <v>151</v>
       </c>
       <c r="AT59" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU59" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU59" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV59" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW59" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW59" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX59" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="60" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="102" t="s">
+      <c r="B60" s="94" t="s">
         <v>174</v>
       </c>
-      <c r="C60" s="83"/>
-      <c r="D60" s="103" t="s">
+      <c r="C60" s="95"/>
+      <c r="D60" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E60" s="83"/>
-      <c r="F60" s="82" t="s">
+      <c r="E60" s="95"/>
+      <c r="F60" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G60" s="83"/>
-      <c r="H60" s="84" t="s">
+      <c r="G60" s="95"/>
+      <c r="H60" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I60" s="85"/>
-      <c r="J60" s="86" t="s">
+      <c r="I60" s="99"/>
+      <c r="J60" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K60" s="86"/>
-      <c r="L60" s="86"/>
-      <c r="M60" s="83">
+      <c r="K60" s="100"/>
+      <c r="L60" s="100"/>
+      <c r="M60" s="95">
         <v>2</v>
       </c>
-      <c r="N60" s="83"/>
-      <c r="O60" s="83"/>
-      <c r="P60" s="83">
+      <c r="N60" s="95"/>
+      <c r="O60" s="95"/>
+      <c r="P60" s="95">
         <v>1</v>
       </c>
-      <c r="Q60" s="83"/>
-      <c r="R60" s="83"/>
-      <c r="S60" s="83">
+      <c r="Q60" s="95"/>
+      <c r="R60" s="95"/>
+      <c r="S60" s="95">
         <v>3</v>
       </c>
-      <c r="T60" s="83"/>
-      <c r="U60" s="87" t="s">
+      <c r="T60" s="95"/>
+      <c r="U60" s="101" t="s">
         <v>228</v>
       </c>
-      <c r="V60" s="88"/>
-      <c r="W60" s="88"/>
-      <c r="X60" s="88"/>
-      <c r="Y60" s="88"/>
-      <c r="Z60" s="89"/>
-      <c r="AA60" s="90" t="s">
+      <c r="V60" s="102"/>
+      <c r="W60" s="102"/>
+      <c r="X60" s="102"/>
+      <c r="Y60" s="102"/>
+      <c r="Z60" s="103"/>
+      <c r="AA60" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB60" s="91"/>
-      <c r="AC60" s="91"/>
-      <c r="AD60" s="91"/>
-      <c r="AE60" s="91"/>
-      <c r="AF60" s="91"/>
-      <c r="AG60" s="91"/>
-      <c r="AH60" s="91"/>
-      <c r="AI60" s="91"/>
-      <c r="AJ60" s="91"/>
-      <c r="AK60" s="91"/>
-      <c r="AL60" s="91"/>
-      <c r="AM60" s="91"/>
-      <c r="AN60" s="91"/>
-      <c r="AO60" s="91"/>
-      <c r="AP60" s="91"/>
-      <c r="AQ60" s="92"/>
+      <c r="AB60" s="83"/>
+      <c r="AC60" s="83"/>
+      <c r="AD60" s="83"/>
+      <c r="AE60" s="83"/>
+      <c r="AF60" s="83"/>
+      <c r="AG60" s="83"/>
+      <c r="AH60" s="83"/>
+      <c r="AI60" s="83"/>
+      <c r="AJ60" s="83"/>
+      <c r="AK60" s="83"/>
+      <c r="AL60" s="83"/>
+      <c r="AM60" s="83"/>
+      <c r="AN60" s="83"/>
+      <c r="AO60" s="83"/>
+      <c r="AP60" s="83"/>
+      <c r="AQ60" s="84"/>
       <c r="AR60" s="74" t="s">
         <v>155</v>
       </c>
@@ -21804,84 +21797,84 @@
         <v>151</v>
       </c>
       <c r="AT60" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU60" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU60" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV60" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW60" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW60" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX60" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="61" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="94" t="s">
         <v>175</v>
       </c>
-      <c r="C61" s="83"/>
-      <c r="D61" s="103" t="s">
+      <c r="C61" s="95"/>
+      <c r="D61" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E61" s="83"/>
-      <c r="F61" s="82" t="s">
+      <c r="E61" s="95"/>
+      <c r="F61" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G61" s="83"/>
-      <c r="H61" s="84" t="s">
+      <c r="G61" s="95"/>
+      <c r="H61" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I61" s="85"/>
-      <c r="J61" s="86" t="s">
+      <c r="I61" s="99"/>
+      <c r="J61" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K61" s="86"/>
-      <c r="L61" s="86"/>
-      <c r="M61" s="83">
+      <c r="K61" s="100"/>
+      <c r="L61" s="100"/>
+      <c r="M61" s="95">
         <v>2</v>
       </c>
-      <c r="N61" s="83"/>
-      <c r="O61" s="83"/>
-      <c r="P61" s="83">
+      <c r="N61" s="95"/>
+      <c r="O61" s="95"/>
+      <c r="P61" s="95">
         <v>1</v>
       </c>
-      <c r="Q61" s="83"/>
-      <c r="R61" s="83"/>
-      <c r="S61" s="83">
+      <c r="Q61" s="95"/>
+      <c r="R61" s="95"/>
+      <c r="S61" s="95">
         <v>3</v>
       </c>
-      <c r="T61" s="83"/>
-      <c r="U61" s="87" t="s">
+      <c r="T61" s="95"/>
+      <c r="U61" s="101" t="s">
         <v>229</v>
       </c>
-      <c r="V61" s="88"/>
-      <c r="W61" s="88"/>
-      <c r="X61" s="88"/>
-      <c r="Y61" s="88"/>
-      <c r="Z61" s="89"/>
-      <c r="AA61" s="90" t="s">
+      <c r="V61" s="102"/>
+      <c r="W61" s="102"/>
+      <c r="X61" s="102"/>
+      <c r="Y61" s="102"/>
+      <c r="Z61" s="103"/>
+      <c r="AA61" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB61" s="91"/>
-      <c r="AC61" s="91"/>
-      <c r="AD61" s="91"/>
-      <c r="AE61" s="91"/>
-      <c r="AF61" s="91"/>
-      <c r="AG61" s="91"/>
-      <c r="AH61" s="91"/>
-      <c r="AI61" s="91"/>
-      <c r="AJ61" s="91"/>
-      <c r="AK61" s="91"/>
-      <c r="AL61" s="91"/>
-      <c r="AM61" s="91"/>
-      <c r="AN61" s="91"/>
-      <c r="AO61" s="91"/>
-      <c r="AP61" s="91"/>
-      <c r="AQ61" s="92"/>
+      <c r="AB61" s="83"/>
+      <c r="AC61" s="83"/>
+      <c r="AD61" s="83"/>
+      <c r="AE61" s="83"/>
+      <c r="AF61" s="83"/>
+      <c r="AG61" s="83"/>
+      <c r="AH61" s="83"/>
+      <c r="AI61" s="83"/>
+      <c r="AJ61" s="83"/>
+      <c r="AK61" s="83"/>
+      <c r="AL61" s="83"/>
+      <c r="AM61" s="83"/>
+      <c r="AN61" s="83"/>
+      <c r="AO61" s="83"/>
+      <c r="AP61" s="83"/>
+      <c r="AQ61" s="84"/>
       <c r="AR61" s="74" t="s">
         <v>155</v>
       </c>
@@ -21889,84 +21882,84 @@
         <v>151</v>
       </c>
       <c r="AT61" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU61" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU61" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV61" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW61" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW61" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX61" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="62" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="102" t="s">
+      <c r="B62" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="C62" s="83"/>
-      <c r="D62" s="103" t="s">
+      <c r="C62" s="95"/>
+      <c r="D62" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E62" s="83"/>
-      <c r="F62" s="82" t="s">
+      <c r="E62" s="95"/>
+      <c r="F62" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G62" s="83"/>
-      <c r="H62" s="84" t="s">
+      <c r="G62" s="95"/>
+      <c r="H62" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I62" s="85"/>
-      <c r="J62" s="86" t="s">
+      <c r="I62" s="99"/>
+      <c r="J62" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K62" s="86"/>
-      <c r="L62" s="86"/>
-      <c r="M62" s="83">
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="95">
         <v>2</v>
       </c>
-      <c r="N62" s="83"/>
-      <c r="O62" s="83"/>
-      <c r="P62" s="83">
+      <c r="N62" s="95"/>
+      <c r="O62" s="95"/>
+      <c r="P62" s="95">
         <v>1</v>
       </c>
-      <c r="Q62" s="83"/>
-      <c r="R62" s="83"/>
-      <c r="S62" s="83">
+      <c r="Q62" s="95"/>
+      <c r="R62" s="95"/>
+      <c r="S62" s="95">
         <v>3</v>
       </c>
-      <c r="T62" s="83"/>
-      <c r="U62" s="87" t="s">
+      <c r="T62" s="95"/>
+      <c r="U62" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="V62" s="88"/>
-      <c r="W62" s="88"/>
-      <c r="X62" s="88"/>
-      <c r="Y62" s="88"/>
-      <c r="Z62" s="89"/>
-      <c r="AA62" s="90" t="s">
+      <c r="V62" s="102"/>
+      <c r="W62" s="102"/>
+      <c r="X62" s="102"/>
+      <c r="Y62" s="102"/>
+      <c r="Z62" s="103"/>
+      <c r="AA62" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB62" s="91"/>
-      <c r="AC62" s="91"/>
-      <c r="AD62" s="91"/>
-      <c r="AE62" s="91"/>
-      <c r="AF62" s="91"/>
-      <c r="AG62" s="91"/>
-      <c r="AH62" s="91"/>
-      <c r="AI62" s="91"/>
-      <c r="AJ62" s="91"/>
-      <c r="AK62" s="91"/>
-      <c r="AL62" s="91"/>
-      <c r="AM62" s="91"/>
-      <c r="AN62" s="91"/>
-      <c r="AO62" s="91"/>
-      <c r="AP62" s="91"/>
-      <c r="AQ62" s="92"/>
+      <c r="AB62" s="83"/>
+      <c r="AC62" s="83"/>
+      <c r="AD62" s="83"/>
+      <c r="AE62" s="83"/>
+      <c r="AF62" s="83"/>
+      <c r="AG62" s="83"/>
+      <c r="AH62" s="83"/>
+      <c r="AI62" s="83"/>
+      <c r="AJ62" s="83"/>
+      <c r="AK62" s="83"/>
+      <c r="AL62" s="83"/>
+      <c r="AM62" s="83"/>
+      <c r="AN62" s="83"/>
+      <c r="AO62" s="83"/>
+      <c r="AP62" s="83"/>
+      <c r="AQ62" s="84"/>
       <c r="AR62" s="74" t="s">
         <v>155</v>
       </c>
@@ -21974,84 +21967,84 @@
         <v>151</v>
       </c>
       <c r="AT62" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU62" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU62" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV62" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW62" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW62" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX62" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="63" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="102" t="s">
+      <c r="B63" s="94" t="s">
         <v>177</v>
       </c>
-      <c r="C63" s="83"/>
-      <c r="D63" s="103" t="s">
+      <c r="C63" s="95"/>
+      <c r="D63" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E63" s="83"/>
-      <c r="F63" s="82" t="s">
+      <c r="E63" s="95"/>
+      <c r="F63" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G63" s="83"/>
-      <c r="H63" s="84" t="s">
+      <c r="G63" s="95"/>
+      <c r="H63" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I63" s="85"/>
-      <c r="J63" s="86" t="s">
+      <c r="I63" s="99"/>
+      <c r="J63" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K63" s="86"/>
-      <c r="L63" s="86"/>
-      <c r="M63" s="83">
+      <c r="K63" s="100"/>
+      <c r="L63" s="100"/>
+      <c r="M63" s="95">
         <v>2</v>
       </c>
-      <c r="N63" s="83"/>
-      <c r="O63" s="83"/>
-      <c r="P63" s="83">
+      <c r="N63" s="95"/>
+      <c r="O63" s="95"/>
+      <c r="P63" s="95">
         <v>1</v>
       </c>
-      <c r="Q63" s="83"/>
-      <c r="R63" s="83"/>
-      <c r="S63" s="83">
+      <c r="Q63" s="95"/>
+      <c r="R63" s="95"/>
+      <c r="S63" s="95">
         <v>3</v>
       </c>
-      <c r="T63" s="83"/>
-      <c r="U63" s="87" t="s">
+      <c r="T63" s="95"/>
+      <c r="U63" s="101" t="s">
         <v>231</v>
       </c>
-      <c r="V63" s="88"/>
-      <c r="W63" s="88"/>
-      <c r="X63" s="88"/>
-      <c r="Y63" s="88"/>
-      <c r="Z63" s="89"/>
-      <c r="AA63" s="90" t="s">
+      <c r="V63" s="102"/>
+      <c r="W63" s="102"/>
+      <c r="X63" s="102"/>
+      <c r="Y63" s="102"/>
+      <c r="Z63" s="103"/>
+      <c r="AA63" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB63" s="91"/>
-      <c r="AC63" s="91"/>
-      <c r="AD63" s="91"/>
-      <c r="AE63" s="91"/>
-      <c r="AF63" s="91"/>
-      <c r="AG63" s="91"/>
-      <c r="AH63" s="91"/>
-      <c r="AI63" s="91"/>
-      <c r="AJ63" s="91"/>
-      <c r="AK63" s="91"/>
-      <c r="AL63" s="91"/>
-      <c r="AM63" s="91"/>
-      <c r="AN63" s="91"/>
-      <c r="AO63" s="91"/>
-      <c r="AP63" s="91"/>
-      <c r="AQ63" s="92"/>
+      <c r="AB63" s="83"/>
+      <c r="AC63" s="83"/>
+      <c r="AD63" s="83"/>
+      <c r="AE63" s="83"/>
+      <c r="AF63" s="83"/>
+      <c r="AG63" s="83"/>
+      <c r="AH63" s="83"/>
+      <c r="AI63" s="83"/>
+      <c r="AJ63" s="83"/>
+      <c r="AK63" s="83"/>
+      <c r="AL63" s="83"/>
+      <c r="AM63" s="83"/>
+      <c r="AN63" s="83"/>
+      <c r="AO63" s="83"/>
+      <c r="AP63" s="83"/>
+      <c r="AQ63" s="84"/>
       <c r="AR63" s="74" t="s">
         <v>155</v>
       </c>
@@ -22059,84 +22052,84 @@
         <v>151</v>
       </c>
       <c r="AT63" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU63" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU63" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV63" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW63" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW63" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX63" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="64" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="102" t="s">
+      <c r="B64" s="94" t="s">
         <v>178</v>
       </c>
-      <c r="C64" s="83"/>
-      <c r="D64" s="103" t="s">
+      <c r="C64" s="95"/>
+      <c r="D64" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E64" s="83"/>
-      <c r="F64" s="82" t="s">
+      <c r="E64" s="95"/>
+      <c r="F64" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G64" s="83"/>
-      <c r="H64" s="84" t="s">
+      <c r="G64" s="95"/>
+      <c r="H64" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I64" s="85"/>
-      <c r="J64" s="86" t="s">
+      <c r="I64" s="99"/>
+      <c r="J64" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K64" s="86"/>
-      <c r="L64" s="86"/>
-      <c r="M64" s="83">
+      <c r="K64" s="100"/>
+      <c r="L64" s="100"/>
+      <c r="M64" s="95">
         <v>2</v>
       </c>
-      <c r="N64" s="83"/>
-      <c r="O64" s="83"/>
-      <c r="P64" s="83">
+      <c r="N64" s="95"/>
+      <c r="O64" s="95"/>
+      <c r="P64" s="95">
         <v>1</v>
       </c>
-      <c r="Q64" s="83"/>
-      <c r="R64" s="83"/>
-      <c r="S64" s="83">
+      <c r="Q64" s="95"/>
+      <c r="R64" s="95"/>
+      <c r="S64" s="95">
         <v>3</v>
       </c>
-      <c r="T64" s="83"/>
-      <c r="U64" s="87" t="s">
+      <c r="T64" s="95"/>
+      <c r="U64" s="101" t="s">
         <v>266</v>
       </c>
-      <c r="V64" s="88"/>
-      <c r="W64" s="88"/>
-      <c r="X64" s="88"/>
-      <c r="Y64" s="88"/>
-      <c r="Z64" s="89"/>
-      <c r="AA64" s="90" t="s">
+      <c r="V64" s="102"/>
+      <c r="W64" s="102"/>
+      <c r="X64" s="102"/>
+      <c r="Y64" s="102"/>
+      <c r="Z64" s="103"/>
+      <c r="AA64" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB64" s="91"/>
-      <c r="AC64" s="91"/>
-      <c r="AD64" s="91"/>
-      <c r="AE64" s="91"/>
-      <c r="AF64" s="91"/>
-      <c r="AG64" s="91"/>
-      <c r="AH64" s="91"/>
-      <c r="AI64" s="91"/>
-      <c r="AJ64" s="91"/>
-      <c r="AK64" s="91"/>
-      <c r="AL64" s="91"/>
-      <c r="AM64" s="91"/>
-      <c r="AN64" s="91"/>
-      <c r="AO64" s="91"/>
-      <c r="AP64" s="91"/>
-      <c r="AQ64" s="92"/>
+      <c r="AB64" s="83"/>
+      <c r="AC64" s="83"/>
+      <c r="AD64" s="83"/>
+      <c r="AE64" s="83"/>
+      <c r="AF64" s="83"/>
+      <c r="AG64" s="83"/>
+      <c r="AH64" s="83"/>
+      <c r="AI64" s="83"/>
+      <c r="AJ64" s="83"/>
+      <c r="AK64" s="83"/>
+      <c r="AL64" s="83"/>
+      <c r="AM64" s="83"/>
+      <c r="AN64" s="83"/>
+      <c r="AO64" s="83"/>
+      <c r="AP64" s="83"/>
+      <c r="AQ64" s="84"/>
       <c r="AR64" s="74" t="s">
         <v>155</v>
       </c>
@@ -22144,84 +22137,84 @@
         <v>151</v>
       </c>
       <c r="AT64" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU64" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU64" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV64" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW64" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW64" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX64" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="65" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="102" t="s">
+      <c r="B65" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="C65" s="83"/>
-      <c r="D65" s="103" t="s">
+      <c r="C65" s="95"/>
+      <c r="D65" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E65" s="83"/>
-      <c r="F65" s="82" t="s">
+      <c r="E65" s="95"/>
+      <c r="F65" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G65" s="83"/>
-      <c r="H65" s="84" t="s">
+      <c r="G65" s="95"/>
+      <c r="H65" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I65" s="85"/>
-      <c r="J65" s="86" t="s">
+      <c r="I65" s="99"/>
+      <c r="J65" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K65" s="86"/>
-      <c r="L65" s="86"/>
-      <c r="M65" s="83">
+      <c r="K65" s="100"/>
+      <c r="L65" s="100"/>
+      <c r="M65" s="95">
         <v>2</v>
       </c>
-      <c r="N65" s="83"/>
-      <c r="O65" s="83"/>
-      <c r="P65" s="83">
+      <c r="N65" s="95"/>
+      <c r="O65" s="95"/>
+      <c r="P65" s="95">
         <v>1</v>
       </c>
-      <c r="Q65" s="83"/>
-      <c r="R65" s="83"/>
-      <c r="S65" s="83">
+      <c r="Q65" s="95"/>
+      <c r="R65" s="95"/>
+      <c r="S65" s="95">
         <v>3</v>
       </c>
-      <c r="T65" s="83"/>
-      <c r="U65" s="87" t="s">
+      <c r="T65" s="95"/>
+      <c r="U65" s="101" t="s">
         <v>267</v>
       </c>
-      <c r="V65" s="88"/>
-      <c r="W65" s="88"/>
-      <c r="X65" s="88"/>
-      <c r="Y65" s="88"/>
-      <c r="Z65" s="89"/>
-      <c r="AA65" s="90" t="s">
+      <c r="V65" s="102"/>
+      <c r="W65" s="102"/>
+      <c r="X65" s="102"/>
+      <c r="Y65" s="102"/>
+      <c r="Z65" s="103"/>
+      <c r="AA65" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB65" s="91"/>
-      <c r="AC65" s="91"/>
-      <c r="AD65" s="91"/>
-      <c r="AE65" s="91"/>
-      <c r="AF65" s="91"/>
-      <c r="AG65" s="91"/>
-      <c r="AH65" s="91"/>
-      <c r="AI65" s="91"/>
-      <c r="AJ65" s="91"/>
-      <c r="AK65" s="91"/>
-      <c r="AL65" s="91"/>
-      <c r="AM65" s="91"/>
-      <c r="AN65" s="91"/>
-      <c r="AO65" s="91"/>
-      <c r="AP65" s="91"/>
-      <c r="AQ65" s="92"/>
+      <c r="AB65" s="83"/>
+      <c r="AC65" s="83"/>
+      <c r="AD65" s="83"/>
+      <c r="AE65" s="83"/>
+      <c r="AF65" s="83"/>
+      <c r="AG65" s="83"/>
+      <c r="AH65" s="83"/>
+      <c r="AI65" s="83"/>
+      <c r="AJ65" s="83"/>
+      <c r="AK65" s="83"/>
+      <c r="AL65" s="83"/>
+      <c r="AM65" s="83"/>
+      <c r="AN65" s="83"/>
+      <c r="AO65" s="83"/>
+      <c r="AP65" s="83"/>
+      <c r="AQ65" s="84"/>
       <c r="AR65" s="74" t="s">
         <v>155</v>
       </c>
@@ -22229,84 +22222,84 @@
         <v>151</v>
       </c>
       <c r="AT65" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU65" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU65" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV65" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW65" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW65" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX65" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="66" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="102" t="s">
+      <c r="B66" s="94" t="s">
         <v>180</v>
       </c>
-      <c r="C66" s="83"/>
-      <c r="D66" s="103" t="s">
+      <c r="C66" s="95"/>
+      <c r="D66" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E66" s="83"/>
-      <c r="F66" s="82" t="s">
+      <c r="E66" s="95"/>
+      <c r="F66" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G66" s="83"/>
-      <c r="H66" s="84" t="s">
+      <c r="G66" s="95"/>
+      <c r="H66" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I66" s="85"/>
-      <c r="J66" s="86" t="s">
+      <c r="I66" s="99"/>
+      <c r="J66" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K66" s="86"/>
-      <c r="L66" s="86"/>
-      <c r="M66" s="83">
+      <c r="K66" s="100"/>
+      <c r="L66" s="100"/>
+      <c r="M66" s="95">
         <v>2</v>
       </c>
-      <c r="N66" s="83"/>
-      <c r="O66" s="83"/>
-      <c r="P66" s="83">
+      <c r="N66" s="95"/>
+      <c r="O66" s="95"/>
+      <c r="P66" s="95">
         <v>1</v>
       </c>
-      <c r="Q66" s="83"/>
-      <c r="R66" s="83"/>
-      <c r="S66" s="83">
+      <c r="Q66" s="95"/>
+      <c r="R66" s="95"/>
+      <c r="S66" s="95">
         <v>3</v>
       </c>
-      <c r="T66" s="83"/>
-      <c r="U66" s="87" t="s">
+      <c r="T66" s="95"/>
+      <c r="U66" s="101" t="s">
         <v>237</v>
       </c>
-      <c r="V66" s="88"/>
-      <c r="W66" s="88"/>
-      <c r="X66" s="88"/>
-      <c r="Y66" s="88"/>
-      <c r="Z66" s="89"/>
-      <c r="AA66" s="90" t="s">
+      <c r="V66" s="102"/>
+      <c r="W66" s="102"/>
+      <c r="X66" s="102"/>
+      <c r="Y66" s="102"/>
+      <c r="Z66" s="103"/>
+      <c r="AA66" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB66" s="91"/>
-      <c r="AC66" s="91"/>
-      <c r="AD66" s="91"/>
-      <c r="AE66" s="91"/>
-      <c r="AF66" s="91"/>
-      <c r="AG66" s="91"/>
-      <c r="AH66" s="91"/>
-      <c r="AI66" s="91"/>
-      <c r="AJ66" s="91"/>
-      <c r="AK66" s="91"/>
-      <c r="AL66" s="91"/>
-      <c r="AM66" s="91"/>
-      <c r="AN66" s="91"/>
-      <c r="AO66" s="91"/>
-      <c r="AP66" s="91"/>
-      <c r="AQ66" s="92"/>
+      <c r="AB66" s="83"/>
+      <c r="AC66" s="83"/>
+      <c r="AD66" s="83"/>
+      <c r="AE66" s="83"/>
+      <c r="AF66" s="83"/>
+      <c r="AG66" s="83"/>
+      <c r="AH66" s="83"/>
+      <c r="AI66" s="83"/>
+      <c r="AJ66" s="83"/>
+      <c r="AK66" s="83"/>
+      <c r="AL66" s="83"/>
+      <c r="AM66" s="83"/>
+      <c r="AN66" s="83"/>
+      <c r="AO66" s="83"/>
+      <c r="AP66" s="83"/>
+      <c r="AQ66" s="84"/>
       <c r="AR66" s="74" t="s">
         <v>155</v>
       </c>
@@ -22314,84 +22307,84 @@
         <v>151</v>
       </c>
       <c r="AT66" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU66" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU66" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV66" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW66" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW66" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX66" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="67" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="102" t="s">
+      <c r="B67" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="C67" s="83"/>
-      <c r="D67" s="103" t="s">
+      <c r="C67" s="95"/>
+      <c r="D67" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E67" s="83"/>
-      <c r="F67" s="82" t="s">
+      <c r="E67" s="95"/>
+      <c r="F67" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G67" s="83"/>
-      <c r="H67" s="84" t="s">
+      <c r="G67" s="95"/>
+      <c r="H67" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I67" s="85"/>
-      <c r="J67" s="86" t="s">
+      <c r="I67" s="99"/>
+      <c r="J67" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K67" s="86"/>
-      <c r="L67" s="86"/>
-      <c r="M67" s="83">
+      <c r="K67" s="100"/>
+      <c r="L67" s="100"/>
+      <c r="M67" s="95">
         <v>2</v>
       </c>
-      <c r="N67" s="83"/>
-      <c r="O67" s="83"/>
-      <c r="P67" s="83">
+      <c r="N67" s="95"/>
+      <c r="O67" s="95"/>
+      <c r="P67" s="95">
         <v>1</v>
       </c>
-      <c r="Q67" s="83"/>
-      <c r="R67" s="83"/>
-      <c r="S67" s="83">
+      <c r="Q67" s="95"/>
+      <c r="R67" s="95"/>
+      <c r="S67" s="95">
         <v>3</v>
       </c>
-      <c r="T67" s="83"/>
-      <c r="U67" s="87" t="s">
+      <c r="T67" s="95"/>
+      <c r="U67" s="101" t="s">
         <v>238</v>
       </c>
-      <c r="V67" s="88"/>
-      <c r="W67" s="88"/>
-      <c r="X67" s="88"/>
-      <c r="Y67" s="88"/>
-      <c r="Z67" s="89"/>
-      <c r="AA67" s="90" t="s">
+      <c r="V67" s="102"/>
+      <c r="W67" s="102"/>
+      <c r="X67" s="102"/>
+      <c r="Y67" s="102"/>
+      <c r="Z67" s="103"/>
+      <c r="AA67" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB67" s="91"/>
-      <c r="AC67" s="91"/>
-      <c r="AD67" s="91"/>
-      <c r="AE67" s="91"/>
-      <c r="AF67" s="91"/>
-      <c r="AG67" s="91"/>
-      <c r="AH67" s="91"/>
-      <c r="AI67" s="91"/>
-      <c r="AJ67" s="91"/>
-      <c r="AK67" s="91"/>
-      <c r="AL67" s="91"/>
-      <c r="AM67" s="91"/>
-      <c r="AN67" s="91"/>
-      <c r="AO67" s="91"/>
-      <c r="AP67" s="91"/>
-      <c r="AQ67" s="92"/>
+      <c r="AB67" s="83"/>
+      <c r="AC67" s="83"/>
+      <c r="AD67" s="83"/>
+      <c r="AE67" s="83"/>
+      <c r="AF67" s="83"/>
+      <c r="AG67" s="83"/>
+      <c r="AH67" s="83"/>
+      <c r="AI67" s="83"/>
+      <c r="AJ67" s="83"/>
+      <c r="AK67" s="83"/>
+      <c r="AL67" s="83"/>
+      <c r="AM67" s="83"/>
+      <c r="AN67" s="83"/>
+      <c r="AO67" s="83"/>
+      <c r="AP67" s="83"/>
+      <c r="AQ67" s="84"/>
       <c r="AR67" s="74" t="s">
         <v>155</v>
       </c>
@@ -22399,84 +22392,84 @@
         <v>151</v>
       </c>
       <c r="AT67" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU67" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU67" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV67" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW67" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW67" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX67" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="68" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="102" t="s">
+      <c r="B68" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="C68" s="83"/>
-      <c r="D68" s="103" t="s">
+      <c r="C68" s="95"/>
+      <c r="D68" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E68" s="83"/>
-      <c r="F68" s="82" t="s">
+      <c r="E68" s="95"/>
+      <c r="F68" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G68" s="83"/>
-      <c r="H68" s="84" t="s">
+      <c r="G68" s="95"/>
+      <c r="H68" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I68" s="85"/>
-      <c r="J68" s="86" t="s">
+      <c r="I68" s="99"/>
+      <c r="J68" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K68" s="86"/>
-      <c r="L68" s="86"/>
-      <c r="M68" s="83">
+      <c r="K68" s="100"/>
+      <c r="L68" s="100"/>
+      <c r="M68" s="95">
         <v>2</v>
       </c>
-      <c r="N68" s="83"/>
-      <c r="O68" s="83"/>
-      <c r="P68" s="83">
+      <c r="N68" s="95"/>
+      <c r="O68" s="95"/>
+      <c r="P68" s="95">
         <v>1</v>
       </c>
-      <c r="Q68" s="83"/>
-      <c r="R68" s="83"/>
-      <c r="S68" s="83">
+      <c r="Q68" s="95"/>
+      <c r="R68" s="95"/>
+      <c r="S68" s="95">
         <v>3</v>
       </c>
-      <c r="T68" s="83"/>
-      <c r="U68" s="87" t="s">
+      <c r="T68" s="95"/>
+      <c r="U68" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="V68" s="88"/>
-      <c r="W68" s="88"/>
-      <c r="X68" s="88"/>
-      <c r="Y68" s="88"/>
-      <c r="Z68" s="89"/>
-      <c r="AA68" s="90" t="s">
+      <c r="V68" s="102"/>
+      <c r="W68" s="102"/>
+      <c r="X68" s="102"/>
+      <c r="Y68" s="102"/>
+      <c r="Z68" s="103"/>
+      <c r="AA68" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB68" s="91"/>
-      <c r="AC68" s="91"/>
-      <c r="AD68" s="91"/>
-      <c r="AE68" s="91"/>
-      <c r="AF68" s="91"/>
-      <c r="AG68" s="91"/>
-      <c r="AH68" s="91"/>
-      <c r="AI68" s="91"/>
-      <c r="AJ68" s="91"/>
-      <c r="AK68" s="91"/>
-      <c r="AL68" s="91"/>
-      <c r="AM68" s="91"/>
-      <c r="AN68" s="91"/>
-      <c r="AO68" s="91"/>
-      <c r="AP68" s="91"/>
-      <c r="AQ68" s="92"/>
+      <c r="AB68" s="83"/>
+      <c r="AC68" s="83"/>
+      <c r="AD68" s="83"/>
+      <c r="AE68" s="83"/>
+      <c r="AF68" s="83"/>
+      <c r="AG68" s="83"/>
+      <c r="AH68" s="83"/>
+      <c r="AI68" s="83"/>
+      <c r="AJ68" s="83"/>
+      <c r="AK68" s="83"/>
+      <c r="AL68" s="83"/>
+      <c r="AM68" s="83"/>
+      <c r="AN68" s="83"/>
+      <c r="AO68" s="83"/>
+      <c r="AP68" s="83"/>
+      <c r="AQ68" s="84"/>
       <c r="AR68" s="74" t="s">
         <v>155</v>
       </c>
@@ -22484,84 +22477,84 @@
         <v>151</v>
       </c>
       <c r="AT68" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU68" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU68" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV68" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW68" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW68" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX68" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="69" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="102" t="s">
+      <c r="B69" s="94" t="s">
         <v>187</v>
       </c>
-      <c r="C69" s="83"/>
-      <c r="D69" s="103" t="s">
+      <c r="C69" s="95"/>
+      <c r="D69" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E69" s="83"/>
-      <c r="F69" s="82" t="s">
+      <c r="E69" s="95"/>
+      <c r="F69" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G69" s="83"/>
-      <c r="H69" s="84" t="s">
+      <c r="G69" s="95"/>
+      <c r="H69" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I69" s="85"/>
-      <c r="J69" s="86" t="s">
+      <c r="I69" s="99"/>
+      <c r="J69" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K69" s="86"/>
-      <c r="L69" s="86"/>
-      <c r="M69" s="83">
+      <c r="K69" s="100"/>
+      <c r="L69" s="100"/>
+      <c r="M69" s="95">
         <v>2</v>
       </c>
-      <c r="N69" s="83"/>
-      <c r="O69" s="83"/>
-      <c r="P69" s="83">
+      <c r="N69" s="95"/>
+      <c r="O69" s="95"/>
+      <c r="P69" s="95">
         <v>1</v>
       </c>
-      <c r="Q69" s="83"/>
-      <c r="R69" s="83"/>
-      <c r="S69" s="83">
+      <c r="Q69" s="95"/>
+      <c r="R69" s="95"/>
+      <c r="S69" s="95">
         <v>3</v>
       </c>
-      <c r="T69" s="83"/>
-      <c r="U69" s="87" t="s">
+      <c r="T69" s="95"/>
+      <c r="U69" s="101" t="s">
         <v>240</v>
       </c>
-      <c r="V69" s="88"/>
-      <c r="W69" s="88"/>
-      <c r="X69" s="88"/>
-      <c r="Y69" s="88"/>
-      <c r="Z69" s="89"/>
-      <c r="AA69" s="90" t="s">
+      <c r="V69" s="102"/>
+      <c r="W69" s="102"/>
+      <c r="X69" s="102"/>
+      <c r="Y69" s="102"/>
+      <c r="Z69" s="103"/>
+      <c r="AA69" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB69" s="91"/>
-      <c r="AC69" s="91"/>
-      <c r="AD69" s="91"/>
-      <c r="AE69" s="91"/>
-      <c r="AF69" s="91"/>
-      <c r="AG69" s="91"/>
-      <c r="AH69" s="91"/>
-      <c r="AI69" s="91"/>
-      <c r="AJ69" s="91"/>
-      <c r="AK69" s="91"/>
-      <c r="AL69" s="91"/>
-      <c r="AM69" s="91"/>
-      <c r="AN69" s="91"/>
-      <c r="AO69" s="91"/>
-      <c r="AP69" s="91"/>
-      <c r="AQ69" s="92"/>
+      <c r="AB69" s="83"/>
+      <c r="AC69" s="83"/>
+      <c r="AD69" s="83"/>
+      <c r="AE69" s="83"/>
+      <c r="AF69" s="83"/>
+      <c r="AG69" s="83"/>
+      <c r="AH69" s="83"/>
+      <c r="AI69" s="83"/>
+      <c r="AJ69" s="83"/>
+      <c r="AK69" s="83"/>
+      <c r="AL69" s="83"/>
+      <c r="AM69" s="83"/>
+      <c r="AN69" s="83"/>
+      <c r="AO69" s="83"/>
+      <c r="AP69" s="83"/>
+      <c r="AQ69" s="84"/>
       <c r="AR69" s="74" t="s">
         <v>155</v>
       </c>
@@ -22569,84 +22562,84 @@
         <v>151</v>
       </c>
       <c r="AT69" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU69" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU69" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV69" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW69" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW69" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX69" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="70" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="102" t="s">
+      <c r="B70" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="C70" s="83"/>
-      <c r="D70" s="103" t="s">
+      <c r="C70" s="95"/>
+      <c r="D70" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E70" s="83"/>
-      <c r="F70" s="82" t="s">
+      <c r="E70" s="95"/>
+      <c r="F70" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G70" s="83"/>
-      <c r="H70" s="84" t="s">
+      <c r="G70" s="95"/>
+      <c r="H70" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I70" s="85"/>
-      <c r="J70" s="86" t="s">
+      <c r="I70" s="99"/>
+      <c r="J70" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K70" s="86"/>
-      <c r="L70" s="86"/>
-      <c r="M70" s="83">
+      <c r="K70" s="100"/>
+      <c r="L70" s="100"/>
+      <c r="M70" s="95">
         <v>2</v>
       </c>
-      <c r="N70" s="83"/>
-      <c r="O70" s="83"/>
-      <c r="P70" s="83">
+      <c r="N70" s="95"/>
+      <c r="O70" s="95"/>
+      <c r="P70" s="95">
         <v>1</v>
       </c>
-      <c r="Q70" s="83"/>
-      <c r="R70" s="83"/>
-      <c r="S70" s="83">
+      <c r="Q70" s="95"/>
+      <c r="R70" s="95"/>
+      <c r="S70" s="95">
         <v>3</v>
       </c>
-      <c r="T70" s="83"/>
-      <c r="U70" s="87" t="s">
+      <c r="T70" s="95"/>
+      <c r="U70" s="101" t="s">
         <v>241</v>
       </c>
-      <c r="V70" s="88"/>
-      <c r="W70" s="88"/>
-      <c r="X70" s="88"/>
-      <c r="Y70" s="88"/>
-      <c r="Z70" s="89"/>
-      <c r="AA70" s="90" t="s">
+      <c r="V70" s="102"/>
+      <c r="W70" s="102"/>
+      <c r="X70" s="102"/>
+      <c r="Y70" s="102"/>
+      <c r="Z70" s="103"/>
+      <c r="AA70" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB70" s="91"/>
-      <c r="AC70" s="91"/>
-      <c r="AD70" s="91"/>
-      <c r="AE70" s="91"/>
-      <c r="AF70" s="91"/>
-      <c r="AG70" s="91"/>
-      <c r="AH70" s="91"/>
-      <c r="AI70" s="91"/>
-      <c r="AJ70" s="91"/>
-      <c r="AK70" s="91"/>
-      <c r="AL70" s="91"/>
-      <c r="AM70" s="91"/>
-      <c r="AN70" s="91"/>
-      <c r="AO70" s="91"/>
-      <c r="AP70" s="91"/>
-      <c r="AQ70" s="92"/>
+      <c r="AB70" s="83"/>
+      <c r="AC70" s="83"/>
+      <c r="AD70" s="83"/>
+      <c r="AE70" s="83"/>
+      <c r="AF70" s="83"/>
+      <c r="AG70" s="83"/>
+      <c r="AH70" s="83"/>
+      <c r="AI70" s="83"/>
+      <c r="AJ70" s="83"/>
+      <c r="AK70" s="83"/>
+      <c r="AL70" s="83"/>
+      <c r="AM70" s="83"/>
+      <c r="AN70" s="83"/>
+      <c r="AO70" s="83"/>
+      <c r="AP70" s="83"/>
+      <c r="AQ70" s="84"/>
       <c r="AR70" s="74" t="s">
         <v>155</v>
       </c>
@@ -22654,84 +22647,84 @@
         <v>151</v>
       </c>
       <c r="AT70" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU70" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU70" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV70" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW70" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW70" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX70" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="71" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="102" t="s">
+      <c r="B71" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="C71" s="83"/>
-      <c r="D71" s="103" t="s">
+      <c r="C71" s="95"/>
+      <c r="D71" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E71" s="83"/>
-      <c r="F71" s="82" t="s">
+      <c r="E71" s="95"/>
+      <c r="F71" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G71" s="83"/>
-      <c r="H71" s="84" t="s">
+      <c r="G71" s="95"/>
+      <c r="H71" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I71" s="85"/>
-      <c r="J71" s="86" t="s">
+      <c r="I71" s="99"/>
+      <c r="J71" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K71" s="86"/>
-      <c r="L71" s="86"/>
-      <c r="M71" s="83">
+      <c r="K71" s="100"/>
+      <c r="L71" s="100"/>
+      <c r="M71" s="95">
         <v>2</v>
       </c>
-      <c r="N71" s="83"/>
-      <c r="O71" s="83"/>
-      <c r="P71" s="83">
+      <c r="N71" s="95"/>
+      <c r="O71" s="95"/>
+      <c r="P71" s="95">
         <v>1</v>
       </c>
-      <c r="Q71" s="83"/>
-      <c r="R71" s="83"/>
-      <c r="S71" s="83">
+      <c r="Q71" s="95"/>
+      <c r="R71" s="95"/>
+      <c r="S71" s="95">
         <v>3</v>
       </c>
-      <c r="T71" s="83"/>
-      <c r="U71" s="87" t="s">
+      <c r="T71" s="95"/>
+      <c r="U71" s="101" t="s">
         <v>268</v>
       </c>
-      <c r="V71" s="88"/>
-      <c r="W71" s="88"/>
-      <c r="X71" s="88"/>
-      <c r="Y71" s="88"/>
-      <c r="Z71" s="89"/>
-      <c r="AA71" s="90" t="s">
+      <c r="V71" s="102"/>
+      <c r="W71" s="102"/>
+      <c r="X71" s="102"/>
+      <c r="Y71" s="102"/>
+      <c r="Z71" s="103"/>
+      <c r="AA71" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB71" s="91"/>
-      <c r="AC71" s="91"/>
-      <c r="AD71" s="91"/>
-      <c r="AE71" s="91"/>
-      <c r="AF71" s="91"/>
-      <c r="AG71" s="91"/>
-      <c r="AH71" s="91"/>
-      <c r="AI71" s="91"/>
-      <c r="AJ71" s="91"/>
-      <c r="AK71" s="91"/>
-      <c r="AL71" s="91"/>
-      <c r="AM71" s="91"/>
-      <c r="AN71" s="91"/>
-      <c r="AO71" s="91"/>
-      <c r="AP71" s="91"/>
-      <c r="AQ71" s="92"/>
+      <c r="AB71" s="83"/>
+      <c r="AC71" s="83"/>
+      <c r="AD71" s="83"/>
+      <c r="AE71" s="83"/>
+      <c r="AF71" s="83"/>
+      <c r="AG71" s="83"/>
+      <c r="AH71" s="83"/>
+      <c r="AI71" s="83"/>
+      <c r="AJ71" s="83"/>
+      <c r="AK71" s="83"/>
+      <c r="AL71" s="83"/>
+      <c r="AM71" s="83"/>
+      <c r="AN71" s="83"/>
+      <c r="AO71" s="83"/>
+      <c r="AP71" s="83"/>
+      <c r="AQ71" s="84"/>
       <c r="AR71" s="74" t="s">
         <v>155</v>
       </c>
@@ -22739,84 +22732,84 @@
         <v>151</v>
       </c>
       <c r="AT71" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU71" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU71" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV71" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW71" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW71" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX71" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="72" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="102" t="s">
+      <c r="B72" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="83"/>
-      <c r="D72" s="103" t="s">
+      <c r="C72" s="95"/>
+      <c r="D72" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E72" s="83"/>
-      <c r="F72" s="82" t="s">
+      <c r="E72" s="95"/>
+      <c r="F72" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G72" s="83"/>
-      <c r="H72" s="84" t="s">
+      <c r="G72" s="95"/>
+      <c r="H72" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I72" s="85"/>
-      <c r="J72" s="86" t="s">
+      <c r="I72" s="99"/>
+      <c r="J72" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K72" s="86"/>
-      <c r="L72" s="86"/>
-      <c r="M72" s="83">
+      <c r="K72" s="100"/>
+      <c r="L72" s="100"/>
+      <c r="M72" s="95">
         <v>2</v>
       </c>
-      <c r="N72" s="83"/>
-      <c r="O72" s="83"/>
-      <c r="P72" s="83">
+      <c r="N72" s="95"/>
+      <c r="O72" s="95"/>
+      <c r="P72" s="95">
         <v>1</v>
       </c>
-      <c r="Q72" s="83"/>
-      <c r="R72" s="83"/>
-      <c r="S72" s="83">
+      <c r="Q72" s="95"/>
+      <c r="R72" s="95"/>
+      <c r="S72" s="95">
         <v>3</v>
       </c>
-      <c r="T72" s="83"/>
-      <c r="U72" s="87" t="s">
+      <c r="T72" s="95"/>
+      <c r="U72" s="101" t="s">
         <v>269</v>
       </c>
-      <c r="V72" s="88"/>
-      <c r="W72" s="88"/>
-      <c r="X72" s="88"/>
-      <c r="Y72" s="88"/>
-      <c r="Z72" s="89"/>
-      <c r="AA72" s="90" t="s">
+      <c r="V72" s="102"/>
+      <c r="W72" s="102"/>
+      <c r="X72" s="102"/>
+      <c r="Y72" s="102"/>
+      <c r="Z72" s="103"/>
+      <c r="AA72" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB72" s="91"/>
-      <c r="AC72" s="91"/>
-      <c r="AD72" s="91"/>
-      <c r="AE72" s="91"/>
-      <c r="AF72" s="91"/>
-      <c r="AG72" s="91"/>
-      <c r="AH72" s="91"/>
-      <c r="AI72" s="91"/>
-      <c r="AJ72" s="91"/>
-      <c r="AK72" s="91"/>
-      <c r="AL72" s="91"/>
-      <c r="AM72" s="91"/>
-      <c r="AN72" s="91"/>
-      <c r="AO72" s="91"/>
-      <c r="AP72" s="91"/>
-      <c r="AQ72" s="92"/>
+      <c r="AB72" s="83"/>
+      <c r="AC72" s="83"/>
+      <c r="AD72" s="83"/>
+      <c r="AE72" s="83"/>
+      <c r="AF72" s="83"/>
+      <c r="AG72" s="83"/>
+      <c r="AH72" s="83"/>
+      <c r="AI72" s="83"/>
+      <c r="AJ72" s="83"/>
+      <c r="AK72" s="83"/>
+      <c r="AL72" s="83"/>
+      <c r="AM72" s="83"/>
+      <c r="AN72" s="83"/>
+      <c r="AO72" s="83"/>
+      <c r="AP72" s="83"/>
+      <c r="AQ72" s="84"/>
       <c r="AR72" s="74" t="s">
         <v>155</v>
       </c>
@@ -22824,84 +22817,84 @@
         <v>151</v>
       </c>
       <c r="AT72" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU72" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU72" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV72" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW72" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW72" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX72" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="73" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="102" t="s">
+      <c r="B73" s="94" t="s">
         <v>191</v>
       </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="103" t="s">
+      <c r="C73" s="95"/>
+      <c r="D73" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E73" s="83"/>
-      <c r="F73" s="82" t="s">
+      <c r="E73" s="95"/>
+      <c r="F73" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G73" s="83"/>
-      <c r="H73" s="84" t="s">
+      <c r="G73" s="95"/>
+      <c r="H73" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I73" s="85"/>
-      <c r="J73" s="86" t="s">
+      <c r="I73" s="99"/>
+      <c r="J73" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K73" s="86"/>
-      <c r="L73" s="86"/>
-      <c r="M73" s="83">
+      <c r="K73" s="100"/>
+      <c r="L73" s="100"/>
+      <c r="M73" s="95">
         <v>2</v>
       </c>
-      <c r="N73" s="83"/>
-      <c r="O73" s="83"/>
-      <c r="P73" s="83">
+      <c r="N73" s="95"/>
+      <c r="O73" s="95"/>
+      <c r="P73" s="95">
         <v>1</v>
       </c>
-      <c r="Q73" s="83"/>
-      <c r="R73" s="83"/>
-      <c r="S73" s="83">
+      <c r="Q73" s="95"/>
+      <c r="R73" s="95"/>
+      <c r="S73" s="95">
         <v>3</v>
       </c>
-      <c r="T73" s="83"/>
-      <c r="U73" s="87" t="s">
+      <c r="T73" s="95"/>
+      <c r="U73" s="101" t="s">
         <v>242</v>
       </c>
-      <c r="V73" s="88"/>
-      <c r="W73" s="88"/>
-      <c r="X73" s="88"/>
-      <c r="Y73" s="88"/>
-      <c r="Z73" s="89"/>
-      <c r="AA73" s="90" t="s">
+      <c r="V73" s="102"/>
+      <c r="W73" s="102"/>
+      <c r="X73" s="102"/>
+      <c r="Y73" s="102"/>
+      <c r="Z73" s="103"/>
+      <c r="AA73" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB73" s="91"/>
-      <c r="AC73" s="91"/>
-      <c r="AD73" s="91"/>
-      <c r="AE73" s="91"/>
-      <c r="AF73" s="91"/>
-      <c r="AG73" s="91"/>
-      <c r="AH73" s="91"/>
-      <c r="AI73" s="91"/>
-      <c r="AJ73" s="91"/>
-      <c r="AK73" s="91"/>
-      <c r="AL73" s="91"/>
-      <c r="AM73" s="91"/>
-      <c r="AN73" s="91"/>
-      <c r="AO73" s="91"/>
-      <c r="AP73" s="91"/>
-      <c r="AQ73" s="92"/>
+      <c r="AB73" s="83"/>
+      <c r="AC73" s="83"/>
+      <c r="AD73" s="83"/>
+      <c r="AE73" s="83"/>
+      <c r="AF73" s="83"/>
+      <c r="AG73" s="83"/>
+      <c r="AH73" s="83"/>
+      <c r="AI73" s="83"/>
+      <c r="AJ73" s="83"/>
+      <c r="AK73" s="83"/>
+      <c r="AL73" s="83"/>
+      <c r="AM73" s="83"/>
+      <c r="AN73" s="83"/>
+      <c r="AO73" s="83"/>
+      <c r="AP73" s="83"/>
+      <c r="AQ73" s="84"/>
       <c r="AR73" s="74" t="s">
         <v>155</v>
       </c>
@@ -22909,84 +22902,84 @@
         <v>151</v>
       </c>
       <c r="AT73" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU73" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU73" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV73" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW73" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW73" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX73" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="74" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="102" t="s">
+      <c r="B74" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="C74" s="83"/>
-      <c r="D74" s="103" t="s">
+      <c r="C74" s="95"/>
+      <c r="D74" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E74" s="83"/>
-      <c r="F74" s="82" t="s">
+      <c r="E74" s="95"/>
+      <c r="F74" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G74" s="83"/>
-      <c r="H74" s="84" t="s">
+      <c r="G74" s="95"/>
+      <c r="H74" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I74" s="85"/>
-      <c r="J74" s="86" t="s">
+      <c r="I74" s="99"/>
+      <c r="J74" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K74" s="86"/>
-      <c r="L74" s="86"/>
-      <c r="M74" s="83">
+      <c r="K74" s="100"/>
+      <c r="L74" s="100"/>
+      <c r="M74" s="95">
         <v>2</v>
       </c>
-      <c r="N74" s="83"/>
-      <c r="O74" s="83"/>
-      <c r="P74" s="83">
+      <c r="N74" s="95"/>
+      <c r="O74" s="95"/>
+      <c r="P74" s="95">
         <v>1</v>
       </c>
-      <c r="Q74" s="83"/>
-      <c r="R74" s="83"/>
-      <c r="S74" s="83">
+      <c r="Q74" s="95"/>
+      <c r="R74" s="95"/>
+      <c r="S74" s="95">
         <v>3</v>
       </c>
-      <c r="T74" s="83"/>
-      <c r="U74" s="87" t="s">
+      <c r="T74" s="95"/>
+      <c r="U74" s="101" t="s">
         <v>243</v>
       </c>
-      <c r="V74" s="88"/>
-      <c r="W74" s="88"/>
-      <c r="X74" s="88"/>
-      <c r="Y74" s="88"/>
-      <c r="Z74" s="89"/>
-      <c r="AA74" s="90" t="s">
+      <c r="V74" s="102"/>
+      <c r="W74" s="102"/>
+      <c r="X74" s="102"/>
+      <c r="Y74" s="102"/>
+      <c r="Z74" s="103"/>
+      <c r="AA74" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB74" s="91"/>
-      <c r="AC74" s="91"/>
-      <c r="AD74" s="91"/>
-      <c r="AE74" s="91"/>
-      <c r="AF74" s="91"/>
-      <c r="AG74" s="91"/>
-      <c r="AH74" s="91"/>
-      <c r="AI74" s="91"/>
-      <c r="AJ74" s="91"/>
-      <c r="AK74" s="91"/>
-      <c r="AL74" s="91"/>
-      <c r="AM74" s="91"/>
-      <c r="AN74" s="91"/>
-      <c r="AO74" s="91"/>
-      <c r="AP74" s="91"/>
-      <c r="AQ74" s="92"/>
+      <c r="AB74" s="83"/>
+      <c r="AC74" s="83"/>
+      <c r="AD74" s="83"/>
+      <c r="AE74" s="83"/>
+      <c r="AF74" s="83"/>
+      <c r="AG74" s="83"/>
+      <c r="AH74" s="83"/>
+      <c r="AI74" s="83"/>
+      <c r="AJ74" s="83"/>
+      <c r="AK74" s="83"/>
+      <c r="AL74" s="83"/>
+      <c r="AM74" s="83"/>
+      <c r="AN74" s="83"/>
+      <c r="AO74" s="83"/>
+      <c r="AP74" s="83"/>
+      <c r="AQ74" s="84"/>
       <c r="AR74" s="74" t="s">
         <v>155</v>
       </c>
@@ -22994,84 +22987,84 @@
         <v>151</v>
       </c>
       <c r="AT74" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU74" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU74" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV74" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW74" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW74" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX74" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="75" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="102" t="s">
+      <c r="B75" s="94" t="s">
         <v>193</v>
       </c>
-      <c r="C75" s="83"/>
-      <c r="D75" s="103" t="s">
+      <c r="C75" s="95"/>
+      <c r="D75" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E75" s="83"/>
-      <c r="F75" s="82" t="s">
+      <c r="E75" s="95"/>
+      <c r="F75" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G75" s="83"/>
-      <c r="H75" s="84" t="s">
+      <c r="G75" s="95"/>
+      <c r="H75" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I75" s="85"/>
-      <c r="J75" s="86" t="s">
+      <c r="I75" s="99"/>
+      <c r="J75" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K75" s="86"/>
-      <c r="L75" s="86"/>
-      <c r="M75" s="83">
+      <c r="K75" s="100"/>
+      <c r="L75" s="100"/>
+      <c r="M75" s="95">
         <v>2</v>
       </c>
-      <c r="N75" s="83"/>
-      <c r="O75" s="83"/>
-      <c r="P75" s="83">
+      <c r="N75" s="95"/>
+      <c r="O75" s="95"/>
+      <c r="P75" s="95">
         <v>1</v>
       </c>
-      <c r="Q75" s="83"/>
-      <c r="R75" s="83"/>
-      <c r="S75" s="83">
+      <c r="Q75" s="95"/>
+      <c r="R75" s="95"/>
+      <c r="S75" s="95">
         <v>3</v>
       </c>
-      <c r="T75" s="83"/>
-      <c r="U75" s="87" t="s">
+      <c r="T75" s="95"/>
+      <c r="U75" s="101" t="s">
         <v>244</v>
       </c>
-      <c r="V75" s="88"/>
-      <c r="W75" s="88"/>
-      <c r="X75" s="88"/>
-      <c r="Y75" s="88"/>
-      <c r="Z75" s="89"/>
-      <c r="AA75" s="90" t="s">
+      <c r="V75" s="102"/>
+      <c r="W75" s="102"/>
+      <c r="X75" s="102"/>
+      <c r="Y75" s="102"/>
+      <c r="Z75" s="103"/>
+      <c r="AA75" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB75" s="91"/>
-      <c r="AC75" s="91"/>
-      <c r="AD75" s="91"/>
-      <c r="AE75" s="91"/>
-      <c r="AF75" s="91"/>
-      <c r="AG75" s="91"/>
-      <c r="AH75" s="91"/>
-      <c r="AI75" s="91"/>
-      <c r="AJ75" s="91"/>
-      <c r="AK75" s="91"/>
-      <c r="AL75" s="91"/>
-      <c r="AM75" s="91"/>
-      <c r="AN75" s="91"/>
-      <c r="AO75" s="91"/>
-      <c r="AP75" s="91"/>
-      <c r="AQ75" s="92"/>
+      <c r="AB75" s="83"/>
+      <c r="AC75" s="83"/>
+      <c r="AD75" s="83"/>
+      <c r="AE75" s="83"/>
+      <c r="AF75" s="83"/>
+      <c r="AG75" s="83"/>
+      <c r="AH75" s="83"/>
+      <c r="AI75" s="83"/>
+      <c r="AJ75" s="83"/>
+      <c r="AK75" s="83"/>
+      <c r="AL75" s="83"/>
+      <c r="AM75" s="83"/>
+      <c r="AN75" s="83"/>
+      <c r="AO75" s="83"/>
+      <c r="AP75" s="83"/>
+      <c r="AQ75" s="84"/>
       <c r="AR75" s="74" t="s">
         <v>155</v>
       </c>
@@ -23079,84 +23072,84 @@
         <v>151</v>
       </c>
       <c r="AT75" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU75" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU75" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV75" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW75" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW75" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX75" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="102" t="s">
+      <c r="B76" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="C76" s="83"/>
-      <c r="D76" s="103" t="s">
+      <c r="C76" s="95"/>
+      <c r="D76" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E76" s="83"/>
-      <c r="F76" s="82" t="s">
+      <c r="E76" s="95"/>
+      <c r="F76" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G76" s="83"/>
-      <c r="H76" s="84" t="s">
+      <c r="G76" s="95"/>
+      <c r="H76" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I76" s="85"/>
-      <c r="J76" s="86" t="s">
+      <c r="I76" s="99"/>
+      <c r="J76" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K76" s="86"/>
-      <c r="L76" s="86"/>
-      <c r="M76" s="83">
+      <c r="K76" s="100"/>
+      <c r="L76" s="100"/>
+      <c r="M76" s="95">
         <v>2</v>
       </c>
-      <c r="N76" s="83"/>
-      <c r="O76" s="83"/>
-      <c r="P76" s="83">
+      <c r="N76" s="95"/>
+      <c r="O76" s="95"/>
+      <c r="P76" s="95">
         <v>1</v>
       </c>
-      <c r="Q76" s="83"/>
-      <c r="R76" s="83"/>
-      <c r="S76" s="83">
+      <c r="Q76" s="95"/>
+      <c r="R76" s="95"/>
+      <c r="S76" s="95">
         <v>3</v>
       </c>
-      <c r="T76" s="83"/>
-      <c r="U76" s="87" t="s">
+      <c r="T76" s="95"/>
+      <c r="U76" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="V76" s="88"/>
-      <c r="W76" s="88"/>
-      <c r="X76" s="88"/>
-      <c r="Y76" s="88"/>
-      <c r="Z76" s="89"/>
-      <c r="AA76" s="90" t="s">
+      <c r="V76" s="102"/>
+      <c r="W76" s="102"/>
+      <c r="X76" s="102"/>
+      <c r="Y76" s="102"/>
+      <c r="Z76" s="103"/>
+      <c r="AA76" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB76" s="91"/>
-      <c r="AC76" s="91"/>
-      <c r="AD76" s="91"/>
-      <c r="AE76" s="91"/>
-      <c r="AF76" s="91"/>
-      <c r="AG76" s="91"/>
-      <c r="AH76" s="91"/>
-      <c r="AI76" s="91"/>
-      <c r="AJ76" s="91"/>
-      <c r="AK76" s="91"/>
-      <c r="AL76" s="91"/>
-      <c r="AM76" s="91"/>
-      <c r="AN76" s="91"/>
-      <c r="AO76" s="91"/>
-      <c r="AP76" s="91"/>
-      <c r="AQ76" s="92"/>
+      <c r="AB76" s="83"/>
+      <c r="AC76" s="83"/>
+      <c r="AD76" s="83"/>
+      <c r="AE76" s="83"/>
+      <c r="AF76" s="83"/>
+      <c r="AG76" s="83"/>
+      <c r="AH76" s="83"/>
+      <c r="AI76" s="83"/>
+      <c r="AJ76" s="83"/>
+      <c r="AK76" s="83"/>
+      <c r="AL76" s="83"/>
+      <c r="AM76" s="83"/>
+      <c r="AN76" s="83"/>
+      <c r="AO76" s="83"/>
+      <c r="AP76" s="83"/>
+      <c r="AQ76" s="84"/>
       <c r="AR76" s="74" t="s">
         <v>155</v>
       </c>
@@ -23164,84 +23157,84 @@
         <v>151</v>
       </c>
       <c r="AT76" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU76" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU76" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV76" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW76" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW76" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX76" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="77" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="102" t="s">
+      <c r="B77" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="C77" s="83"/>
-      <c r="D77" s="103" t="s">
+      <c r="C77" s="95"/>
+      <c r="D77" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E77" s="83"/>
-      <c r="F77" s="82" t="s">
+      <c r="E77" s="95"/>
+      <c r="F77" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G77" s="83"/>
-      <c r="H77" s="84" t="s">
+      <c r="G77" s="95"/>
+      <c r="H77" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I77" s="85"/>
-      <c r="J77" s="86" t="s">
+      <c r="I77" s="99"/>
+      <c r="J77" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K77" s="86"/>
-      <c r="L77" s="86"/>
-      <c r="M77" s="83">
+      <c r="K77" s="100"/>
+      <c r="L77" s="100"/>
+      <c r="M77" s="95">
         <v>2</v>
       </c>
-      <c r="N77" s="83"/>
-      <c r="O77" s="83"/>
-      <c r="P77" s="83">
+      <c r="N77" s="95"/>
+      <c r="O77" s="95"/>
+      <c r="P77" s="95">
         <v>1</v>
       </c>
-      <c r="Q77" s="83"/>
-      <c r="R77" s="83"/>
-      <c r="S77" s="83">
+      <c r="Q77" s="95"/>
+      <c r="R77" s="95"/>
+      <c r="S77" s="95">
         <v>3</v>
       </c>
-      <c r="T77" s="83"/>
-      <c r="U77" s="87" t="s">
+      <c r="T77" s="95"/>
+      <c r="U77" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="V77" s="88"/>
-      <c r="W77" s="88"/>
-      <c r="X77" s="88"/>
-      <c r="Y77" s="88"/>
-      <c r="Z77" s="89"/>
-      <c r="AA77" s="90" t="s">
+      <c r="V77" s="102"/>
+      <c r="W77" s="102"/>
+      <c r="X77" s="102"/>
+      <c r="Y77" s="102"/>
+      <c r="Z77" s="103"/>
+      <c r="AA77" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB77" s="91"/>
-      <c r="AC77" s="91"/>
-      <c r="AD77" s="91"/>
-      <c r="AE77" s="91"/>
-      <c r="AF77" s="91"/>
-      <c r="AG77" s="91"/>
-      <c r="AH77" s="91"/>
-      <c r="AI77" s="91"/>
-      <c r="AJ77" s="91"/>
-      <c r="AK77" s="91"/>
-      <c r="AL77" s="91"/>
-      <c r="AM77" s="91"/>
-      <c r="AN77" s="91"/>
-      <c r="AO77" s="91"/>
-      <c r="AP77" s="91"/>
-      <c r="AQ77" s="92"/>
+      <c r="AB77" s="83"/>
+      <c r="AC77" s="83"/>
+      <c r="AD77" s="83"/>
+      <c r="AE77" s="83"/>
+      <c r="AF77" s="83"/>
+      <c r="AG77" s="83"/>
+      <c r="AH77" s="83"/>
+      <c r="AI77" s="83"/>
+      <c r="AJ77" s="83"/>
+      <c r="AK77" s="83"/>
+      <c r="AL77" s="83"/>
+      <c r="AM77" s="83"/>
+      <c r="AN77" s="83"/>
+      <c r="AO77" s="83"/>
+      <c r="AP77" s="83"/>
+      <c r="AQ77" s="84"/>
       <c r="AR77" s="74" t="s">
         <v>155</v>
       </c>
@@ -23249,84 +23242,84 @@
         <v>151</v>
       </c>
       <c r="AT77" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU77" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU77" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV77" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW77" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW77" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX77" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="78" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="102" t="s">
+      <c r="B78" s="94" t="s">
         <v>196</v>
       </c>
-      <c r="C78" s="83"/>
-      <c r="D78" s="103" t="s">
+      <c r="C78" s="95"/>
+      <c r="D78" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E78" s="83"/>
-      <c r="F78" s="82" t="s">
+      <c r="E78" s="95"/>
+      <c r="F78" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G78" s="83"/>
-      <c r="H78" s="84" t="s">
+      <c r="G78" s="95"/>
+      <c r="H78" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I78" s="85"/>
-      <c r="J78" s="86" t="s">
+      <c r="I78" s="99"/>
+      <c r="J78" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K78" s="86"/>
-      <c r="L78" s="86"/>
-      <c r="M78" s="83">
+      <c r="K78" s="100"/>
+      <c r="L78" s="100"/>
+      <c r="M78" s="95">
         <v>2</v>
       </c>
-      <c r="N78" s="83"/>
-      <c r="O78" s="83"/>
-      <c r="P78" s="83">
+      <c r="N78" s="95"/>
+      <c r="O78" s="95"/>
+      <c r="P78" s="95">
         <v>1</v>
       </c>
-      <c r="Q78" s="83"/>
-      <c r="R78" s="83"/>
-      <c r="S78" s="83">
+      <c r="Q78" s="95"/>
+      <c r="R78" s="95"/>
+      <c r="S78" s="95">
         <v>3</v>
       </c>
-      <c r="T78" s="83"/>
-      <c r="U78" s="87" t="s">
+      <c r="T78" s="95"/>
+      <c r="U78" s="101" t="s">
         <v>270</v>
       </c>
-      <c r="V78" s="88"/>
-      <c r="W78" s="88"/>
-      <c r="X78" s="88"/>
-      <c r="Y78" s="88"/>
-      <c r="Z78" s="89"/>
-      <c r="AA78" s="90" t="s">
+      <c r="V78" s="102"/>
+      <c r="W78" s="102"/>
+      <c r="X78" s="102"/>
+      <c r="Y78" s="102"/>
+      <c r="Z78" s="103"/>
+      <c r="AA78" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB78" s="91"/>
-      <c r="AC78" s="91"/>
-      <c r="AD78" s="91"/>
-      <c r="AE78" s="91"/>
-      <c r="AF78" s="91"/>
-      <c r="AG78" s="91"/>
-      <c r="AH78" s="91"/>
-      <c r="AI78" s="91"/>
-      <c r="AJ78" s="91"/>
-      <c r="AK78" s="91"/>
-      <c r="AL78" s="91"/>
-      <c r="AM78" s="91"/>
-      <c r="AN78" s="91"/>
-      <c r="AO78" s="91"/>
-      <c r="AP78" s="91"/>
-      <c r="AQ78" s="92"/>
+      <c r="AB78" s="83"/>
+      <c r="AC78" s="83"/>
+      <c r="AD78" s="83"/>
+      <c r="AE78" s="83"/>
+      <c r="AF78" s="83"/>
+      <c r="AG78" s="83"/>
+      <c r="AH78" s="83"/>
+      <c r="AI78" s="83"/>
+      <c r="AJ78" s="83"/>
+      <c r="AK78" s="83"/>
+      <c r="AL78" s="83"/>
+      <c r="AM78" s="83"/>
+      <c r="AN78" s="83"/>
+      <c r="AO78" s="83"/>
+      <c r="AP78" s="83"/>
+      <c r="AQ78" s="84"/>
       <c r="AR78" s="74" t="s">
         <v>155</v>
       </c>
@@ -23334,84 +23327,84 @@
         <v>151</v>
       </c>
       <c r="AT78" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU78" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU78" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV78" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW78" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW78" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX78" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="79" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="102" t="s">
+      <c r="B79" s="94" t="s">
         <v>197</v>
       </c>
-      <c r="C79" s="83"/>
-      <c r="D79" s="103" t="s">
+      <c r="C79" s="95"/>
+      <c r="D79" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E79" s="83"/>
-      <c r="F79" s="82" t="s">
+      <c r="E79" s="95"/>
+      <c r="F79" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G79" s="83"/>
-      <c r="H79" s="84" t="s">
+      <c r="G79" s="95"/>
+      <c r="H79" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I79" s="85"/>
-      <c r="J79" s="86" t="s">
+      <c r="I79" s="99"/>
+      <c r="J79" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K79" s="86"/>
-      <c r="L79" s="86"/>
-      <c r="M79" s="83">
+      <c r="K79" s="100"/>
+      <c r="L79" s="100"/>
+      <c r="M79" s="95">
         <v>2</v>
       </c>
-      <c r="N79" s="83"/>
-      <c r="O79" s="83"/>
-      <c r="P79" s="83">
+      <c r="N79" s="95"/>
+      <c r="O79" s="95"/>
+      <c r="P79" s="95">
         <v>1</v>
       </c>
-      <c r="Q79" s="83"/>
-      <c r="R79" s="83"/>
-      <c r="S79" s="83">
+      <c r="Q79" s="95"/>
+      <c r="R79" s="95"/>
+      <c r="S79" s="95">
         <v>3</v>
       </c>
-      <c r="T79" s="83"/>
-      <c r="U79" s="87" t="s">
+      <c r="T79" s="95"/>
+      <c r="U79" s="101" t="s">
         <v>271</v>
       </c>
-      <c r="V79" s="88"/>
-      <c r="W79" s="88"/>
-      <c r="X79" s="88"/>
-      <c r="Y79" s="88"/>
-      <c r="Z79" s="89"/>
-      <c r="AA79" s="90" t="s">
+      <c r="V79" s="102"/>
+      <c r="W79" s="102"/>
+      <c r="X79" s="102"/>
+      <c r="Y79" s="102"/>
+      <c r="Z79" s="103"/>
+      <c r="AA79" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB79" s="91"/>
-      <c r="AC79" s="91"/>
-      <c r="AD79" s="91"/>
-      <c r="AE79" s="91"/>
-      <c r="AF79" s="91"/>
-      <c r="AG79" s="91"/>
-      <c r="AH79" s="91"/>
-      <c r="AI79" s="91"/>
-      <c r="AJ79" s="91"/>
-      <c r="AK79" s="91"/>
-      <c r="AL79" s="91"/>
-      <c r="AM79" s="91"/>
-      <c r="AN79" s="91"/>
-      <c r="AO79" s="91"/>
-      <c r="AP79" s="91"/>
-      <c r="AQ79" s="92"/>
+      <c r="AB79" s="83"/>
+      <c r="AC79" s="83"/>
+      <c r="AD79" s="83"/>
+      <c r="AE79" s="83"/>
+      <c r="AF79" s="83"/>
+      <c r="AG79" s="83"/>
+      <c r="AH79" s="83"/>
+      <c r="AI79" s="83"/>
+      <c r="AJ79" s="83"/>
+      <c r="AK79" s="83"/>
+      <c r="AL79" s="83"/>
+      <c r="AM79" s="83"/>
+      <c r="AN79" s="83"/>
+      <c r="AO79" s="83"/>
+      <c r="AP79" s="83"/>
+      <c r="AQ79" s="84"/>
       <c r="AR79" s="74" t="s">
         <v>155</v>
       </c>
@@ -23419,84 +23412,84 @@
         <v>151</v>
       </c>
       <c r="AT79" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU79" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU79" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV79" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW79" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW79" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX79" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="80" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="102" t="s">
+      <c r="B80" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="C80" s="83"/>
-      <c r="D80" s="103" t="s">
+      <c r="C80" s="95"/>
+      <c r="D80" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E80" s="83"/>
-      <c r="F80" s="82" t="s">
+      <c r="E80" s="95"/>
+      <c r="F80" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G80" s="83"/>
-      <c r="H80" s="84" t="s">
+      <c r="G80" s="95"/>
+      <c r="H80" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I80" s="85"/>
-      <c r="J80" s="86" t="s">
+      <c r="I80" s="99"/>
+      <c r="J80" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K80" s="86"/>
-      <c r="L80" s="86"/>
-      <c r="M80" s="83">
+      <c r="K80" s="100"/>
+      <c r="L80" s="100"/>
+      <c r="M80" s="95">
         <v>2</v>
       </c>
-      <c r="N80" s="83"/>
-      <c r="O80" s="83"/>
-      <c r="P80" s="83">
+      <c r="N80" s="95"/>
+      <c r="O80" s="95"/>
+      <c r="P80" s="95">
         <v>1</v>
       </c>
-      <c r="Q80" s="83"/>
-      <c r="R80" s="83"/>
-      <c r="S80" s="83">
+      <c r="Q80" s="95"/>
+      <c r="R80" s="95"/>
+      <c r="S80" s="95">
         <v>3</v>
       </c>
-      <c r="T80" s="83"/>
-      <c r="U80" s="87" t="s">
+      <c r="T80" s="95"/>
+      <c r="U80" s="101" t="s">
         <v>247</v>
       </c>
-      <c r="V80" s="88"/>
-      <c r="W80" s="88"/>
-      <c r="X80" s="88"/>
-      <c r="Y80" s="88"/>
-      <c r="Z80" s="89"/>
-      <c r="AA80" s="90" t="s">
+      <c r="V80" s="102"/>
+      <c r="W80" s="102"/>
+      <c r="X80" s="102"/>
+      <c r="Y80" s="102"/>
+      <c r="Z80" s="103"/>
+      <c r="AA80" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB80" s="91"/>
-      <c r="AC80" s="91"/>
-      <c r="AD80" s="91"/>
-      <c r="AE80" s="91"/>
-      <c r="AF80" s="91"/>
-      <c r="AG80" s="91"/>
-      <c r="AH80" s="91"/>
-      <c r="AI80" s="91"/>
-      <c r="AJ80" s="91"/>
-      <c r="AK80" s="91"/>
-      <c r="AL80" s="91"/>
-      <c r="AM80" s="91"/>
-      <c r="AN80" s="91"/>
-      <c r="AO80" s="91"/>
-      <c r="AP80" s="91"/>
-      <c r="AQ80" s="92"/>
+      <c r="AB80" s="83"/>
+      <c r="AC80" s="83"/>
+      <c r="AD80" s="83"/>
+      <c r="AE80" s="83"/>
+      <c r="AF80" s="83"/>
+      <c r="AG80" s="83"/>
+      <c r="AH80" s="83"/>
+      <c r="AI80" s="83"/>
+      <c r="AJ80" s="83"/>
+      <c r="AK80" s="83"/>
+      <c r="AL80" s="83"/>
+      <c r="AM80" s="83"/>
+      <c r="AN80" s="83"/>
+      <c r="AO80" s="83"/>
+      <c r="AP80" s="83"/>
+      <c r="AQ80" s="84"/>
       <c r="AR80" s="74" t="s">
         <v>155</v>
       </c>
@@ -23504,84 +23497,84 @@
         <v>151</v>
       </c>
       <c r="AT80" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU80" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU80" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV80" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW80" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW80" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX80" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="81" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="102" t="s">
+      <c r="B81" s="94" t="s">
         <v>199</v>
       </c>
-      <c r="C81" s="83"/>
-      <c r="D81" s="103" t="s">
+      <c r="C81" s="95"/>
+      <c r="D81" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E81" s="83"/>
-      <c r="F81" s="82" t="s">
+      <c r="E81" s="95"/>
+      <c r="F81" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G81" s="83"/>
-      <c r="H81" s="84" t="s">
+      <c r="G81" s="95"/>
+      <c r="H81" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I81" s="85"/>
-      <c r="J81" s="86" t="s">
+      <c r="I81" s="99"/>
+      <c r="J81" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K81" s="86"/>
-      <c r="L81" s="86"/>
-      <c r="M81" s="83">
+      <c r="K81" s="100"/>
+      <c r="L81" s="100"/>
+      <c r="M81" s="95">
         <v>2</v>
       </c>
-      <c r="N81" s="83"/>
-      <c r="O81" s="83"/>
-      <c r="P81" s="83">
+      <c r="N81" s="95"/>
+      <c r="O81" s="95"/>
+      <c r="P81" s="95">
         <v>1</v>
       </c>
-      <c r="Q81" s="83"/>
-      <c r="R81" s="83"/>
-      <c r="S81" s="83">
+      <c r="Q81" s="95"/>
+      <c r="R81" s="95"/>
+      <c r="S81" s="95">
         <v>3</v>
       </c>
-      <c r="T81" s="83"/>
-      <c r="U81" s="87" t="s">
+      <c r="T81" s="95"/>
+      <c r="U81" s="101" t="s">
         <v>248</v>
       </c>
-      <c r="V81" s="88"/>
-      <c r="W81" s="88"/>
-      <c r="X81" s="88"/>
-      <c r="Y81" s="88"/>
-      <c r="Z81" s="89"/>
-      <c r="AA81" s="90" t="s">
+      <c r="V81" s="102"/>
+      <c r="W81" s="102"/>
+      <c r="X81" s="102"/>
+      <c r="Y81" s="102"/>
+      <c r="Z81" s="103"/>
+      <c r="AA81" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB81" s="91"/>
-      <c r="AC81" s="91"/>
-      <c r="AD81" s="91"/>
-      <c r="AE81" s="91"/>
-      <c r="AF81" s="91"/>
-      <c r="AG81" s="91"/>
-      <c r="AH81" s="91"/>
-      <c r="AI81" s="91"/>
-      <c r="AJ81" s="91"/>
-      <c r="AK81" s="91"/>
-      <c r="AL81" s="91"/>
-      <c r="AM81" s="91"/>
-      <c r="AN81" s="91"/>
-      <c r="AO81" s="91"/>
-      <c r="AP81" s="91"/>
-      <c r="AQ81" s="92"/>
+      <c r="AB81" s="83"/>
+      <c r="AC81" s="83"/>
+      <c r="AD81" s="83"/>
+      <c r="AE81" s="83"/>
+      <c r="AF81" s="83"/>
+      <c r="AG81" s="83"/>
+      <c r="AH81" s="83"/>
+      <c r="AI81" s="83"/>
+      <c r="AJ81" s="83"/>
+      <c r="AK81" s="83"/>
+      <c r="AL81" s="83"/>
+      <c r="AM81" s="83"/>
+      <c r="AN81" s="83"/>
+      <c r="AO81" s="83"/>
+      <c r="AP81" s="83"/>
+      <c r="AQ81" s="84"/>
       <c r="AR81" s="74" t="s">
         <v>155</v>
       </c>
@@ -23589,84 +23582,84 @@
         <v>151</v>
       </c>
       <c r="AT81" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU81" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU81" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV81" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW81" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW81" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX81" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="82" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="102" t="s">
+      <c r="B82" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="C82" s="83"/>
-      <c r="D82" s="103" t="s">
+      <c r="C82" s="95"/>
+      <c r="D82" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E82" s="83"/>
-      <c r="F82" s="82" t="s">
+      <c r="E82" s="95"/>
+      <c r="F82" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G82" s="83"/>
-      <c r="H82" s="84" t="s">
+      <c r="G82" s="95"/>
+      <c r="H82" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I82" s="85"/>
-      <c r="J82" s="86" t="s">
+      <c r="I82" s="99"/>
+      <c r="J82" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K82" s="86"/>
-      <c r="L82" s="86"/>
-      <c r="M82" s="83">
+      <c r="K82" s="100"/>
+      <c r="L82" s="100"/>
+      <c r="M82" s="95">
         <v>2</v>
       </c>
-      <c r="N82" s="83"/>
-      <c r="O82" s="83"/>
-      <c r="P82" s="83">
+      <c r="N82" s="95"/>
+      <c r="O82" s="95"/>
+      <c r="P82" s="95">
         <v>1</v>
       </c>
-      <c r="Q82" s="83"/>
-      <c r="R82" s="83"/>
-      <c r="S82" s="83">
+      <c r="Q82" s="95"/>
+      <c r="R82" s="95"/>
+      <c r="S82" s="95">
         <v>3</v>
       </c>
-      <c r="T82" s="83"/>
-      <c r="U82" s="87" t="s">
+      <c r="T82" s="95"/>
+      <c r="U82" s="101" t="s">
         <v>249</v>
       </c>
-      <c r="V82" s="88"/>
-      <c r="W82" s="88"/>
-      <c r="X82" s="88"/>
-      <c r="Y82" s="88"/>
-      <c r="Z82" s="89"/>
-      <c r="AA82" s="90" t="s">
+      <c r="V82" s="102"/>
+      <c r="W82" s="102"/>
+      <c r="X82" s="102"/>
+      <c r="Y82" s="102"/>
+      <c r="Z82" s="103"/>
+      <c r="AA82" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB82" s="91"/>
-      <c r="AC82" s="91"/>
-      <c r="AD82" s="91"/>
-      <c r="AE82" s="91"/>
-      <c r="AF82" s="91"/>
-      <c r="AG82" s="91"/>
-      <c r="AH82" s="91"/>
-      <c r="AI82" s="91"/>
-      <c r="AJ82" s="91"/>
-      <c r="AK82" s="91"/>
-      <c r="AL82" s="91"/>
-      <c r="AM82" s="91"/>
-      <c r="AN82" s="91"/>
-      <c r="AO82" s="91"/>
-      <c r="AP82" s="91"/>
-      <c r="AQ82" s="92"/>
+      <c r="AB82" s="83"/>
+      <c r="AC82" s="83"/>
+      <c r="AD82" s="83"/>
+      <c r="AE82" s="83"/>
+      <c r="AF82" s="83"/>
+      <c r="AG82" s="83"/>
+      <c r="AH82" s="83"/>
+      <c r="AI82" s="83"/>
+      <c r="AJ82" s="83"/>
+      <c r="AK82" s="83"/>
+      <c r="AL82" s="83"/>
+      <c r="AM82" s="83"/>
+      <c r="AN82" s="83"/>
+      <c r="AO82" s="83"/>
+      <c r="AP82" s="83"/>
+      <c r="AQ82" s="84"/>
       <c r="AR82" s="74" t="s">
         <v>155</v>
       </c>
@@ -23674,84 +23667,84 @@
         <v>151</v>
       </c>
       <c r="AT82" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU82" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU82" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV82" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW82" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW82" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX82" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="83" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="102" t="s">
+      <c r="B83" s="94" t="s">
         <v>201</v>
       </c>
-      <c r="C83" s="83"/>
-      <c r="D83" s="103" t="s">
+      <c r="C83" s="95"/>
+      <c r="D83" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E83" s="83"/>
-      <c r="F83" s="82" t="s">
+      <c r="E83" s="95"/>
+      <c r="F83" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G83" s="83"/>
-      <c r="H83" s="84" t="s">
+      <c r="G83" s="95"/>
+      <c r="H83" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I83" s="85"/>
-      <c r="J83" s="86" t="s">
+      <c r="I83" s="99"/>
+      <c r="J83" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K83" s="86"/>
-      <c r="L83" s="86"/>
-      <c r="M83" s="83">
+      <c r="K83" s="100"/>
+      <c r="L83" s="100"/>
+      <c r="M83" s="95">
         <v>2</v>
       </c>
-      <c r="N83" s="83"/>
-      <c r="O83" s="83"/>
-      <c r="P83" s="83">
+      <c r="N83" s="95"/>
+      <c r="O83" s="95"/>
+      <c r="P83" s="95">
         <v>1</v>
       </c>
-      <c r="Q83" s="83"/>
-      <c r="R83" s="83"/>
-      <c r="S83" s="83">
+      <c r="Q83" s="95"/>
+      <c r="R83" s="95"/>
+      <c r="S83" s="95">
         <v>3</v>
       </c>
-      <c r="T83" s="83"/>
-      <c r="U83" s="87" t="s">
+      <c r="T83" s="95"/>
+      <c r="U83" s="101" t="s">
         <v>250</v>
       </c>
-      <c r="V83" s="88"/>
-      <c r="W83" s="88"/>
-      <c r="X83" s="88"/>
-      <c r="Y83" s="88"/>
-      <c r="Z83" s="89"/>
-      <c r="AA83" s="90" t="s">
+      <c r="V83" s="102"/>
+      <c r="W83" s="102"/>
+      <c r="X83" s="102"/>
+      <c r="Y83" s="102"/>
+      <c r="Z83" s="103"/>
+      <c r="AA83" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB83" s="91"/>
-      <c r="AC83" s="91"/>
-      <c r="AD83" s="91"/>
-      <c r="AE83" s="91"/>
-      <c r="AF83" s="91"/>
-      <c r="AG83" s="91"/>
-      <c r="AH83" s="91"/>
-      <c r="AI83" s="91"/>
-      <c r="AJ83" s="91"/>
-      <c r="AK83" s="91"/>
-      <c r="AL83" s="91"/>
-      <c r="AM83" s="91"/>
-      <c r="AN83" s="91"/>
-      <c r="AO83" s="91"/>
-      <c r="AP83" s="91"/>
-      <c r="AQ83" s="92"/>
+      <c r="AB83" s="83"/>
+      <c r="AC83" s="83"/>
+      <c r="AD83" s="83"/>
+      <c r="AE83" s="83"/>
+      <c r="AF83" s="83"/>
+      <c r="AG83" s="83"/>
+      <c r="AH83" s="83"/>
+      <c r="AI83" s="83"/>
+      <c r="AJ83" s="83"/>
+      <c r="AK83" s="83"/>
+      <c r="AL83" s="83"/>
+      <c r="AM83" s="83"/>
+      <c r="AN83" s="83"/>
+      <c r="AO83" s="83"/>
+      <c r="AP83" s="83"/>
+      <c r="AQ83" s="84"/>
       <c r="AR83" s="74" t="s">
         <v>155</v>
       </c>
@@ -23759,84 +23752,84 @@
         <v>151</v>
       </c>
       <c r="AT83" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU83" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU83" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV83" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW83" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW83" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX83" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="84" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="102" t="s">
+      <c r="B84" s="94" t="s">
         <v>202</v>
       </c>
-      <c r="C84" s="83"/>
-      <c r="D84" s="103" t="s">
+      <c r="C84" s="95"/>
+      <c r="D84" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E84" s="83"/>
-      <c r="F84" s="82" t="s">
+      <c r="E84" s="95"/>
+      <c r="F84" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G84" s="83"/>
-      <c r="H84" s="84" t="s">
+      <c r="G84" s="95"/>
+      <c r="H84" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I84" s="85"/>
-      <c r="J84" s="86" t="s">
+      <c r="I84" s="99"/>
+      <c r="J84" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K84" s="86"/>
-      <c r="L84" s="86"/>
-      <c r="M84" s="83">
+      <c r="K84" s="100"/>
+      <c r="L84" s="100"/>
+      <c r="M84" s="95">
         <v>2</v>
       </c>
-      <c r="N84" s="83"/>
-      <c r="O84" s="83"/>
-      <c r="P84" s="83">
+      <c r="N84" s="95"/>
+      <c r="O84" s="95"/>
+      <c r="P84" s="95">
         <v>1</v>
       </c>
-      <c r="Q84" s="83"/>
-      <c r="R84" s="83"/>
-      <c r="S84" s="83">
+      <c r="Q84" s="95"/>
+      <c r="R84" s="95"/>
+      <c r="S84" s="95">
         <v>3</v>
       </c>
-      <c r="T84" s="83"/>
-      <c r="U84" s="87" t="s">
+      <c r="T84" s="95"/>
+      <c r="U84" s="101" t="s">
         <v>251</v>
       </c>
-      <c r="V84" s="88"/>
-      <c r="W84" s="88"/>
-      <c r="X84" s="88"/>
-      <c r="Y84" s="88"/>
-      <c r="Z84" s="89"/>
-      <c r="AA84" s="90" t="s">
+      <c r="V84" s="102"/>
+      <c r="W84" s="102"/>
+      <c r="X84" s="102"/>
+      <c r="Y84" s="102"/>
+      <c r="Z84" s="103"/>
+      <c r="AA84" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB84" s="91"/>
-      <c r="AC84" s="91"/>
-      <c r="AD84" s="91"/>
-      <c r="AE84" s="91"/>
-      <c r="AF84" s="91"/>
-      <c r="AG84" s="91"/>
-      <c r="AH84" s="91"/>
-      <c r="AI84" s="91"/>
-      <c r="AJ84" s="91"/>
-      <c r="AK84" s="91"/>
-      <c r="AL84" s="91"/>
-      <c r="AM84" s="91"/>
-      <c r="AN84" s="91"/>
-      <c r="AO84" s="91"/>
-      <c r="AP84" s="91"/>
-      <c r="AQ84" s="92"/>
+      <c r="AB84" s="83"/>
+      <c r="AC84" s="83"/>
+      <c r="AD84" s="83"/>
+      <c r="AE84" s="83"/>
+      <c r="AF84" s="83"/>
+      <c r="AG84" s="83"/>
+      <c r="AH84" s="83"/>
+      <c r="AI84" s="83"/>
+      <c r="AJ84" s="83"/>
+      <c r="AK84" s="83"/>
+      <c r="AL84" s="83"/>
+      <c r="AM84" s="83"/>
+      <c r="AN84" s="83"/>
+      <c r="AO84" s="83"/>
+      <c r="AP84" s="83"/>
+      <c r="AQ84" s="84"/>
       <c r="AR84" s="74" t="s">
         <v>155</v>
       </c>
@@ -23844,84 +23837,84 @@
         <v>151</v>
       </c>
       <c r="AT84" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU84" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU84" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV84" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW84" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW84" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX84" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="85" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="102" t="s">
+      <c r="B85" s="94" t="s">
         <v>203</v>
       </c>
-      <c r="C85" s="83"/>
-      <c r="D85" s="103" t="s">
+      <c r="C85" s="95"/>
+      <c r="D85" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E85" s="83"/>
-      <c r="F85" s="82" t="s">
+      <c r="E85" s="95"/>
+      <c r="F85" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G85" s="83"/>
-      <c r="H85" s="84" t="s">
+      <c r="G85" s="95"/>
+      <c r="H85" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I85" s="85"/>
-      <c r="J85" s="86" t="s">
+      <c r="I85" s="99"/>
+      <c r="J85" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K85" s="86"/>
-      <c r="L85" s="86"/>
-      <c r="M85" s="83">
+      <c r="K85" s="100"/>
+      <c r="L85" s="100"/>
+      <c r="M85" s="95">
         <v>2</v>
       </c>
-      <c r="N85" s="83"/>
-      <c r="O85" s="83"/>
-      <c r="P85" s="83">
+      <c r="N85" s="95"/>
+      <c r="O85" s="95"/>
+      <c r="P85" s="95">
         <v>1</v>
       </c>
-      <c r="Q85" s="83"/>
-      <c r="R85" s="83"/>
-      <c r="S85" s="83">
+      <c r="Q85" s="95"/>
+      <c r="R85" s="95"/>
+      <c r="S85" s="95">
         <v>3</v>
       </c>
-      <c r="T85" s="83"/>
-      <c r="U85" s="87" t="s">
+      <c r="T85" s="95"/>
+      <c r="U85" s="101" t="s">
         <v>272</v>
       </c>
-      <c r="V85" s="88"/>
-      <c r="W85" s="88"/>
-      <c r="X85" s="88"/>
-      <c r="Y85" s="88"/>
-      <c r="Z85" s="89"/>
-      <c r="AA85" s="90" t="s">
+      <c r="V85" s="102"/>
+      <c r="W85" s="102"/>
+      <c r="X85" s="102"/>
+      <c r="Y85" s="102"/>
+      <c r="Z85" s="103"/>
+      <c r="AA85" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB85" s="91"/>
-      <c r="AC85" s="91"/>
-      <c r="AD85" s="91"/>
-      <c r="AE85" s="91"/>
-      <c r="AF85" s="91"/>
-      <c r="AG85" s="91"/>
-      <c r="AH85" s="91"/>
-      <c r="AI85" s="91"/>
-      <c r="AJ85" s="91"/>
-      <c r="AK85" s="91"/>
-      <c r="AL85" s="91"/>
-      <c r="AM85" s="91"/>
-      <c r="AN85" s="91"/>
-      <c r="AO85" s="91"/>
-      <c r="AP85" s="91"/>
-      <c r="AQ85" s="92"/>
+      <c r="AB85" s="83"/>
+      <c r="AC85" s="83"/>
+      <c r="AD85" s="83"/>
+      <c r="AE85" s="83"/>
+      <c r="AF85" s="83"/>
+      <c r="AG85" s="83"/>
+      <c r="AH85" s="83"/>
+      <c r="AI85" s="83"/>
+      <c r="AJ85" s="83"/>
+      <c r="AK85" s="83"/>
+      <c r="AL85" s="83"/>
+      <c r="AM85" s="83"/>
+      <c r="AN85" s="83"/>
+      <c r="AO85" s="83"/>
+      <c r="AP85" s="83"/>
+      <c r="AQ85" s="84"/>
       <c r="AR85" s="74" t="s">
         <v>155</v>
       </c>
@@ -23929,84 +23922,84 @@
         <v>151</v>
       </c>
       <c r="AT85" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU85" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU85" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV85" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW85" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW85" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX85" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="86" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="102" t="s">
+      <c r="B86" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="C86" s="83"/>
-      <c r="D86" s="103" t="s">
+      <c r="C86" s="95"/>
+      <c r="D86" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E86" s="83"/>
-      <c r="F86" s="82" t="s">
+      <c r="E86" s="95"/>
+      <c r="F86" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G86" s="83"/>
-      <c r="H86" s="84" t="s">
+      <c r="G86" s="95"/>
+      <c r="H86" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I86" s="85"/>
-      <c r="J86" s="86" t="s">
+      <c r="I86" s="99"/>
+      <c r="J86" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K86" s="86"/>
-      <c r="L86" s="86"/>
-      <c r="M86" s="83">
+      <c r="K86" s="100"/>
+      <c r="L86" s="100"/>
+      <c r="M86" s="95">
         <v>2</v>
       </c>
-      <c r="N86" s="83"/>
-      <c r="O86" s="83"/>
-      <c r="P86" s="83">
+      <c r="N86" s="95"/>
+      <c r="O86" s="95"/>
+      <c r="P86" s="95">
         <v>1</v>
       </c>
-      <c r="Q86" s="83"/>
-      <c r="R86" s="83"/>
-      <c r="S86" s="83">
+      <c r="Q86" s="95"/>
+      <c r="R86" s="95"/>
+      <c r="S86" s="95">
         <v>3</v>
       </c>
-      <c r="T86" s="83"/>
-      <c r="U86" s="87" t="s">
+      <c r="T86" s="95"/>
+      <c r="U86" s="101" t="s">
         <v>273</v>
       </c>
-      <c r="V86" s="88"/>
-      <c r="W86" s="88"/>
-      <c r="X86" s="88"/>
-      <c r="Y86" s="88"/>
-      <c r="Z86" s="89"/>
-      <c r="AA86" s="90" t="s">
+      <c r="V86" s="102"/>
+      <c r="W86" s="102"/>
+      <c r="X86" s="102"/>
+      <c r="Y86" s="102"/>
+      <c r="Z86" s="103"/>
+      <c r="AA86" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB86" s="91"/>
-      <c r="AC86" s="91"/>
-      <c r="AD86" s="91"/>
-      <c r="AE86" s="91"/>
-      <c r="AF86" s="91"/>
-      <c r="AG86" s="91"/>
-      <c r="AH86" s="91"/>
-      <c r="AI86" s="91"/>
-      <c r="AJ86" s="91"/>
-      <c r="AK86" s="91"/>
-      <c r="AL86" s="91"/>
-      <c r="AM86" s="91"/>
-      <c r="AN86" s="91"/>
-      <c r="AO86" s="91"/>
-      <c r="AP86" s="91"/>
-      <c r="AQ86" s="92"/>
+      <c r="AB86" s="83"/>
+      <c r="AC86" s="83"/>
+      <c r="AD86" s="83"/>
+      <c r="AE86" s="83"/>
+      <c r="AF86" s="83"/>
+      <c r="AG86" s="83"/>
+      <c r="AH86" s="83"/>
+      <c r="AI86" s="83"/>
+      <c r="AJ86" s="83"/>
+      <c r="AK86" s="83"/>
+      <c r="AL86" s="83"/>
+      <c r="AM86" s="83"/>
+      <c r="AN86" s="83"/>
+      <c r="AO86" s="83"/>
+      <c r="AP86" s="83"/>
+      <c r="AQ86" s="84"/>
       <c r="AR86" s="74" t="s">
         <v>155</v>
       </c>
@@ -24014,84 +24007,84 @@
         <v>151</v>
       </c>
       <c r="AT86" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU86" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU86" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV86" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW86" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW86" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX86" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="87" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="102" t="s">
+      <c r="B87" s="94" t="s">
         <v>205</v>
       </c>
-      <c r="C87" s="83"/>
-      <c r="D87" s="103" t="s">
+      <c r="C87" s="95"/>
+      <c r="D87" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E87" s="83"/>
-      <c r="F87" s="82" t="s">
+      <c r="E87" s="95"/>
+      <c r="F87" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G87" s="83"/>
-      <c r="H87" s="84" t="s">
+      <c r="G87" s="95"/>
+      <c r="H87" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I87" s="85"/>
-      <c r="J87" s="86" t="s">
+      <c r="I87" s="99"/>
+      <c r="J87" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K87" s="86"/>
-      <c r="L87" s="86"/>
-      <c r="M87" s="83">
+      <c r="K87" s="100"/>
+      <c r="L87" s="100"/>
+      <c r="M87" s="95">
         <v>2</v>
       </c>
-      <c r="N87" s="83"/>
-      <c r="O87" s="83"/>
-      <c r="P87" s="83">
+      <c r="N87" s="95"/>
+      <c r="O87" s="95"/>
+      <c r="P87" s="95">
         <v>1</v>
       </c>
-      <c r="Q87" s="83"/>
-      <c r="R87" s="83"/>
-      <c r="S87" s="83">
+      <c r="Q87" s="95"/>
+      <c r="R87" s="95"/>
+      <c r="S87" s="95">
         <v>3</v>
       </c>
-      <c r="T87" s="83"/>
-      <c r="U87" s="87" t="s">
+      <c r="T87" s="95"/>
+      <c r="U87" s="101" t="s">
         <v>252</v>
       </c>
-      <c r="V87" s="88"/>
-      <c r="W87" s="88"/>
-      <c r="X87" s="88"/>
-      <c r="Y87" s="88"/>
-      <c r="Z87" s="89"/>
-      <c r="AA87" s="90" t="s">
+      <c r="V87" s="102"/>
+      <c r="W87" s="102"/>
+      <c r="X87" s="102"/>
+      <c r="Y87" s="102"/>
+      <c r="Z87" s="103"/>
+      <c r="AA87" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB87" s="91"/>
-      <c r="AC87" s="91"/>
-      <c r="AD87" s="91"/>
-      <c r="AE87" s="91"/>
-      <c r="AF87" s="91"/>
-      <c r="AG87" s="91"/>
-      <c r="AH87" s="91"/>
-      <c r="AI87" s="91"/>
-      <c r="AJ87" s="91"/>
-      <c r="AK87" s="91"/>
-      <c r="AL87" s="91"/>
-      <c r="AM87" s="91"/>
-      <c r="AN87" s="91"/>
-      <c r="AO87" s="91"/>
-      <c r="AP87" s="91"/>
-      <c r="AQ87" s="92"/>
+      <c r="AB87" s="83"/>
+      <c r="AC87" s="83"/>
+      <c r="AD87" s="83"/>
+      <c r="AE87" s="83"/>
+      <c r="AF87" s="83"/>
+      <c r="AG87" s="83"/>
+      <c r="AH87" s="83"/>
+      <c r="AI87" s="83"/>
+      <c r="AJ87" s="83"/>
+      <c r="AK87" s="83"/>
+      <c r="AL87" s="83"/>
+      <c r="AM87" s="83"/>
+      <c r="AN87" s="83"/>
+      <c r="AO87" s="83"/>
+      <c r="AP87" s="83"/>
+      <c r="AQ87" s="84"/>
       <c r="AR87" s="74" t="s">
         <v>155</v>
       </c>
@@ -24099,84 +24092,84 @@
         <v>151</v>
       </c>
       <c r="AT87" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU87" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU87" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV87" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW87" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW87" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX87" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="88" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="102" t="s">
+      <c r="B88" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="C88" s="83"/>
-      <c r="D88" s="103" t="s">
+      <c r="C88" s="95"/>
+      <c r="D88" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E88" s="83"/>
-      <c r="F88" s="82" t="s">
+      <c r="E88" s="95"/>
+      <c r="F88" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G88" s="83"/>
-      <c r="H88" s="84" t="s">
+      <c r="G88" s="95"/>
+      <c r="H88" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I88" s="85"/>
-      <c r="J88" s="86" t="s">
+      <c r="I88" s="99"/>
+      <c r="J88" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K88" s="86"/>
-      <c r="L88" s="86"/>
-      <c r="M88" s="83">
+      <c r="K88" s="100"/>
+      <c r="L88" s="100"/>
+      <c r="M88" s="95">
         <v>2</v>
       </c>
-      <c r="N88" s="83"/>
-      <c r="O88" s="83"/>
-      <c r="P88" s="83">
+      <c r="N88" s="95"/>
+      <c r="O88" s="95"/>
+      <c r="P88" s="95">
         <v>1</v>
       </c>
-      <c r="Q88" s="83"/>
-      <c r="R88" s="83"/>
-      <c r="S88" s="83">
+      <c r="Q88" s="95"/>
+      <c r="R88" s="95"/>
+      <c r="S88" s="95">
         <v>3</v>
       </c>
-      <c r="T88" s="83"/>
-      <c r="U88" s="87" t="s">
+      <c r="T88" s="95"/>
+      <c r="U88" s="101" t="s">
         <v>253</v>
       </c>
-      <c r="V88" s="88"/>
-      <c r="W88" s="88"/>
-      <c r="X88" s="88"/>
-      <c r="Y88" s="88"/>
-      <c r="Z88" s="89"/>
-      <c r="AA88" s="90" t="s">
+      <c r="V88" s="102"/>
+      <c r="W88" s="102"/>
+      <c r="X88" s="102"/>
+      <c r="Y88" s="102"/>
+      <c r="Z88" s="103"/>
+      <c r="AA88" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB88" s="91"/>
-      <c r="AC88" s="91"/>
-      <c r="AD88" s="91"/>
-      <c r="AE88" s="91"/>
-      <c r="AF88" s="91"/>
-      <c r="AG88" s="91"/>
-      <c r="AH88" s="91"/>
-      <c r="AI88" s="91"/>
-      <c r="AJ88" s="91"/>
-      <c r="AK88" s="91"/>
-      <c r="AL88" s="91"/>
-      <c r="AM88" s="91"/>
-      <c r="AN88" s="91"/>
-      <c r="AO88" s="91"/>
-      <c r="AP88" s="91"/>
-      <c r="AQ88" s="92"/>
+      <c r="AB88" s="83"/>
+      <c r="AC88" s="83"/>
+      <c r="AD88" s="83"/>
+      <c r="AE88" s="83"/>
+      <c r="AF88" s="83"/>
+      <c r="AG88" s="83"/>
+      <c r="AH88" s="83"/>
+      <c r="AI88" s="83"/>
+      <c r="AJ88" s="83"/>
+      <c r="AK88" s="83"/>
+      <c r="AL88" s="83"/>
+      <c r="AM88" s="83"/>
+      <c r="AN88" s="83"/>
+      <c r="AO88" s="83"/>
+      <c r="AP88" s="83"/>
+      <c r="AQ88" s="84"/>
       <c r="AR88" s="74" t="s">
         <v>155</v>
       </c>
@@ -24184,84 +24177,84 @@
         <v>151</v>
       </c>
       <c r="AT88" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU88" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU88" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV88" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW88" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW88" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX88" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="89" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="102" t="s">
+      <c r="B89" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="C89" s="83"/>
-      <c r="D89" s="103" t="s">
+      <c r="C89" s="95"/>
+      <c r="D89" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E89" s="83"/>
-      <c r="F89" s="82" t="s">
+      <c r="E89" s="95"/>
+      <c r="F89" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G89" s="83"/>
-      <c r="H89" s="84" t="s">
+      <c r="G89" s="95"/>
+      <c r="H89" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I89" s="85"/>
-      <c r="J89" s="86" t="s">
+      <c r="I89" s="99"/>
+      <c r="J89" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K89" s="86"/>
-      <c r="L89" s="86"/>
-      <c r="M89" s="83">
+      <c r="K89" s="100"/>
+      <c r="L89" s="100"/>
+      <c r="M89" s="95">
         <v>2</v>
       </c>
-      <c r="N89" s="83"/>
-      <c r="O89" s="83"/>
-      <c r="P89" s="83">
+      <c r="N89" s="95"/>
+      <c r="O89" s="95"/>
+      <c r="P89" s="95">
         <v>1</v>
       </c>
-      <c r="Q89" s="83"/>
-      <c r="R89" s="83"/>
-      <c r="S89" s="83">
+      <c r="Q89" s="95"/>
+      <c r="R89" s="95"/>
+      <c r="S89" s="95">
         <v>3</v>
       </c>
-      <c r="T89" s="83"/>
-      <c r="U89" s="87" t="s">
+      <c r="T89" s="95"/>
+      <c r="U89" s="101" t="s">
         <v>254</v>
       </c>
-      <c r="V89" s="88"/>
-      <c r="W89" s="88"/>
-      <c r="X89" s="88"/>
-      <c r="Y89" s="88"/>
-      <c r="Z89" s="89"/>
-      <c r="AA89" s="90" t="s">
+      <c r="V89" s="102"/>
+      <c r="W89" s="102"/>
+      <c r="X89" s="102"/>
+      <c r="Y89" s="102"/>
+      <c r="Z89" s="103"/>
+      <c r="AA89" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB89" s="91"/>
-      <c r="AC89" s="91"/>
-      <c r="AD89" s="91"/>
-      <c r="AE89" s="91"/>
-      <c r="AF89" s="91"/>
-      <c r="AG89" s="91"/>
-      <c r="AH89" s="91"/>
-      <c r="AI89" s="91"/>
-      <c r="AJ89" s="91"/>
-      <c r="AK89" s="91"/>
-      <c r="AL89" s="91"/>
-      <c r="AM89" s="91"/>
-      <c r="AN89" s="91"/>
-      <c r="AO89" s="91"/>
-      <c r="AP89" s="91"/>
-      <c r="AQ89" s="92"/>
+      <c r="AB89" s="83"/>
+      <c r="AC89" s="83"/>
+      <c r="AD89" s="83"/>
+      <c r="AE89" s="83"/>
+      <c r="AF89" s="83"/>
+      <c r="AG89" s="83"/>
+      <c r="AH89" s="83"/>
+      <c r="AI89" s="83"/>
+      <c r="AJ89" s="83"/>
+      <c r="AK89" s="83"/>
+      <c r="AL89" s="83"/>
+      <c r="AM89" s="83"/>
+      <c r="AN89" s="83"/>
+      <c r="AO89" s="83"/>
+      <c r="AP89" s="83"/>
+      <c r="AQ89" s="84"/>
       <c r="AR89" s="74" t="s">
         <v>155</v>
       </c>
@@ -24269,84 +24262,84 @@
         <v>151</v>
       </c>
       <c r="AT89" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU89" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU89" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV89" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW89" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW89" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX89" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="90" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="102" t="s">
+      <c r="B90" s="94" t="s">
         <v>208</v>
       </c>
-      <c r="C90" s="83"/>
-      <c r="D90" s="103" t="s">
+      <c r="C90" s="95"/>
+      <c r="D90" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E90" s="83"/>
-      <c r="F90" s="82" t="s">
+      <c r="E90" s="95"/>
+      <c r="F90" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G90" s="83"/>
-      <c r="H90" s="84" t="s">
+      <c r="G90" s="95"/>
+      <c r="H90" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I90" s="85"/>
-      <c r="J90" s="86" t="s">
+      <c r="I90" s="99"/>
+      <c r="J90" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K90" s="86"/>
-      <c r="L90" s="86"/>
-      <c r="M90" s="83">
+      <c r="K90" s="100"/>
+      <c r="L90" s="100"/>
+      <c r="M90" s="95">
         <v>2</v>
       </c>
-      <c r="N90" s="83"/>
-      <c r="O90" s="83"/>
-      <c r="P90" s="83">
+      <c r="N90" s="95"/>
+      <c r="O90" s="95"/>
+      <c r="P90" s="95">
         <v>1</v>
       </c>
-      <c r="Q90" s="83"/>
-      <c r="R90" s="83"/>
-      <c r="S90" s="83">
+      <c r="Q90" s="95"/>
+      <c r="R90" s="95"/>
+      <c r="S90" s="95">
         <v>3</v>
       </c>
-      <c r="T90" s="83"/>
-      <c r="U90" s="87" t="s">
+      <c r="T90" s="95"/>
+      <c r="U90" s="101" t="s">
         <v>255</v>
       </c>
-      <c r="V90" s="88"/>
-      <c r="W90" s="88"/>
-      <c r="X90" s="88"/>
-      <c r="Y90" s="88"/>
-      <c r="Z90" s="89"/>
-      <c r="AA90" s="90" t="s">
+      <c r="V90" s="102"/>
+      <c r="W90" s="102"/>
+      <c r="X90" s="102"/>
+      <c r="Y90" s="102"/>
+      <c r="Z90" s="103"/>
+      <c r="AA90" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB90" s="91"/>
-      <c r="AC90" s="91"/>
-      <c r="AD90" s="91"/>
-      <c r="AE90" s="91"/>
-      <c r="AF90" s="91"/>
-      <c r="AG90" s="91"/>
-      <c r="AH90" s="91"/>
-      <c r="AI90" s="91"/>
-      <c r="AJ90" s="91"/>
-      <c r="AK90" s="91"/>
-      <c r="AL90" s="91"/>
-      <c r="AM90" s="91"/>
-      <c r="AN90" s="91"/>
-      <c r="AO90" s="91"/>
-      <c r="AP90" s="91"/>
-      <c r="AQ90" s="92"/>
+      <c r="AB90" s="83"/>
+      <c r="AC90" s="83"/>
+      <c r="AD90" s="83"/>
+      <c r="AE90" s="83"/>
+      <c r="AF90" s="83"/>
+      <c r="AG90" s="83"/>
+      <c r="AH90" s="83"/>
+      <c r="AI90" s="83"/>
+      <c r="AJ90" s="83"/>
+      <c r="AK90" s="83"/>
+      <c r="AL90" s="83"/>
+      <c r="AM90" s="83"/>
+      <c r="AN90" s="83"/>
+      <c r="AO90" s="83"/>
+      <c r="AP90" s="83"/>
+      <c r="AQ90" s="84"/>
       <c r="AR90" s="74" t="s">
         <v>155</v>
       </c>
@@ -24354,84 +24347,84 @@
         <v>151</v>
       </c>
       <c r="AT90" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU90" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU90" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV90" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW90" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW90" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX90" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="91" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="102" t="s">
+      <c r="B91" s="94" t="s">
         <v>209</v>
       </c>
-      <c r="C91" s="83"/>
-      <c r="D91" s="103" t="s">
+      <c r="C91" s="95"/>
+      <c r="D91" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E91" s="83"/>
-      <c r="F91" s="82" t="s">
+      <c r="E91" s="95"/>
+      <c r="F91" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G91" s="83"/>
-      <c r="H91" s="84" t="s">
+      <c r="G91" s="95"/>
+      <c r="H91" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I91" s="85"/>
-      <c r="J91" s="86" t="s">
+      <c r="I91" s="99"/>
+      <c r="J91" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K91" s="86"/>
-      <c r="L91" s="86"/>
-      <c r="M91" s="83">
+      <c r="K91" s="100"/>
+      <c r="L91" s="100"/>
+      <c r="M91" s="95">
         <v>2</v>
       </c>
-      <c r="N91" s="83"/>
-      <c r="O91" s="83"/>
-      <c r="P91" s="83">
+      <c r="N91" s="95"/>
+      <c r="O91" s="95"/>
+      <c r="P91" s="95">
         <v>1</v>
       </c>
-      <c r="Q91" s="83"/>
-      <c r="R91" s="83"/>
-      <c r="S91" s="83">
+      <c r="Q91" s="95"/>
+      <c r="R91" s="95"/>
+      <c r="S91" s="95">
         <v>3</v>
       </c>
-      <c r="T91" s="83"/>
-      <c r="U91" s="87" t="s">
+      <c r="T91" s="95"/>
+      <c r="U91" s="101" t="s">
         <v>256</v>
       </c>
-      <c r="V91" s="88"/>
-      <c r="W91" s="88"/>
-      <c r="X91" s="88"/>
-      <c r="Y91" s="88"/>
-      <c r="Z91" s="89"/>
-      <c r="AA91" s="90" t="s">
+      <c r="V91" s="102"/>
+      <c r="W91" s="102"/>
+      <c r="X91" s="102"/>
+      <c r="Y91" s="102"/>
+      <c r="Z91" s="103"/>
+      <c r="AA91" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB91" s="91"/>
-      <c r="AC91" s="91"/>
-      <c r="AD91" s="91"/>
-      <c r="AE91" s="91"/>
-      <c r="AF91" s="91"/>
-      <c r="AG91" s="91"/>
-      <c r="AH91" s="91"/>
-      <c r="AI91" s="91"/>
-      <c r="AJ91" s="91"/>
-      <c r="AK91" s="91"/>
-      <c r="AL91" s="91"/>
-      <c r="AM91" s="91"/>
-      <c r="AN91" s="91"/>
-      <c r="AO91" s="91"/>
-      <c r="AP91" s="91"/>
-      <c r="AQ91" s="92"/>
+      <c r="AB91" s="83"/>
+      <c r="AC91" s="83"/>
+      <c r="AD91" s="83"/>
+      <c r="AE91" s="83"/>
+      <c r="AF91" s="83"/>
+      <c r="AG91" s="83"/>
+      <c r="AH91" s="83"/>
+      <c r="AI91" s="83"/>
+      <c r="AJ91" s="83"/>
+      <c r="AK91" s="83"/>
+      <c r="AL91" s="83"/>
+      <c r="AM91" s="83"/>
+      <c r="AN91" s="83"/>
+      <c r="AO91" s="83"/>
+      <c r="AP91" s="83"/>
+      <c r="AQ91" s="84"/>
       <c r="AR91" s="74" t="s">
         <v>155</v>
       </c>
@@ -24439,84 +24432,84 @@
         <v>151</v>
       </c>
       <c r="AT91" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU91" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU91" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV91" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW91" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW91" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX91" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="92" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="102" t="s">
+      <c r="B92" s="94" t="s">
         <v>210</v>
       </c>
-      <c r="C92" s="83"/>
-      <c r="D92" s="103" t="s">
+      <c r="C92" s="95"/>
+      <c r="D92" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E92" s="83"/>
-      <c r="F92" s="82" t="s">
+      <c r="E92" s="95"/>
+      <c r="F92" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G92" s="83"/>
-      <c r="H92" s="84" t="s">
+      <c r="G92" s="95"/>
+      <c r="H92" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I92" s="85"/>
-      <c r="J92" s="86" t="s">
+      <c r="I92" s="99"/>
+      <c r="J92" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K92" s="86"/>
-      <c r="L92" s="86"/>
-      <c r="M92" s="83">
+      <c r="K92" s="100"/>
+      <c r="L92" s="100"/>
+      <c r="M92" s="95">
         <v>2</v>
       </c>
-      <c r="N92" s="83"/>
-      <c r="O92" s="83"/>
-      <c r="P92" s="83">
+      <c r="N92" s="95"/>
+      <c r="O92" s="95"/>
+      <c r="P92" s="95">
         <v>1</v>
       </c>
-      <c r="Q92" s="83"/>
-      <c r="R92" s="83"/>
-      <c r="S92" s="83">
+      <c r="Q92" s="95"/>
+      <c r="R92" s="95"/>
+      <c r="S92" s="95">
         <v>3</v>
       </c>
-      <c r="T92" s="83"/>
-      <c r="U92" s="87" t="s">
+      <c r="T92" s="95"/>
+      <c r="U92" s="101" t="s">
         <v>274</v>
       </c>
-      <c r="V92" s="88"/>
-      <c r="W92" s="88"/>
-      <c r="X92" s="88"/>
-      <c r="Y92" s="88"/>
-      <c r="Z92" s="89"/>
-      <c r="AA92" s="90" t="s">
+      <c r="V92" s="102"/>
+      <c r="W92" s="102"/>
+      <c r="X92" s="102"/>
+      <c r="Y92" s="102"/>
+      <c r="Z92" s="103"/>
+      <c r="AA92" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB92" s="91"/>
-      <c r="AC92" s="91"/>
-      <c r="AD92" s="91"/>
-      <c r="AE92" s="91"/>
-      <c r="AF92" s="91"/>
-      <c r="AG92" s="91"/>
-      <c r="AH92" s="91"/>
-      <c r="AI92" s="91"/>
-      <c r="AJ92" s="91"/>
-      <c r="AK92" s="91"/>
-      <c r="AL92" s="91"/>
-      <c r="AM92" s="91"/>
-      <c r="AN92" s="91"/>
-      <c r="AO92" s="91"/>
-      <c r="AP92" s="91"/>
-      <c r="AQ92" s="92"/>
+      <c r="AB92" s="83"/>
+      <c r="AC92" s="83"/>
+      <c r="AD92" s="83"/>
+      <c r="AE92" s="83"/>
+      <c r="AF92" s="83"/>
+      <c r="AG92" s="83"/>
+      <c r="AH92" s="83"/>
+      <c r="AI92" s="83"/>
+      <c r="AJ92" s="83"/>
+      <c r="AK92" s="83"/>
+      <c r="AL92" s="83"/>
+      <c r="AM92" s="83"/>
+      <c r="AN92" s="83"/>
+      <c r="AO92" s="83"/>
+      <c r="AP92" s="83"/>
+      <c r="AQ92" s="84"/>
       <c r="AR92" s="74" t="s">
         <v>155</v>
       </c>
@@ -24524,84 +24517,84 @@
         <v>151</v>
       </c>
       <c r="AT92" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU92" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU92" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV92" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW92" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW92" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX92" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="93" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="102" t="s">
+      <c r="B93" s="94" t="s">
         <v>211</v>
       </c>
-      <c r="C93" s="83"/>
-      <c r="D93" s="103" t="s">
+      <c r="C93" s="95"/>
+      <c r="D93" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E93" s="83"/>
-      <c r="F93" s="82" t="s">
+      <c r="E93" s="95"/>
+      <c r="F93" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G93" s="83"/>
-      <c r="H93" s="84" t="s">
+      <c r="G93" s="95"/>
+      <c r="H93" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I93" s="85"/>
-      <c r="J93" s="86" t="s">
+      <c r="I93" s="99"/>
+      <c r="J93" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K93" s="86"/>
-      <c r="L93" s="86"/>
-      <c r="M93" s="83">
+      <c r="K93" s="100"/>
+      <c r="L93" s="100"/>
+      <c r="M93" s="95">
         <v>2</v>
       </c>
-      <c r="N93" s="83"/>
-      <c r="O93" s="83"/>
-      <c r="P93" s="83">
+      <c r="N93" s="95"/>
+      <c r="O93" s="95"/>
+      <c r="P93" s="95">
         <v>1</v>
       </c>
-      <c r="Q93" s="83"/>
-      <c r="R93" s="83"/>
-      <c r="S93" s="83">
+      <c r="Q93" s="95"/>
+      <c r="R93" s="95"/>
+      <c r="S93" s="95">
         <v>3</v>
       </c>
-      <c r="T93" s="83"/>
-      <c r="U93" s="87" t="s">
+      <c r="T93" s="95"/>
+      <c r="U93" s="101" t="s">
         <v>275</v>
       </c>
-      <c r="V93" s="88"/>
-      <c r="W93" s="88"/>
-      <c r="X93" s="88"/>
-      <c r="Y93" s="88"/>
-      <c r="Z93" s="89"/>
-      <c r="AA93" s="90" t="s">
+      <c r="V93" s="102"/>
+      <c r="W93" s="102"/>
+      <c r="X93" s="102"/>
+      <c r="Y93" s="102"/>
+      <c r="Z93" s="103"/>
+      <c r="AA93" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB93" s="91"/>
-      <c r="AC93" s="91"/>
-      <c r="AD93" s="91"/>
-      <c r="AE93" s="91"/>
-      <c r="AF93" s="91"/>
-      <c r="AG93" s="91"/>
-      <c r="AH93" s="91"/>
-      <c r="AI93" s="91"/>
-      <c r="AJ93" s="91"/>
-      <c r="AK93" s="91"/>
-      <c r="AL93" s="91"/>
-      <c r="AM93" s="91"/>
-      <c r="AN93" s="91"/>
-      <c r="AO93" s="91"/>
-      <c r="AP93" s="91"/>
-      <c r="AQ93" s="92"/>
+      <c r="AB93" s="83"/>
+      <c r="AC93" s="83"/>
+      <c r="AD93" s="83"/>
+      <c r="AE93" s="83"/>
+      <c r="AF93" s="83"/>
+      <c r="AG93" s="83"/>
+      <c r="AH93" s="83"/>
+      <c r="AI93" s="83"/>
+      <c r="AJ93" s="83"/>
+      <c r="AK93" s="83"/>
+      <c r="AL93" s="83"/>
+      <c r="AM93" s="83"/>
+      <c r="AN93" s="83"/>
+      <c r="AO93" s="83"/>
+      <c r="AP93" s="83"/>
+      <c r="AQ93" s="84"/>
       <c r="AR93" s="74" t="s">
         <v>155</v>
       </c>
@@ -24609,84 +24602,84 @@
         <v>151</v>
       </c>
       <c r="AT93" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU93" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU93" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV93" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW93" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW93" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX93" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="94" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="102" t="s">
+      <c r="B94" s="94" t="s">
         <v>212</v>
       </c>
-      <c r="C94" s="83"/>
-      <c r="D94" s="103" t="s">
+      <c r="C94" s="95"/>
+      <c r="D94" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E94" s="83"/>
-      <c r="F94" s="82" t="s">
+      <c r="E94" s="95"/>
+      <c r="F94" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G94" s="83"/>
-      <c r="H94" s="84" t="s">
+      <c r="G94" s="95"/>
+      <c r="H94" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I94" s="85"/>
-      <c r="J94" s="86" t="s">
+      <c r="I94" s="99"/>
+      <c r="J94" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K94" s="86"/>
-      <c r="L94" s="86"/>
-      <c r="M94" s="83">
+      <c r="K94" s="100"/>
+      <c r="L94" s="100"/>
+      <c r="M94" s="95">
         <v>2</v>
       </c>
-      <c r="N94" s="83"/>
-      <c r="O94" s="83"/>
-      <c r="P94" s="83">
+      <c r="N94" s="95"/>
+      <c r="O94" s="95"/>
+      <c r="P94" s="95">
         <v>1</v>
       </c>
-      <c r="Q94" s="83"/>
-      <c r="R94" s="83"/>
-      <c r="S94" s="83">
+      <c r="Q94" s="95"/>
+      <c r="R94" s="95"/>
+      <c r="S94" s="95">
         <v>3</v>
       </c>
-      <c r="T94" s="83"/>
-      <c r="U94" s="87" t="s">
+      <c r="T94" s="95"/>
+      <c r="U94" s="101" t="s">
         <v>257</v>
       </c>
-      <c r="V94" s="88"/>
-      <c r="W94" s="88"/>
-      <c r="X94" s="88"/>
-      <c r="Y94" s="88"/>
-      <c r="Z94" s="89"/>
-      <c r="AA94" s="90" t="s">
+      <c r="V94" s="102"/>
+      <c r="W94" s="102"/>
+      <c r="X94" s="102"/>
+      <c r="Y94" s="102"/>
+      <c r="Z94" s="103"/>
+      <c r="AA94" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB94" s="91"/>
-      <c r="AC94" s="91"/>
-      <c r="AD94" s="91"/>
-      <c r="AE94" s="91"/>
-      <c r="AF94" s="91"/>
-      <c r="AG94" s="91"/>
-      <c r="AH94" s="91"/>
-      <c r="AI94" s="91"/>
-      <c r="AJ94" s="91"/>
-      <c r="AK94" s="91"/>
-      <c r="AL94" s="91"/>
-      <c r="AM94" s="91"/>
-      <c r="AN94" s="91"/>
-      <c r="AO94" s="91"/>
-      <c r="AP94" s="91"/>
-      <c r="AQ94" s="92"/>
+      <c r="AB94" s="83"/>
+      <c r="AC94" s="83"/>
+      <c r="AD94" s="83"/>
+      <c r="AE94" s="83"/>
+      <c r="AF94" s="83"/>
+      <c r="AG94" s="83"/>
+      <c r="AH94" s="83"/>
+      <c r="AI94" s="83"/>
+      <c r="AJ94" s="83"/>
+      <c r="AK94" s="83"/>
+      <c r="AL94" s="83"/>
+      <c r="AM94" s="83"/>
+      <c r="AN94" s="83"/>
+      <c r="AO94" s="83"/>
+      <c r="AP94" s="83"/>
+      <c r="AQ94" s="84"/>
       <c r="AR94" s="74" t="s">
         <v>155</v>
       </c>
@@ -24694,84 +24687,84 @@
         <v>151</v>
       </c>
       <c r="AT94" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU94" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU94" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV94" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW94" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW94" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX94" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="95" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="102" t="s">
+      <c r="B95" s="94" t="s">
         <v>213</v>
       </c>
-      <c r="C95" s="83"/>
-      <c r="D95" s="103" t="s">
+      <c r="C95" s="95"/>
+      <c r="D95" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E95" s="83"/>
-      <c r="F95" s="82" t="s">
+      <c r="E95" s="95"/>
+      <c r="F95" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G95" s="83"/>
-      <c r="H95" s="84" t="s">
+      <c r="G95" s="95"/>
+      <c r="H95" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I95" s="85"/>
-      <c r="J95" s="86" t="s">
+      <c r="I95" s="99"/>
+      <c r="J95" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K95" s="86"/>
-      <c r="L95" s="86"/>
-      <c r="M95" s="83">
+      <c r="K95" s="100"/>
+      <c r="L95" s="100"/>
+      <c r="M95" s="95">
         <v>2</v>
       </c>
-      <c r="N95" s="83"/>
-      <c r="O95" s="83"/>
-      <c r="P95" s="83">
+      <c r="N95" s="95"/>
+      <c r="O95" s="95"/>
+      <c r="P95" s="95">
         <v>1</v>
       </c>
-      <c r="Q95" s="83"/>
-      <c r="R95" s="83"/>
-      <c r="S95" s="83">
+      <c r="Q95" s="95"/>
+      <c r="R95" s="95"/>
+      <c r="S95" s="95">
         <v>3</v>
       </c>
-      <c r="T95" s="83"/>
-      <c r="U95" s="87" t="s">
+      <c r="T95" s="95"/>
+      <c r="U95" s="101" t="s">
         <v>258</v>
       </c>
-      <c r="V95" s="88"/>
-      <c r="W95" s="88"/>
-      <c r="X95" s="88"/>
-      <c r="Y95" s="88"/>
-      <c r="Z95" s="89"/>
-      <c r="AA95" s="90" t="s">
+      <c r="V95" s="102"/>
+      <c r="W95" s="102"/>
+      <c r="X95" s="102"/>
+      <c r="Y95" s="102"/>
+      <c r="Z95" s="103"/>
+      <c r="AA95" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB95" s="91"/>
-      <c r="AC95" s="91"/>
-      <c r="AD95" s="91"/>
-      <c r="AE95" s="91"/>
-      <c r="AF95" s="91"/>
-      <c r="AG95" s="91"/>
-      <c r="AH95" s="91"/>
-      <c r="AI95" s="91"/>
-      <c r="AJ95" s="91"/>
-      <c r="AK95" s="91"/>
-      <c r="AL95" s="91"/>
-      <c r="AM95" s="91"/>
-      <c r="AN95" s="91"/>
-      <c r="AO95" s="91"/>
-      <c r="AP95" s="91"/>
-      <c r="AQ95" s="92"/>
+      <c r="AB95" s="83"/>
+      <c r="AC95" s="83"/>
+      <c r="AD95" s="83"/>
+      <c r="AE95" s="83"/>
+      <c r="AF95" s="83"/>
+      <c r="AG95" s="83"/>
+      <c r="AH95" s="83"/>
+      <c r="AI95" s="83"/>
+      <c r="AJ95" s="83"/>
+      <c r="AK95" s="83"/>
+      <c r="AL95" s="83"/>
+      <c r="AM95" s="83"/>
+      <c r="AN95" s="83"/>
+      <c r="AO95" s="83"/>
+      <c r="AP95" s="83"/>
+      <c r="AQ95" s="84"/>
       <c r="AR95" s="74" t="s">
         <v>155</v>
       </c>
@@ -24779,84 +24772,84 @@
         <v>151</v>
       </c>
       <c r="AT95" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU95" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU95" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV95" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW95" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW95" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX95" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="96" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="102" t="s">
+      <c r="B96" s="94" t="s">
         <v>214</v>
       </c>
-      <c r="C96" s="83"/>
-      <c r="D96" s="103" t="s">
+      <c r="C96" s="95"/>
+      <c r="D96" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E96" s="83"/>
-      <c r="F96" s="82" t="s">
+      <c r="E96" s="95"/>
+      <c r="F96" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G96" s="83"/>
-      <c r="H96" s="84" t="s">
+      <c r="G96" s="95"/>
+      <c r="H96" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I96" s="85"/>
-      <c r="J96" s="86" t="s">
+      <c r="I96" s="99"/>
+      <c r="J96" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K96" s="86"/>
-      <c r="L96" s="86"/>
-      <c r="M96" s="83">
+      <c r="K96" s="100"/>
+      <c r="L96" s="100"/>
+      <c r="M96" s="95">
         <v>2</v>
       </c>
-      <c r="N96" s="83"/>
-      <c r="O96" s="83"/>
-      <c r="P96" s="83">
+      <c r="N96" s="95"/>
+      <c r="O96" s="95"/>
+      <c r="P96" s="95">
         <v>1</v>
       </c>
-      <c r="Q96" s="83"/>
-      <c r="R96" s="83"/>
-      <c r="S96" s="83">
+      <c r="Q96" s="95"/>
+      <c r="R96" s="95"/>
+      <c r="S96" s="95">
         <v>3</v>
       </c>
-      <c r="T96" s="83"/>
-      <c r="U96" s="87" t="s">
+      <c r="T96" s="95"/>
+      <c r="U96" s="101" t="s">
         <v>259</v>
       </c>
-      <c r="V96" s="88"/>
-      <c r="W96" s="88"/>
-      <c r="X96" s="88"/>
-      <c r="Y96" s="88"/>
-      <c r="Z96" s="89"/>
-      <c r="AA96" s="90" t="s">
+      <c r="V96" s="102"/>
+      <c r="W96" s="102"/>
+      <c r="X96" s="102"/>
+      <c r="Y96" s="102"/>
+      <c r="Z96" s="103"/>
+      <c r="AA96" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB96" s="91"/>
-      <c r="AC96" s="91"/>
-      <c r="AD96" s="91"/>
-      <c r="AE96" s="91"/>
-      <c r="AF96" s="91"/>
-      <c r="AG96" s="91"/>
-      <c r="AH96" s="91"/>
-      <c r="AI96" s="91"/>
-      <c r="AJ96" s="91"/>
-      <c r="AK96" s="91"/>
-      <c r="AL96" s="91"/>
-      <c r="AM96" s="91"/>
-      <c r="AN96" s="91"/>
-      <c r="AO96" s="91"/>
-      <c r="AP96" s="91"/>
-      <c r="AQ96" s="92"/>
+      <c r="AB96" s="83"/>
+      <c r="AC96" s="83"/>
+      <c r="AD96" s="83"/>
+      <c r="AE96" s="83"/>
+      <c r="AF96" s="83"/>
+      <c r="AG96" s="83"/>
+      <c r="AH96" s="83"/>
+      <c r="AI96" s="83"/>
+      <c r="AJ96" s="83"/>
+      <c r="AK96" s="83"/>
+      <c r="AL96" s="83"/>
+      <c r="AM96" s="83"/>
+      <c r="AN96" s="83"/>
+      <c r="AO96" s="83"/>
+      <c r="AP96" s="83"/>
+      <c r="AQ96" s="84"/>
       <c r="AR96" s="74" t="s">
         <v>155</v>
       </c>
@@ -24864,84 +24857,84 @@
         <v>151</v>
       </c>
       <c r="AT96" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU96" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU96" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV96" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW96" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW96" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX96" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="97" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="102" t="s">
+      <c r="B97" s="94" t="s">
         <v>215</v>
       </c>
-      <c r="C97" s="83"/>
-      <c r="D97" s="103" t="s">
+      <c r="C97" s="95"/>
+      <c r="D97" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E97" s="83"/>
-      <c r="F97" s="82" t="s">
+      <c r="E97" s="95"/>
+      <c r="F97" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G97" s="83"/>
-      <c r="H97" s="84" t="s">
+      <c r="G97" s="95"/>
+      <c r="H97" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I97" s="85"/>
-      <c r="J97" s="86" t="s">
+      <c r="I97" s="99"/>
+      <c r="J97" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K97" s="86"/>
-      <c r="L97" s="86"/>
-      <c r="M97" s="83">
+      <c r="K97" s="100"/>
+      <c r="L97" s="100"/>
+      <c r="M97" s="95">
         <v>2</v>
       </c>
-      <c r="N97" s="83"/>
-      <c r="O97" s="83"/>
-      <c r="P97" s="83">
+      <c r="N97" s="95"/>
+      <c r="O97" s="95"/>
+      <c r="P97" s="95">
         <v>1</v>
       </c>
-      <c r="Q97" s="83"/>
-      <c r="R97" s="83"/>
-      <c r="S97" s="83">
+      <c r="Q97" s="95"/>
+      <c r="R97" s="95"/>
+      <c r="S97" s="95">
         <v>3</v>
       </c>
-      <c r="T97" s="83"/>
-      <c r="U97" s="87" t="s">
+      <c r="T97" s="95"/>
+      <c r="U97" s="101" t="s">
         <v>260</v>
       </c>
-      <c r="V97" s="88"/>
-      <c r="W97" s="88"/>
-      <c r="X97" s="88"/>
-      <c r="Y97" s="88"/>
-      <c r="Z97" s="89"/>
-      <c r="AA97" s="90" t="s">
+      <c r="V97" s="102"/>
+      <c r="W97" s="102"/>
+      <c r="X97" s="102"/>
+      <c r="Y97" s="102"/>
+      <c r="Z97" s="103"/>
+      <c r="AA97" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB97" s="91"/>
-      <c r="AC97" s="91"/>
-      <c r="AD97" s="91"/>
-      <c r="AE97" s="91"/>
-      <c r="AF97" s="91"/>
-      <c r="AG97" s="91"/>
-      <c r="AH97" s="91"/>
-      <c r="AI97" s="91"/>
-      <c r="AJ97" s="91"/>
-      <c r="AK97" s="91"/>
-      <c r="AL97" s="91"/>
-      <c r="AM97" s="91"/>
-      <c r="AN97" s="91"/>
-      <c r="AO97" s="91"/>
-      <c r="AP97" s="91"/>
-      <c r="AQ97" s="92"/>
+      <c r="AB97" s="83"/>
+      <c r="AC97" s="83"/>
+      <c r="AD97" s="83"/>
+      <c r="AE97" s="83"/>
+      <c r="AF97" s="83"/>
+      <c r="AG97" s="83"/>
+      <c r="AH97" s="83"/>
+      <c r="AI97" s="83"/>
+      <c r="AJ97" s="83"/>
+      <c r="AK97" s="83"/>
+      <c r="AL97" s="83"/>
+      <c r="AM97" s="83"/>
+      <c r="AN97" s="83"/>
+      <c r="AO97" s="83"/>
+      <c r="AP97" s="83"/>
+      <c r="AQ97" s="84"/>
       <c r="AR97" s="74" t="s">
         <v>155</v>
       </c>
@@ -24949,84 +24942,84 @@
         <v>151</v>
       </c>
       <c r="AT97" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU97" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU97" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV97" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW97" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW97" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX97" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="98" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="102" t="s">
+      <c r="B98" s="94" t="s">
         <v>216</v>
       </c>
-      <c r="C98" s="83"/>
-      <c r="D98" s="103" t="s">
+      <c r="C98" s="95"/>
+      <c r="D98" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E98" s="83"/>
-      <c r="F98" s="82" t="s">
+      <c r="E98" s="95"/>
+      <c r="F98" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G98" s="83"/>
-      <c r="H98" s="84" t="s">
+      <c r="G98" s="95"/>
+      <c r="H98" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I98" s="85"/>
-      <c r="J98" s="86" t="s">
+      <c r="I98" s="99"/>
+      <c r="J98" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K98" s="86"/>
-      <c r="L98" s="86"/>
-      <c r="M98" s="83">
+      <c r="K98" s="100"/>
+      <c r="L98" s="100"/>
+      <c r="M98" s="95">
         <v>2</v>
       </c>
-      <c r="N98" s="83"/>
-      <c r="O98" s="83"/>
-      <c r="P98" s="83">
+      <c r="N98" s="95"/>
+      <c r="O98" s="95"/>
+      <c r="P98" s="95">
         <v>1</v>
       </c>
-      <c r="Q98" s="83"/>
-      <c r="R98" s="83"/>
-      <c r="S98" s="83">
+      <c r="Q98" s="95"/>
+      <c r="R98" s="95"/>
+      <c r="S98" s="95">
         <v>3</v>
       </c>
-      <c r="T98" s="83"/>
-      <c r="U98" s="87" t="s">
+      <c r="T98" s="95"/>
+      <c r="U98" s="101" t="s">
         <v>261</v>
       </c>
-      <c r="V98" s="88"/>
-      <c r="W98" s="88"/>
-      <c r="X98" s="88"/>
-      <c r="Y98" s="88"/>
-      <c r="Z98" s="89"/>
-      <c r="AA98" s="90" t="s">
+      <c r="V98" s="102"/>
+      <c r="W98" s="102"/>
+      <c r="X98" s="102"/>
+      <c r="Y98" s="102"/>
+      <c r="Z98" s="103"/>
+      <c r="AA98" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB98" s="91"/>
-      <c r="AC98" s="91"/>
-      <c r="AD98" s="91"/>
-      <c r="AE98" s="91"/>
-      <c r="AF98" s="91"/>
-      <c r="AG98" s="91"/>
-      <c r="AH98" s="91"/>
-      <c r="AI98" s="91"/>
-      <c r="AJ98" s="91"/>
-      <c r="AK98" s="91"/>
-      <c r="AL98" s="91"/>
-      <c r="AM98" s="91"/>
-      <c r="AN98" s="91"/>
-      <c r="AO98" s="91"/>
-      <c r="AP98" s="91"/>
-      <c r="AQ98" s="92"/>
+      <c r="AB98" s="83"/>
+      <c r="AC98" s="83"/>
+      <c r="AD98" s="83"/>
+      <c r="AE98" s="83"/>
+      <c r="AF98" s="83"/>
+      <c r="AG98" s="83"/>
+      <c r="AH98" s="83"/>
+      <c r="AI98" s="83"/>
+      <c r="AJ98" s="83"/>
+      <c r="AK98" s="83"/>
+      <c r="AL98" s="83"/>
+      <c r="AM98" s="83"/>
+      <c r="AN98" s="83"/>
+      <c r="AO98" s="83"/>
+      <c r="AP98" s="83"/>
+      <c r="AQ98" s="84"/>
       <c r="AR98" s="74" t="s">
         <v>155</v>
       </c>
@@ -25034,84 +25027,84 @@
         <v>151</v>
       </c>
       <c r="AT98" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU98" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU98" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV98" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW98" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW98" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX98" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="99" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="102" t="s">
+      <c r="B99" s="94" t="s">
         <v>217</v>
       </c>
-      <c r="C99" s="83"/>
-      <c r="D99" s="103" t="s">
+      <c r="C99" s="95"/>
+      <c r="D99" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E99" s="83"/>
-      <c r="F99" s="82" t="s">
+      <c r="E99" s="95"/>
+      <c r="F99" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G99" s="83"/>
-      <c r="H99" s="84" t="s">
+      <c r="G99" s="95"/>
+      <c r="H99" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I99" s="85"/>
-      <c r="J99" s="86" t="s">
+      <c r="I99" s="99"/>
+      <c r="J99" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K99" s="86"/>
-      <c r="L99" s="86"/>
-      <c r="M99" s="83">
+      <c r="K99" s="100"/>
+      <c r="L99" s="100"/>
+      <c r="M99" s="95">
         <v>2</v>
       </c>
-      <c r="N99" s="83"/>
-      <c r="O99" s="83"/>
-      <c r="P99" s="83">
+      <c r="N99" s="95"/>
+      <c r="O99" s="95"/>
+      <c r="P99" s="95">
         <v>1</v>
       </c>
-      <c r="Q99" s="83"/>
-      <c r="R99" s="83"/>
-      <c r="S99" s="83">
+      <c r="Q99" s="95"/>
+      <c r="R99" s="95"/>
+      <c r="S99" s="95">
         <v>3</v>
       </c>
-      <c r="T99" s="83"/>
-      <c r="U99" s="82" t="s">
+      <c r="T99" s="95"/>
+      <c r="U99" s="97" t="s">
         <v>276</v>
       </c>
-      <c r="V99" s="82"/>
-      <c r="W99" s="82"/>
-      <c r="X99" s="82"/>
-      <c r="Y99" s="82"/>
-      <c r="Z99" s="82"/>
-      <c r="AA99" s="90" t="s">
+      <c r="V99" s="97"/>
+      <c r="W99" s="97"/>
+      <c r="X99" s="97"/>
+      <c r="Y99" s="97"/>
+      <c r="Z99" s="97"/>
+      <c r="AA99" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB99" s="91"/>
-      <c r="AC99" s="91"/>
-      <c r="AD99" s="91"/>
-      <c r="AE99" s="91"/>
-      <c r="AF99" s="91"/>
-      <c r="AG99" s="91"/>
-      <c r="AH99" s="91"/>
-      <c r="AI99" s="91"/>
-      <c r="AJ99" s="91"/>
-      <c r="AK99" s="91"/>
-      <c r="AL99" s="91"/>
-      <c r="AM99" s="91"/>
-      <c r="AN99" s="91"/>
-      <c r="AO99" s="91"/>
-      <c r="AP99" s="91"/>
-      <c r="AQ99" s="92"/>
+      <c r="AB99" s="83"/>
+      <c r="AC99" s="83"/>
+      <c r="AD99" s="83"/>
+      <c r="AE99" s="83"/>
+      <c r="AF99" s="83"/>
+      <c r="AG99" s="83"/>
+      <c r="AH99" s="83"/>
+      <c r="AI99" s="83"/>
+      <c r="AJ99" s="83"/>
+      <c r="AK99" s="83"/>
+      <c r="AL99" s="83"/>
+      <c r="AM99" s="83"/>
+      <c r="AN99" s="83"/>
+      <c r="AO99" s="83"/>
+      <c r="AP99" s="83"/>
+      <c r="AQ99" s="84"/>
       <c r="AR99" s="74" t="s">
         <v>155</v>
       </c>
@@ -25119,84 +25112,84 @@
         <v>151</v>
       </c>
       <c r="AT99" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU99" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU99" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV99" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW99" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW99" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX99" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="100" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="102" t="s">
+      <c r="B100" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="C100" s="83"/>
-      <c r="D100" s="103" t="s">
+      <c r="C100" s="95"/>
+      <c r="D100" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E100" s="83"/>
-      <c r="F100" s="82" t="s">
+      <c r="E100" s="95"/>
+      <c r="F100" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="G100" s="83"/>
-      <c r="H100" s="84" t="s">
+      <c r="G100" s="95"/>
+      <c r="H100" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="I100" s="85"/>
-      <c r="J100" s="86" t="s">
+      <c r="I100" s="99"/>
+      <c r="J100" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="K100" s="86"/>
-      <c r="L100" s="86"/>
-      <c r="M100" s="83">
+      <c r="K100" s="100"/>
+      <c r="L100" s="100"/>
+      <c r="M100" s="95">
         <v>2</v>
       </c>
-      <c r="N100" s="83"/>
-      <c r="O100" s="83"/>
-      <c r="P100" s="83">
+      <c r="N100" s="95"/>
+      <c r="O100" s="95"/>
+      <c r="P100" s="95">
         <v>1</v>
       </c>
-      <c r="Q100" s="83"/>
-      <c r="R100" s="83"/>
-      <c r="S100" s="83">
+      <c r="Q100" s="95"/>
+      <c r="R100" s="95"/>
+      <c r="S100" s="95">
         <v>3</v>
       </c>
-      <c r="T100" s="83"/>
-      <c r="U100" s="82" t="s">
+      <c r="T100" s="95"/>
+      <c r="U100" s="97" t="s">
         <v>277</v>
       </c>
-      <c r="V100" s="82"/>
-      <c r="W100" s="82"/>
-      <c r="X100" s="82"/>
-      <c r="Y100" s="82"/>
-      <c r="Z100" s="82"/>
-      <c r="AA100" s="90" t="s">
+      <c r="V100" s="97"/>
+      <c r="W100" s="97"/>
+      <c r="X100" s="97"/>
+      <c r="Y100" s="97"/>
+      <c r="Z100" s="97"/>
+      <c r="AA100" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="AB100" s="91"/>
-      <c r="AC100" s="91"/>
-      <c r="AD100" s="91"/>
-      <c r="AE100" s="91"/>
-      <c r="AF100" s="91"/>
-      <c r="AG100" s="91"/>
-      <c r="AH100" s="91"/>
-      <c r="AI100" s="91"/>
-      <c r="AJ100" s="91"/>
-      <c r="AK100" s="91"/>
-      <c r="AL100" s="91"/>
-      <c r="AM100" s="91"/>
-      <c r="AN100" s="91"/>
-      <c r="AO100" s="91"/>
-      <c r="AP100" s="91"/>
-      <c r="AQ100" s="92"/>
+      <c r="AB100" s="83"/>
+      <c r="AC100" s="83"/>
+      <c r="AD100" s="83"/>
+      <c r="AE100" s="83"/>
+      <c r="AF100" s="83"/>
+      <c r="AG100" s="83"/>
+      <c r="AH100" s="83"/>
+      <c r="AI100" s="83"/>
+      <c r="AJ100" s="83"/>
+      <c r="AK100" s="83"/>
+      <c r="AL100" s="83"/>
+      <c r="AM100" s="83"/>
+      <c r="AN100" s="83"/>
+      <c r="AO100" s="83"/>
+      <c r="AP100" s="83"/>
+      <c r="AQ100" s="84"/>
       <c r="AR100" s="71" t="s">
         <v>155</v>
       </c>
@@ -25204,16 +25197,16 @@
         <v>151</v>
       </c>
       <c r="AT100" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU100" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="AU100" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="AV100" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW100" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="AW100" s="44" t="s">
-        <v>290</v>
       </c>
       <c r="AX100" s="77" t="s">
         <v>130</v>
@@ -26056,25 +26049,25 @@
       <c r="AQ123" s="5"/>
     </row>
     <row r="124" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B124" s="190" t="s">
+      <c r="B124" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="C124" s="190"/>
-      <c r="D124" s="190"/>
-      <c r="E124" s="190"/>
-      <c r="F124" s="190"/>
-      <c r="G124" s="190"/>
-      <c r="H124" s="190"/>
-      <c r="I124" s="190"/>
-      <c r="J124" s="190"/>
-      <c r="K124" s="190"/>
-      <c r="L124" s="190"/>
-      <c r="M124" s="190"/>
-      <c r="N124" s="190"/>
-      <c r="O124" s="190"/>
-      <c r="P124" s="190"/>
-      <c r="Q124" s="190"/>
-      <c r="R124" s="190"/>
+      <c r="C124" s="193"/>
+      <c r="D124" s="193"/>
+      <c r="E124" s="193"/>
+      <c r="F124" s="193"/>
+      <c r="G124" s="193"/>
+      <c r="H124" s="193"/>
+      <c r="I124" s="193"/>
+      <c r="J124" s="193"/>
+      <c r="K124" s="193"/>
+      <c r="L124" s="193"/>
+      <c r="M124" s="193"/>
+      <c r="N124" s="193"/>
+      <c r="O124" s="193"/>
+      <c r="P124" s="193"/>
+      <c r="Q124" s="193"/>
+      <c r="R124" s="193"/>
       <c r="AB124" s="10" t="s">
         <v>23</v>
       </c>
@@ -26107,20 +26100,20 @@
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
-      <c r="H126" s="191" t="s">
+      <c r="H126" s="194" t="s">
         <v>220</v>
       </c>
-      <c r="I126" s="191"/>
-      <c r="J126" s="191"/>
-      <c r="K126" s="191"/>
-      <c r="L126" s="191"/>
-      <c r="M126" s="191"/>
-      <c r="N126" s="191"/>
-      <c r="O126" s="191"/>
-      <c r="P126" s="191"/>
-      <c r="Q126" s="191"/>
-      <c r="R126" s="191"/>
-      <c r="S126" s="191"/>
+      <c r="I126" s="194"/>
+      <c r="J126" s="194"/>
+      <c r="K126" s="194"/>
+      <c r="L126" s="194"/>
+      <c r="M126" s="194"/>
+      <c r="N126" s="194"/>
+      <c r="O126" s="194"/>
+      <c r="P126" s="194"/>
+      <c r="Q126" s="194"/>
+      <c r="R126" s="194"/>
+      <c r="S126" s="194"/>
       <c r="AM126" t="s">
         <v>80</v>
       </c>
@@ -26360,9 +26353,19 @@
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="J44:L44"/>
     <mergeCell ref="M100:O100"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="AA47:AQ47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:Z47"/>
+    <mergeCell ref="AA48:AQ48"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:L48"/>
     <mergeCell ref="U82:Z82"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="P100:R100"/>
@@ -26374,7 +26377,16 @@
     <mergeCell ref="J40:L40"/>
     <mergeCell ref="M40:O40"/>
     <mergeCell ref="B40:I40"/>
-    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="P91:R91"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="U90:Z90"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:AG11"/>
@@ -26385,11 +26397,6 @@
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="M12:AG12"/>
     <mergeCell ref="AH12:AQ12"/>
-    <mergeCell ref="AH10:AQ10"/>
-    <mergeCell ref="H25:AQ25"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="K13:L13"/>
@@ -26409,11 +26416,9 @@
     <mergeCell ref="H27:AQ27"/>
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="J35:L35"/>
-    <mergeCell ref="AA47:AQ47"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="P91:R91"/>
-    <mergeCell ref="S91:T91"/>
-    <mergeCell ref="U90:Z90"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
     <mergeCell ref="J3:AQ4"/>
     <mergeCell ref="I7:AQ7"/>
     <mergeCell ref="I8:J8"/>
@@ -26433,24 +26438,11 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:AG10"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:Z47"/>
-    <mergeCell ref="AA48:AQ48"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="AH10:AQ10"/>
+    <mergeCell ref="H25:AQ25"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="M48:O48"/>
     <mergeCell ref="P48:R48"/>
     <mergeCell ref="S48:T48"/>
@@ -26732,6 +26724,10 @@
     <mergeCell ref="P75:R75"/>
     <mergeCell ref="S75:T75"/>
     <mergeCell ref="U75:Z75"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="S79:T79"/>
+    <mergeCell ref="U79:Z79"/>
+    <mergeCell ref="B93:C93"/>
     <mergeCell ref="AA77:AQ77"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="D78:E78"/>
@@ -26752,6 +26748,10 @@
     <mergeCell ref="P77:R77"/>
     <mergeCell ref="S77:T77"/>
     <mergeCell ref="U77:Z77"/>
+    <mergeCell ref="U93:Z93"/>
+    <mergeCell ref="AA90:AQ90"/>
+    <mergeCell ref="AA91:AQ91"/>
+    <mergeCell ref="AA92:AQ92"/>
     <mergeCell ref="AA93:AQ93"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="D94:E94"/>
@@ -26772,27 +26772,6 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="J79:L79"/>
     <mergeCell ref="M79:O79"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="S79:T79"/>
-    <mergeCell ref="U79:Z79"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="M93:O93"/>
-    <mergeCell ref="P93:R93"/>
-    <mergeCell ref="S93:T93"/>
-    <mergeCell ref="U93:Z93"/>
-    <mergeCell ref="AA90:AQ90"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:L90"/>
-    <mergeCell ref="M90:O90"/>
-    <mergeCell ref="P90:R90"/>
-    <mergeCell ref="S90:T90"/>
     <mergeCell ref="AA83:AQ83"/>
     <mergeCell ref="B84:C84"/>
     <mergeCell ref="D84:E84"/>
@@ -26853,6 +26832,7 @@
     <mergeCell ref="P87:R87"/>
     <mergeCell ref="S87:T87"/>
     <mergeCell ref="U87:Z87"/>
+    <mergeCell ref="U92:Z92"/>
     <mergeCell ref="AA89:AQ89"/>
     <mergeCell ref="B89:C89"/>
     <mergeCell ref="D89:E89"/>
@@ -26863,7 +26843,15 @@
     <mergeCell ref="P89:R89"/>
     <mergeCell ref="S89:T89"/>
     <mergeCell ref="U89:Z89"/>
-    <mergeCell ref="AA91:AQ91"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:L90"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="P90:R90"/>
+    <mergeCell ref="S90:T90"/>
+    <mergeCell ref="B96:C96"/>
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="D92:E92"/>
     <mergeCell ref="F92:G92"/>
@@ -26872,8 +26860,14 @@
     <mergeCell ref="M92:O92"/>
     <mergeCell ref="P92:R92"/>
     <mergeCell ref="S92:T92"/>
-    <mergeCell ref="U92:Z92"/>
-    <mergeCell ref="AA92:AQ92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="M93:O93"/>
+    <mergeCell ref="P93:R93"/>
+    <mergeCell ref="S93:T93"/>
+    <mergeCell ref="AA96:AQ96"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="D91:E91"/>
     <mergeCell ref="F91:G91"/>
@@ -26897,7 +26891,7 @@
     <mergeCell ref="S97:T97"/>
     <mergeCell ref="U97:Z97"/>
     <mergeCell ref="AA95:AQ95"/>
-    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="U94:Z94"/>
     <mergeCell ref="D96:E96"/>
     <mergeCell ref="F96:G96"/>
     <mergeCell ref="H96:I96"/>
@@ -26906,7 +26900,12 @@
     <mergeCell ref="P96:R96"/>
     <mergeCell ref="S96:T96"/>
     <mergeCell ref="U96:Z96"/>
-    <mergeCell ref="AA96:AQ96"/>
+    <mergeCell ref="AA97:AQ97"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H82:I82"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="D95:E95"/>
     <mergeCell ref="F95:G95"/>
@@ -26915,8 +26914,16 @@
     <mergeCell ref="M95:O95"/>
     <mergeCell ref="P95:R95"/>
     <mergeCell ref="S95:T95"/>
-    <mergeCell ref="U46:Z46"/>
-    <mergeCell ref="AA46:AQ46"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="S82:T82"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="M94:O94"/>
+    <mergeCell ref="P94:R94"/>
+    <mergeCell ref="S94:T94"/>
     <mergeCell ref="AA99:AQ99"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="D100:E100"/>
@@ -26934,23 +26941,7 @@
     <mergeCell ref="P99:R99"/>
     <mergeCell ref="S99:T99"/>
     <mergeCell ref="U99:Z99"/>
-    <mergeCell ref="AA97:AQ97"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="S82:T82"/>
-    <mergeCell ref="AA82:AQ82"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="S100:T100"/>
     <mergeCell ref="P45:R45"/>
     <mergeCell ref="S45:T45"/>
     <mergeCell ref="U45:Z45"/>
@@ -26963,13 +26954,8 @@
     <mergeCell ref="M46:O46"/>
     <mergeCell ref="P46:R46"/>
     <mergeCell ref="S46:T46"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="M94:O94"/>
-    <mergeCell ref="P94:R94"/>
-    <mergeCell ref="S94:T94"/>
-    <mergeCell ref="U94:Z94"/>
+    <mergeCell ref="AA46:AQ46"/>
+    <mergeCell ref="U46:Z46"/>
     <mergeCell ref="AA94:AQ94"/>
     <mergeCell ref="B37:I37"/>
     <mergeCell ref="J37:L37"/>
@@ -26987,6 +26973,13 @@
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="D82:E82"/>
     <mergeCell ref="F82:G82"/>
+    <mergeCell ref="AA82:AQ82"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="7">
